--- a/Viabilidade inicial Modelo.xlsx
+++ b/Viabilidade inicial Modelo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="MENÚ DE OPCIÓNS" sheetId="1" state="visible" r:id="rId3"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="210">
   <si>
     <t xml:space="preserve">ANÁLISE DA VIABILIDADE INICIAL</t>
   </si>
@@ -660,16 +660,106 @@
     <t xml:space="preserve">1. SEGMENTO DE CLIENTELA</t>
   </si>
   <si>
+    <t xml:space="preserve">A relación coa clientela será moi personalizada, buscando unha boa comunicación para poder ofrecer unha solución o máis axustada posible ás necesidades do cliente. Pretendemos crear un bo ambiente co cliente para entender da mellor maneira posible o que necesita, facendo que o resultado final se axuste ao 100% ao que quere. Ademais, queremos manter un contacto constante con el, levando a cabo reunións para que poida seguir os avances connosco.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O segmento de clientela estará composto por centros educativos que impartan formación profesional e que estean interesados en ofrecer oportunidades laborais aos seus exalumnos unha vez rematen os seus estudos. Tamén nos diriximos a universidades que busquen conexións con empresas para facilitar a inserción laboral do seu alumnado ou a realización de prácticas. Ademais, podemos ofrecer outras solucións de software adaptadas ás necesidades de entidades públicas, aínda que o noso principal enfoque está no sector laboral.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC componentes
+IES de Teis
+Universidade de Vigo
+Xunta de Galicia </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A56BA"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Desenvolvemento de software </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A56BA"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Servicio de mantemento de sofware Venta a puerta fria</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">A nosa proposta de valor baséase en tres piares fundamentais:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1. Mellor usabilidade: Deseñamos interfaces accesibles e fáciles de usar tanto para funcionarios como para estudantes, garantindo unha experiencia óptima en todos os dispositivos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2. Personalización: Adaptamos a plataforma ás necesidades de cada centro, permitindo configuracións específicas e funcionalidades á medida.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3. Intelixencia Artificial: Implementamos algoritmos de IA para analizar tendencias do mercado laboral e facilitar a toma de decisións na orientación profesional.</t>
+  </si>
+  <si>
     <t xml:space="preserve">6. RECURSOS CLAVE</t>
   </si>
   <si>
     <t xml:space="preserve">3. CANLES</t>
   </si>
   <si>
+    <t xml:space="preserve">Buena promoción e marketing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RRSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equipos informáticos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A puerta fria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sitio web</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marketing de  boca a boca</t>
+  </si>
+  <si>
     <t xml:space="preserve">9. ESTRUTURA DE CUSTOS</t>
   </si>
   <si>
     <t xml:space="preserve">5. FONTES DE INGRESOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venta de software ámbito laboral </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electricidade </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venta de software especializado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Persoal: salario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mantemento de software propio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Custos administrativos e legais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Publicidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mantemento oficina </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Material de traballo, equipos informáticos</t>
   </si>
   <si>
     <t xml:space="preserve">CUANTIFICACIÓN DA IDEA DE NEGOCIO</t>
@@ -742,7 +832,7 @@
     <numFmt numFmtId="169" formatCode="0.00"/>
     <numFmt numFmtId="170" formatCode="#,##0.00;[RED]#,##0.00"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -901,6 +991,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1A56BA"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1A56BA"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -1379,28 +1481,28 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="164">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1408,11 +1510,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1420,7 +1526,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1428,23 +1534,23 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1452,63 +1558,63 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1516,23 +1622,23 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="5" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="18" fillId="5" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="17" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1540,127 +1646,131 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="5" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="18" fillId="5" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="17" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="13" fillId="5" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="13" fillId="5" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="13" fillId="5" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="13" fillId="5" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="13" fillId="5" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="13" fillId="5" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="13" fillId="5" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="13" fillId="5" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="13" fillId="5" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="3" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="18" fillId="3" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="3" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="18" fillId="3" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1668,19 +1778,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="5" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="18" fillId="5" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="8" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="17" fillId="8" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1688,19 +1798,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="5" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="18" fillId="5" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="8" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="17" fillId="8" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1708,27 +1818,27 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="3" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="18" fillId="3" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="3" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="18" fillId="3" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="31" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="31" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="5" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="18" fillId="5" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1736,63 +1846,63 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="5" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="18" fillId="5" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="8" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="17" fillId="8" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="4" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="4" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="38" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="38" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="4" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="4" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="31" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="31" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="4" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="4" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="37" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="37" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="13" fillId="5" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="13" fillId="5" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1812,7 +1922,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="4" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="16" fillId="4" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
@@ -1820,7 +1930,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="4" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="16" fillId="4" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
@@ -1828,15 +1938,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="4" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="16" fillId="4" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="4" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="16" fillId="4" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="4" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="16" fillId="4" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
@@ -1852,15 +1962,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="39" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="39" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="40" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="40" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1872,15 +1982,31 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="42" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="41" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="41" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="42" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="21" fillId="0" borderId="43" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="39" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="39" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1892,23 +2018,23 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="24" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="3" borderId="46" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="24" fillId="3" borderId="46" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="24" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1920,95 +2046,95 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="46" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="46" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="24" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="8" borderId="36" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="8" borderId="36" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="8" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="12" fillId="8" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="17" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="17" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="47" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="47" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="48" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="48" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="170" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="4" borderId="28" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="170" fontId="0" fillId="4" borderId="28" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="49" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="49" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2522,185 +2648,185 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="62" width="13.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="24" width="12.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="20.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="16.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="64" width="13.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="25" width="12.44"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
-        <v>168</v>
+      <c r="A1" s="8" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="26" t="s">
-        <v>169</v>
+      <c r="A2" s="27" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="128" t="s">
-        <v>170</v>
-      </c>
-      <c r="B4" s="129"/>
-      <c r="C4" s="130"/>
-      <c r="E4" s="131" t="s">
-        <v>171</v>
+      <c r="A4" s="134" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" s="135"/>
+      <c r="C4" s="136"/>
+      <c r="E4" s="137" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C5" s="132" t="s">
-        <v>172</v>
-      </c>
-      <c r="D5" s="132"/>
-      <c r="E5" s="133"/>
+      <c r="C5" s="138" t="s">
+        <v>195</v>
+      </c>
+      <c r="D5" s="138"/>
+      <c r="E5" s="139"/>
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C6" s="132" t="s">
-        <v>173</v>
-      </c>
-      <c r="D6" s="132"/>
-      <c r="E6" s="134"/>
+      <c r="C6" s="138" t="s">
+        <v>196</v>
+      </c>
+      <c r="D6" s="138"/>
+      <c r="E6" s="140"/>
     </row>
     <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="128" t="s">
-        <v>174</v>
-      </c>
-      <c r="B7" s="135"/>
-      <c r="C7" s="130"/>
+      <c r="A7" s="134" t="s">
+        <v>197</v>
+      </c>
+      <c r="B7" s="141"/>
+      <c r="C7" s="136"/>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C8" s="132" t="s">
-        <v>175</v>
-      </c>
-      <c r="D8" s="132"/>
-      <c r="E8" s="133"/>
+      <c r="C8" s="138" t="s">
+        <v>198</v>
+      </c>
+      <c r="D8" s="138"/>
+      <c r="E8" s="139"/>
     </row>
     <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C9" s="132" t="s">
-        <v>176</v>
-      </c>
-      <c r="D9" s="132"/>
-      <c r="E9" s="134"/>
-      <c r="F9" s="136" t="str">
+      <c r="C9" s="138" t="s">
+        <v>199</v>
+      </c>
+      <c r="D9" s="138"/>
+      <c r="E9" s="140"/>
+      <c r="F9" s="142" t="str">
         <f aca="false">IF(E5+E6&lt;&gt;E8+E9,"DESCUADRE"," ")</f>
         <v> </v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="128" t="s">
-        <v>177</v>
-      </c>
-      <c r="B11" s="129"/>
-      <c r="C11" s="137"/>
+      <c r="A11" s="134" t="s">
+        <v>200</v>
+      </c>
+      <c r="B11" s="135"/>
+      <c r="C11" s="143"/>
     </row>
     <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C12" s="132" t="s">
-        <v>178</v>
-      </c>
-      <c r="D12" s="132"/>
-      <c r="E12" s="138"/>
+      <c r="C12" s="138" t="s">
+        <v>201</v>
+      </c>
+      <c r="D12" s="138"/>
+      <c r="E12" s="144"/>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C13" s="132" t="s">
-        <v>179</v>
-      </c>
-      <c r="D13" s="132"/>
-      <c r="E13" s="138"/>
+      <c r="C13" s="138" t="s">
+        <v>202</v>
+      </c>
+      <c r="D13" s="138"/>
+      <c r="E13" s="144"/>
     </row>
     <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C14" s="139" t="s">
-        <v>180</v>
-      </c>
-      <c r="D14" s="132"/>
-      <c r="E14" s="140" t="n">
+      <c r="C14" s="145" t="s">
+        <v>203</v>
+      </c>
+      <c r="D14" s="138"/>
+      <c r="E14" s="146" t="n">
         <f aca="false">E12-E13</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C15" s="139" t="s">
-        <v>181</v>
-      </c>
-      <c r="D15" s="139"/>
-      <c r="E15" s="141" t="n">
+      <c r="C15" s="145" t="s">
+        <v>204</v>
+      </c>
+      <c r="D15" s="145"/>
+      <c r="E15" s="147" t="n">
         <f aca="false">E5+E6</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C16" s="61" t="s">
-        <v>182</v>
-      </c>
-      <c r="D16" s="61"/>
-      <c r="E16" s="142" t="n">
+      <c r="C16" s="63" t="s">
+        <v>205</v>
+      </c>
+      <c r="D16" s="63"/>
+      <c r="E16" s="148" t="n">
         <f aca="false">IF(E15=0,0,E15/E14)</f>
         <v>0</v>
       </c>
-      <c r="F16" s="143" t="s">
-        <v>183</v>
+      <c r="F16" s="149" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="144"/>
-      <c r="B20" s="145"/>
-      <c r="C20" s="146"/>
-      <c r="D20" s="146"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="147"/>
+      <c r="A20" s="150"/>
+      <c r="B20" s="151"/>
+      <c r="C20" s="152"/>
+      <c r="D20" s="152"/>
+      <c r="E20" s="152"/>
+      <c r="F20" s="153"/>
     </row>
     <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="144"/>
-      <c r="B21" s="148"/>
-      <c r="C21" s="149" t="s">
-        <v>184</v>
-      </c>
-      <c r="D21" s="149"/>
-      <c r="E21" s="150"/>
-      <c r="F21" s="151"/>
+      <c r="A21" s="150"/>
+      <c r="B21" s="154"/>
+      <c r="C21" s="155" t="s">
+        <v>207</v>
+      </c>
+      <c r="D21" s="155"/>
+      <c r="E21" s="156"/>
+      <c r="F21" s="157"/>
     </row>
     <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="144"/>
-      <c r="B22" s="148"/>
-      <c r="C22" s="149" t="s">
-        <v>185</v>
-      </c>
-      <c r="D22" s="149"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="151"/>
+      <c r="A22" s="150"/>
+      <c r="B22" s="154"/>
+      <c r="C22" s="155" t="s">
+        <v>208</v>
+      </c>
+      <c r="D22" s="155"/>
+      <c r="E22" s="158"/>
+      <c r="F22" s="157"/>
     </row>
     <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="144"/>
-      <c r="B23" s="148"/>
-      <c r="C23" s="149" t="s">
-        <v>186</v>
-      </c>
-      <c r="D23" s="153"/>
-      <c r="E23" s="154" t="n">
+      <c r="A23" s="150"/>
+      <c r="B23" s="154"/>
+      <c r="C23" s="155" t="s">
+        <v>209</v>
+      </c>
+      <c r="D23" s="159"/>
+      <c r="E23" s="160" t="n">
         <f aca="false">IF(E21-E22=0,0,E15/(E21-E22))</f>
         <v>0</v>
       </c>
-      <c r="F23" s="151"/>
+      <c r="F23" s="157"/>
     </row>
     <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="144"/>
-      <c r="B24" s="148"/>
-      <c r="C24" s="153"/>
-      <c r="D24" s="153"/>
-      <c r="E24" s="153"/>
-      <c r="F24" s="151"/>
+      <c r="A24" s="150"/>
+      <c r="B24" s="154"/>
+      <c r="C24" s="159"/>
+      <c r="D24" s="159"/>
+      <c r="E24" s="159"/>
+      <c r="F24" s="157"/>
     </row>
     <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="144"/>
-      <c r="B25" s="155"/>
-      <c r="C25" s="156"/>
-      <c r="D25" s="156"/>
-      <c r="E25" s="156"/>
-      <c r="F25" s="157"/>
+      <c r="A25" s="150"/>
+      <c r="B25" s="161"/>
+      <c r="C25" s="162"/>
+      <c r="D25" s="162"/>
+      <c r="E25" s="162"/>
+      <c r="F25" s="163"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="MP24MV7HK58UEYt56cggEtH2GgyK72fpECPlUfu0/wZLeGVj5+0qQhjxSbUxyBcT3VWkdiTDoPOxWrLde0Idkg==" saltValue="0opukY4hGXeHGufxaJqtgA==" spinCount="100000" sheet="true" selectLockedCells="true"/>
@@ -2721,38 +2847,38 @@
   </sheetPr>
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="150"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="47.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="150"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="47.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="199.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="99.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11"/>
+      <c r="A7" s="12"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="yRRas50JA2oxRbGXhz4REbzCIIUPurzoKyp/BZEW3ZLkMBO4vYWjO/pFRnFV9wmrdTSm+R8nLQEUABMscYpqCQ==" saltValue="UvWsAcT2wnfCvUWPxmINmA==" spinCount="100000" sheet="true" objects="true" scenarios="true"/>
@@ -2787,56 +2913,56 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="13" t="n">
+      <c r="J1" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="K1" s="13" t="n">
+      <c r="K1" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="L1" s="13" t="n">
+      <c r="L1" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="M1" s="13" t="n">
+      <c r="M1" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="N1" s="13" t="n">
+      <c r="N1" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="O1" s="13" t="n">
+      <c r="O1" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="P1" s="13" t="n">
+      <c r="P1" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="Q1" s="13" t="n">
+      <c r="Q1" s="14" t="n">
         <v>8</v>
       </c>
-      <c r="R1" s="13" t="n">
+      <c r="R1" s="14" t="n">
         <v>9</v>
       </c>
-      <c r="S1" s="13" t="n">
+      <c r="S1" s="14" t="n">
         <v>10</v>
       </c>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
     </row>
     <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="17" t="n">
+      <c r="B4" s="18" t="n">
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -2844,10 +2970,10 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="17" t="n">
+      <c r="B5" s="18" t="n">
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -2855,10 +2981,10 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="17" t="n">
+      <c r="B6" s="18" t="n">
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -2866,10 +2992,10 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="17" t="n">
+      <c r="B7" s="18" t="n">
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -2877,10 +3003,10 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="17" t="n">
+      <c r="B8" s="18" t="n">
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -2888,10 +3014,10 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="17" t="n">
+      <c r="B9" s="18" t="n">
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -2899,10 +3025,10 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="17" t="n">
+      <c r="B10" s="18" t="n">
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -2910,10 +3036,10 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="17" t="n">
+      <c r="B11" s="18" t="n">
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -2921,10 +3047,10 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="17" t="n">
+      <c r="B12" s="18" t="n">
         <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -2932,10 +3058,10 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="17" t="n">
+      <c r="B13" s="18" t="n">
         <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -2943,10 +3069,10 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="17" t="n">
+      <c r="B14" s="18" t="n">
         <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -2954,10 +3080,10 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="17" t="n">
+      <c r="B15" s="18" t="n">
         <v>8</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -2965,10 +3091,10 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="17" t="n">
+      <c r="B16" s="18" t="n">
         <v>8</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -2976,10 +3102,10 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="17" t="n">
+      <c r="B17" s="18" t="n">
         <v>10</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -2987,42 +3113,42 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="19" t="n">
+      <c r="B18" s="20" t="n">
         <f aca="false">SUM(B4:B17)</f>
         <v>123</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="19" t="n">
+      <c r="B19" s="20" t="n">
         <v>140</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="21" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="18"/>
+      <c r="A20" s="19"/>
     </row>
     <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="21" t="n">
+      <c r="B21" s="22" t="n">
         <f aca="false">B18/B19</f>
         <v>0.878571428571429</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="23" t="str">
+      <c r="B23" s="24" t="str">
         <f aca="false">IF(B21&lt;50%,"REXEITAR IDEA",IF(B21&gt;70%,"ACEPTAR IDEA","ACEPTAR IDEA CON REPAROS"))</f>
         <v>ACEPTAR IDEA</v>
       </c>
@@ -3069,678 +3195,678 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="46.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="24" width="10.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="24" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="19" min="10" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="46.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="25" width="10.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="25" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="19" min="10" style="7" width="11.53"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
+    <row r="1" s="8" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="J1" s="13" t="n">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="J1" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="K1" s="13" t="n">
+      <c r="K1" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="L1" s="13" t="n">
+      <c r="L1" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="M1" s="13" t="n">
+      <c r="M1" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="N1" s="13" t="n">
+      <c r="N1" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="O1" s="13" t="n">
+      <c r="O1" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="P1" s="13" t="n">
+      <c r="P1" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="Q1" s="13" t="n">
+      <c r="Q1" s="14" t="n">
         <v>8</v>
       </c>
-      <c r="R1" s="13" t="n">
+      <c r="R1" s="14" t="n">
         <v>9</v>
       </c>
-      <c r="S1" s="13" t="n">
+      <c r="S1" s="14" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="2" s="26" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="26" t="s">
+    <row r="2" s="27" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-    </row>
-    <row r="4" s="31" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="28" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+    </row>
+    <row r="4" s="32" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="31" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="33" t="n">
+      <c r="B5" s="34" t="n">
         <v>9</v>
       </c>
-      <c r="C5" s="34" t="str">
+      <c r="C5" s="35" t="str">
         <f aca="false">IF(B5&lt;4,"Debilidade D",IF(B5&gt;6,"Fortaleza F","Indiferente"))</f>
         <v>Fortaleza F</v>
       </c>
-      <c r="D5" s="35" t="str">
+      <c r="D5" s="36" t="str">
         <f aca="false">IF(B5&gt;10,"Corrixir!",IF(B5&lt;1,"Corrixir!"," "))</f>
         <v> </v>
       </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="33" t="n">
+      <c r="B6" s="34" t="n">
         <v>8</v>
       </c>
-      <c r="C6" s="34" t="str">
+      <c r="C6" s="35" t="str">
         <f aca="false">IF(B6&lt;4,"Debilidade D",IF(B6&gt;6,"Fortaleza F","Indiferente"))</f>
         <v>Fortaleza F</v>
       </c>
-      <c r="D6" s="35" t="str">
+      <c r="D6" s="36" t="str">
         <f aca="false">IF(B6&gt;10,"Corrixir!",IF(B6&lt;1,"Corrixir!"," "))</f>
         <v> </v>
       </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
     </row>
     <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="33" t="n">
+      <c r="B7" s="34" t="n">
         <v>7</v>
       </c>
-      <c r="C7" s="34" t="str">
+      <c r="C7" s="35" t="str">
         <f aca="false">IF(B7&lt;4,"Debilidade D",IF(B7&gt;6,"Fortaleza F","Indiferente"))</f>
         <v>Fortaleza F</v>
       </c>
-      <c r="D7" s="35" t="str">
+      <c r="D7" s="36" t="str">
         <f aca="false">IF(B7&gt;10,"Corrixir!",IF(B7&lt;1,"Corrixir!"," "))</f>
         <v> </v>
       </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="33" t="n">
+      <c r="B8" s="34" t="n">
         <v>10</v>
       </c>
-      <c r="C8" s="34" t="str">
+      <c r="C8" s="35" t="str">
         <f aca="false">IF(B8&lt;4,"Debilidade D",IF(B8&gt;6,"Fortaleza F","Indiferente"))</f>
         <v>Fortaleza F</v>
       </c>
-      <c r="D8" s="35" t="str">
+      <c r="D8" s="36" t="str">
         <f aca="false">IF(B8&gt;10,"Corrixir!",IF(B8&lt;1,"Corrixir!"," "))</f>
         <v> </v>
       </c>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
     </row>
     <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="33" t="n">
+      <c r="B9" s="34" t="n">
         <v>6</v>
       </c>
-      <c r="C9" s="34" t="str">
+      <c r="C9" s="35" t="str">
         <f aca="false">IF(B9&lt;4,"Debilidade D",IF(B9&gt;6,"Fortaleza F","Indiferente"))</f>
         <v>Indiferente</v>
       </c>
-      <c r="D9" s="35" t="str">
+      <c r="D9" s="36" t="str">
         <f aca="false">IF(B9&gt;10,"Corrixir!",IF(B9&lt;1,"Corrixir!"," "))</f>
         <v> </v>
       </c>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
     </row>
     <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="33" t="n">
+      <c r="B10" s="34" t="n">
         <v>5</v>
       </c>
-      <c r="C10" s="34" t="str">
+      <c r="C10" s="35" t="str">
         <f aca="false">IF(B10&lt;4,"Debilidade D",IF(B10&gt;6,"Fortaleza F","Indiferente"))</f>
         <v>Indiferente</v>
       </c>
-      <c r="D10" s="35" t="str">
+      <c r="D10" s="36" t="str">
         <f aca="false">IF(B10&gt;10,"Corrixir!",IF(B10&lt;1,"Corrixir!"," "))</f>
         <v> </v>
       </c>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
     </row>
     <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="33" t="n">
+      <c r="B11" s="34" t="n">
         <v>7</v>
       </c>
-      <c r="C11" s="34" t="str">
+      <c r="C11" s="35" t="str">
         <f aca="false">IF(B11&lt;4,"Debilidade D",IF(B11&gt;6,"Fortaleza F","Indiferente"))</f>
         <v>Fortaleza F</v>
       </c>
-      <c r="D11" s="35" t="str">
+      <c r="D11" s="36" t="str">
         <f aca="false">IF(B11&gt;10,"Corrixir!",IF(B11&lt;1,"Corrixir!"," "))</f>
         <v> </v>
       </c>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
     </row>
     <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="33" t="n">
+      <c r="B12" s="34" t="n">
         <v>2</v>
       </c>
-      <c r="C12" s="34" t="str">
+      <c r="C12" s="35" t="str">
         <f aca="false">IF(B12&lt;4,"Debilidade D",IF(B12&gt;6,"Fortaleza F","Indiferente"))</f>
         <v>Debilidade D</v>
       </c>
-      <c r="D12" s="35" t="str">
+      <c r="D12" s="36" t="str">
         <f aca="false">IF(B12&gt;10,"Corrixir!",IF(B12&lt;1,"Corrixir!"," "))</f>
         <v> </v>
       </c>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="33" t="n">
+      <c r="B13" s="34" t="n">
         <v>8</v>
       </c>
-      <c r="C13" s="34" t="str">
+      <c r="C13" s="35" t="str">
         <f aca="false">IF(B13&lt;4,"Debilidade D",IF(B13&gt;6,"Fortaleza F","Indiferente"))</f>
         <v>Fortaleza F</v>
       </c>
-      <c r="D13" s="35" t="str">
+      <c r="D13" s="36" t="str">
         <f aca="false">IF(B13&gt;10,"Corrixir!",IF(B13&lt;1,"Corrixir!"," "))</f>
         <v> </v>
       </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
     </row>
     <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="33" t="n">
+      <c r="B14" s="34" t="n">
         <v>10</v>
       </c>
-      <c r="C14" s="34" t="str">
+      <c r="C14" s="35" t="str">
         <f aca="false">IF(B14&lt;4,"Debilidade D",IF(B14&gt;6,"Fortaleza F","Indiferente"))</f>
         <v>Fortaleza F</v>
       </c>
-      <c r="D14" s="35" t="str">
+      <c r="D14" s="36" t="str">
         <f aca="false">IF(B14&gt;10,"Corrixir!",IF(B14&lt;1,"Corrixir!"," "))</f>
         <v> </v>
       </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
     </row>
     <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="33" t="n">
+      <c r="B15" s="34" t="n">
         <v>5</v>
       </c>
-      <c r="C15" s="34" t="str">
+      <c r="C15" s="35" t="str">
         <f aca="false">IF(B15&lt;4,"Debilidade D",IF(B15&gt;6,"Fortaleza F","Indiferente"))</f>
         <v>Indiferente</v>
       </c>
-      <c r="D15" s="35" t="str">
+      <c r="D15" s="36" t="str">
         <f aca="false">IF(B15&gt;10,"Corrixir!",IF(B15&lt;1,"Corrixir!"," "))</f>
         <v> </v>
       </c>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
     </row>
     <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="33" t="n">
+      <c r="B16" s="34" t="n">
         <v>5</v>
       </c>
-      <c r="C16" s="34" t="str">
+      <c r="C16" s="35" t="str">
         <f aca="false">IF(B16&lt;4,"Debilidade D",IF(B16&gt;6,"Fortaleza F","Indiferente"))</f>
         <v>Indiferente</v>
       </c>
-      <c r="D16" s="35" t="str">
+      <c r="D16" s="36" t="str">
         <f aca="false">IF(B16&gt;10,"Corrixir!",IF(B16&lt;1,"Corrixir!"," "))</f>
         <v> </v>
       </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
     </row>
     <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="33" t="n">
+      <c r="B17" s="34" t="n">
         <v>8</v>
       </c>
-      <c r="C17" s="34" t="str">
+      <c r="C17" s="35" t="str">
         <f aca="false">IF(B17&lt;4,"Debilidade D",IF(B17&gt;6,"Fortaleza F","Indiferente"))</f>
         <v>Fortaleza F</v>
       </c>
-      <c r="D17" s="35" t="str">
+      <c r="D17" s="36" t="str">
         <f aca="false">IF(B17&gt;10,"Corrixir!",IF(B17&lt;1,"Corrixir!"," "))</f>
         <v> </v>
       </c>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
     </row>
     <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="33" t="n">
+      <c r="B18" s="34" t="n">
         <v>10</v>
       </c>
-      <c r="C18" s="34" t="str">
+      <c r="C18" s="35" t="str">
         <f aca="false">IF(B18&lt;4,"Debilidade D",IF(B18&gt;6,"Fortaleza F","Indiferente"))</f>
         <v>Fortaleza F</v>
       </c>
-      <c r="D18" s="35" t="str">
+      <c r="D18" s="36" t="str">
         <f aca="false">IF(B18&gt;10,"Corrixir!",IF(B18&lt;1,"Corrixir!"," "))</f>
         <v> </v>
       </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
     </row>
     <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="33" t="n">
+      <c r="B19" s="34" t="n">
         <v>8</v>
       </c>
-      <c r="C19" s="34" t="str">
+      <c r="C19" s="35" t="str">
         <f aca="false">IF(B19&lt;4,"Debilidade D",IF(B19&gt;6,"Fortaleza F","Indiferente"))</f>
         <v>Fortaleza F</v>
       </c>
-      <c r="D19" s="35" t="str">
+      <c r="D19" s="36" t="str">
         <f aca="false">IF(B19&gt;10,"Corrixir!",IF(B19&lt;1,"Corrixir!"," "))</f>
         <v> </v>
       </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
     </row>
     <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="33" t="n">
+      <c r="B20" s="34" t="n">
         <v>8</v>
       </c>
-      <c r="C20" s="34" t="str">
+      <c r="C20" s="35" t="str">
         <f aca="false">IF(B20&lt;4,"Debilidade D",IF(B20&gt;6,"Fortaleza F","Indiferente"))</f>
         <v>Fortaleza F</v>
       </c>
-      <c r="D20" s="35" t="str">
+      <c r="D20" s="36" t="str">
         <f aca="false">IF(B20&gt;10,"Corrixir!",IF(B20&lt;1,"Corrixir!"," "))</f>
         <v> </v>
       </c>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
     </row>
     <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="33" t="n">
+      <c r="B21" s="34" t="n">
         <v>10</v>
       </c>
-      <c r="C21" s="34" t="str">
+      <c r="C21" s="35" t="str">
         <f aca="false">IF(B21&lt;4,"Debilidade D",IF(B21&gt;6,"Fortaleza F","Indiferente"))</f>
         <v>Fortaleza F</v>
       </c>
-      <c r="D21" s="35" t="str">
+      <c r="D21" s="36" t="str">
         <f aca="false">IF(B21&gt;10,"Corrixir!",IF(B21&lt;1,"Corrixir!"," "))</f>
         <v> </v>
       </c>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
     </row>
     <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="33" t="n">
+      <c r="B22" s="34" t="n">
         <v>8</v>
       </c>
-      <c r="C22" s="34" t="str">
+      <c r="C22" s="35" t="str">
         <f aca="false">IF(B22&lt;4,"Debilidade D",IF(B22&gt;6,"Fortaleza F","Indiferente"))</f>
         <v>Fortaleza F</v>
       </c>
-      <c r="D22" s="35" t="str">
+      <c r="D22" s="36" t="str">
         <f aca="false">IF(B22&gt;10,"Corrixir!",IF(B22&lt;1,"Corrixir!"," "))</f>
         <v> </v>
       </c>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
     </row>
     <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="33" t="n">
+      <c r="B23" s="34" t="n">
         <v>8</v>
       </c>
-      <c r="C23" s="34" t="str">
+      <c r="C23" s="35" t="str">
         <f aca="false">IF(B23&lt;4,"Debilidade D",IF(B23&gt;6,"Fortaleza F","Indiferente"))</f>
         <v>Fortaleza F</v>
       </c>
-      <c r="D23" s="35" t="str">
+      <c r="D23" s="36" t="str">
         <f aca="false">IF(B23&gt;10,"Corrixir!",IF(B23&lt;1,"Corrixir!"," "))</f>
         <v> </v>
       </c>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
     </row>
     <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="B24" s="33" t="n">
+      <c r="B24" s="34" t="n">
         <v>10</v>
       </c>
-      <c r="C24" s="34" t="str">
+      <c r="C24" s="35" t="str">
         <f aca="false">IF(B24&lt;4,"Debilidade D",IF(B24&gt;6,"Fortaleza F","Indiferente"))</f>
         <v>Fortaleza F</v>
       </c>
-      <c r="D24" s="35" t="str">
+      <c r="D24" s="36" t="str">
         <f aca="false">IF(B24&gt;10,"Corrixir!",IF(B24&lt;1,"Corrixir!"," "))</f>
         <v> </v>
       </c>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
     </row>
     <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="B25" s="33" t="n">
+      <c r="B25" s="34" t="n">
         <v>9</v>
       </c>
-      <c r="C25" s="34" t="str">
+      <c r="C25" s="35" t="str">
         <f aca="false">IF(B25&lt;4,"Debilidade D",IF(B25&gt;6,"Fortaleza F","Indiferente"))</f>
         <v>Fortaleza F</v>
       </c>
-      <c r="D25" s="35" t="str">
+      <c r="D25" s="36" t="str">
         <f aca="false">IF(B25&gt;10,"Corrixir!",IF(B25&lt;1,"Corrixir!"," "))</f>
         <v> </v>
       </c>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
     </row>
     <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="33" t="n">
+      <c r="B26" s="34" t="n">
         <v>10</v>
       </c>
-      <c r="C26" s="34" t="str">
+      <c r="C26" s="35" t="str">
         <f aca="false">IF(B26&lt;4,"Debilidade D",IF(B26&gt;6,"Fortaleza F","Indiferente"))</f>
         <v>Fortaleza F</v>
       </c>
-      <c r="D26" s="35" t="str">
+      <c r="D26" s="36" t="str">
         <f aca="false">IF(B26&gt;10,"Corrixir!",IF(B26&lt;1,"Corrixir!"," "))</f>
         <v> </v>
       </c>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
     </row>
     <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="38" t="s">
+      <c r="A27" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="B27" s="39" t="n">
+      <c r="B27" s="40" t="n">
         <v>8</v>
       </c>
-      <c r="C27" s="40" t="str">
+      <c r="C27" s="41" t="str">
         <f aca="false">IF(B27&lt;4,"Debilidade D",IF(B27&gt;6,"Fortaleza F","Indiferente"))</f>
         <v>Fortaleza F</v>
       </c>
-      <c r="D27" s="41" t="str">
+      <c r="D27" s="42" t="str">
         <f aca="false">IF(B27&gt;10,"Corrixir!",IF(B27&lt;1,"Corrixir!"," "))</f>
         <v> </v>
       </c>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="36"/>
-    </row>
-    <row r="28" s="31" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="42" t="s">
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
+    </row>
+    <row r="28" s="32" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="B28" s="43" t="n">
+      <c r="B28" s="44" t="n">
         <f aca="false">SUM(B5:B27)</f>
         <v>179</v>
       </c>
-      <c r="C28" s="44" t="n">
+      <c r="C28" s="45" t="n">
         <f aca="false">B28/23</f>
         <v>7.78260869565217</v>
       </c>
-      <c r="D28" s="45"/>
+      <c r="D28" s="46"/>
     </row>
     <row r="29" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="31"/>
+      <c r="A30" s="32"/>
     </row>
     <row r="31" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="46" t="s">
+      <c r="A31" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="B31" s="46"/>
-      <c r="C31" s="46"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
     </row>
     <row r="32" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="33" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="46" t="str">
+      <c r="A33" s="48" t="str">
         <f aca="false">IF(C28&lt;4,"AS HABILIDADES SON 'DEFICIENTES' E DEBE AMPLIALAS",IF(C28&gt;7,"BO PERFIL EMPRENDEDOR (TEN HABILIDADES DIRECTIVAS)","POUCAS HABILIDADES, DEBEN SER MELLORADAS"))</f>
         <v>BO PERFIL EMPRENDEDOR (TEN HABILIDADES DIRECTIVAS)</v>
       </c>
-      <c r="B33" s="46"/>
+      <c r="B33" s="48"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="3bwQ+BS9NHQb64TWGnATl6VGP+3jk9Tf71YcPuKyiQO8nh1kGW6fm2s5NGxA/kJqedofP7HIQ12MhS+MibMiDw==" saltValue="8Jm/BQYnm22oh7Q9Byoj9w==" spinCount="100000" sheet="true" selectLockedCells="true"/>
@@ -3811,426 +3937,426 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="24" width="11.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="24" width="12.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="24" width="11.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="42.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="25" width="11.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="25" width="12.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="25" width="11.33"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
+    <row r="1" s="8" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="52" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
     </row>
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="52" t="str">
+      <c r="B5" s="54" t="str">
         <f aca="false">IF('Habilidades directivas'!B5&gt;3," ","*")</f>
         <v> </v>
       </c>
-      <c r="C5" s="53" t="str">
+      <c r="C5" s="55" t="str">
         <f aca="false">IF('Habilidades directivas'!B5&lt;4," ",IF('Habilidades directivas'!B5&gt;6," ","*"))</f>
         <v> </v>
       </c>
-      <c r="D5" s="54" t="str">
+      <c r="D5" s="56" t="str">
         <f aca="false">IF('Habilidades directivas'!B5&gt;6,"*"," ")</f>
         <v>*</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="55" t="str">
+      <c r="B6" s="57" t="str">
         <f aca="false">IF('Habilidades directivas'!B6&gt;3," ","*")</f>
         <v> </v>
       </c>
-      <c r="C6" s="56" t="str">
+      <c r="C6" s="58" t="str">
         <f aca="false">IF('Habilidades directivas'!B6&lt;4," ",IF('Habilidades directivas'!B6&gt;6," ","*"))</f>
         <v> </v>
       </c>
-      <c r="D6" s="57" t="str">
+      <c r="D6" s="59" t="str">
         <f aca="false">IF('Habilidades directivas'!B6&gt;6,"*"," ")</f>
         <v>*</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="55" t="str">
+      <c r="B7" s="57" t="str">
         <f aca="false">IF('Habilidades directivas'!B7&gt;3," ","*")</f>
         <v> </v>
       </c>
-      <c r="C7" s="56" t="str">
+      <c r="C7" s="58" t="str">
         <f aca="false">IF('Habilidades directivas'!B7&lt;4," ",IF('Habilidades directivas'!B7&gt;6," ","*"))</f>
         <v> </v>
       </c>
-      <c r="D7" s="57" t="str">
+      <c r="D7" s="59" t="str">
         <f aca="false">IF('Habilidades directivas'!B7&gt;6,"*"," ")</f>
         <v>*</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="55" t="str">
+      <c r="B8" s="57" t="str">
         <f aca="false">IF('Habilidades directivas'!B8&gt;3," ","*")</f>
         <v> </v>
       </c>
-      <c r="C8" s="56" t="str">
+      <c r="C8" s="58" t="str">
         <f aca="false">IF('Habilidades directivas'!B8&lt;4," ",IF('Habilidades directivas'!B8&gt;6," ","*"))</f>
         <v> </v>
       </c>
-      <c r="D8" s="57" t="str">
+      <c r="D8" s="59" t="str">
         <f aca="false">IF('Habilidades directivas'!B8&gt;6,"*"," ")</f>
         <v>*</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="55" t="str">
+      <c r="B9" s="57" t="str">
         <f aca="false">IF('Habilidades directivas'!B9&gt;3," ","*")</f>
         <v> </v>
       </c>
-      <c r="C9" s="56" t="str">
+      <c r="C9" s="58" t="str">
         <f aca="false">IF('Habilidades directivas'!B9&lt;4," ",IF('Habilidades directivas'!B9&gt;6," ","*"))</f>
         <v>*</v>
       </c>
-      <c r="D9" s="57" t="str">
+      <c r="D9" s="59" t="str">
         <f aca="false">IF('Habilidades directivas'!B9&gt;6,"*"," ")</f>
         <v> </v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="55" t="str">
+      <c r="B10" s="57" t="str">
         <f aca="false">IF('Habilidades directivas'!B10&gt;3," ","*")</f>
         <v> </v>
       </c>
-      <c r="C10" s="56" t="str">
+      <c r="C10" s="58" t="str">
         <f aca="false">IF('Habilidades directivas'!B10&lt;4," ",IF('Habilidades directivas'!B10&gt;6," ","*"))</f>
         <v>*</v>
       </c>
-      <c r="D10" s="57" t="str">
+      <c r="D10" s="59" t="str">
         <f aca="false">IF('Habilidades directivas'!B10&gt;6,"*"," ")</f>
         <v> </v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="55" t="str">
+      <c r="B11" s="57" t="str">
         <f aca="false">IF('Habilidades directivas'!B11&gt;3," ","*")</f>
         <v> </v>
       </c>
-      <c r="C11" s="56" t="str">
+      <c r="C11" s="58" t="str">
         <f aca="false">IF('Habilidades directivas'!B11&lt;4," ",IF('Habilidades directivas'!B11&gt;6," ","*"))</f>
         <v> </v>
       </c>
-      <c r="D11" s="57" t="str">
+      <c r="D11" s="59" t="str">
         <f aca="false">IF('Habilidades directivas'!B11&gt;6,"*"," ")</f>
         <v>*</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="55" t="str">
+      <c r="B12" s="57" t="str">
         <f aca="false">IF('Habilidades directivas'!B12&gt;3," ","*")</f>
         <v>*</v>
       </c>
-      <c r="C12" s="56" t="str">
+      <c r="C12" s="58" t="str">
         <f aca="false">IF('Habilidades directivas'!B12&lt;4," ",IF('Habilidades directivas'!B12&gt;6," ","*"))</f>
         <v> </v>
       </c>
-      <c r="D12" s="57" t="str">
+      <c r="D12" s="59" t="str">
         <f aca="false">IF('Habilidades directivas'!B12&gt;6,"*"," ")</f>
         <v> </v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="55" t="str">
+      <c r="B13" s="57" t="str">
         <f aca="false">IF('Habilidades directivas'!B13&gt;3," ","*")</f>
         <v> </v>
       </c>
-      <c r="C13" s="56" t="str">
+      <c r="C13" s="58" t="str">
         <f aca="false">IF('Habilidades directivas'!B13&lt;4," ",IF('Habilidades directivas'!B13&gt;6," ","*"))</f>
         <v> </v>
       </c>
-      <c r="D13" s="57" t="str">
+      <c r="D13" s="59" t="str">
         <f aca="false">IF('Habilidades directivas'!B13&gt;6,"*"," ")</f>
         <v>*</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="55" t="str">
+      <c r="B14" s="57" t="str">
         <f aca="false">IF('Habilidades directivas'!B14&gt;3," ","*")</f>
         <v> </v>
       </c>
-      <c r="C14" s="56" t="str">
+      <c r="C14" s="58" t="str">
         <f aca="false">IF('Habilidades directivas'!B14&lt;4," ",IF('Habilidades directivas'!B14&gt;6," ","*"))</f>
         <v> </v>
       </c>
-      <c r="D14" s="57" t="str">
+      <c r="D14" s="59" t="str">
         <f aca="false">IF('Habilidades directivas'!B14&gt;6,"*"," ")</f>
         <v>*</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="55" t="str">
+      <c r="B15" s="57" t="str">
         <f aca="false">IF('Habilidades directivas'!B15&gt;3," ","*")</f>
         <v> </v>
       </c>
-      <c r="C15" s="56" t="str">
+      <c r="C15" s="58" t="str">
         <f aca="false">IF('Habilidades directivas'!B15&lt;4," ",IF('Habilidades directivas'!B15&gt;6," ","*"))</f>
         <v>*</v>
       </c>
-      <c r="D15" s="57" t="str">
+      <c r="D15" s="59" t="str">
         <f aca="false">IF('Habilidades directivas'!B15&gt;6,"*"," ")</f>
         <v> </v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="55" t="str">
+      <c r="B16" s="57" t="str">
         <f aca="false">IF('Habilidades directivas'!B16&gt;3," ","*")</f>
         <v> </v>
       </c>
-      <c r="C16" s="56" t="str">
+      <c r="C16" s="58" t="str">
         <f aca="false">IF('Habilidades directivas'!B16&lt;4," ",IF('Habilidades directivas'!B16&gt;6," ","*"))</f>
         <v>*</v>
       </c>
-      <c r="D16" s="57" t="str">
+      <c r="D16" s="59" t="str">
         <f aca="false">IF('Habilidades directivas'!B16&gt;6,"*"," ")</f>
         <v> </v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="55" t="str">
+      <c r="B17" s="57" t="str">
         <f aca="false">IF('Habilidades directivas'!B17&gt;3," ","*")</f>
         <v> </v>
       </c>
-      <c r="C17" s="56" t="str">
+      <c r="C17" s="58" t="str">
         <f aca="false">IF('Habilidades directivas'!B17&lt;4," ",IF('Habilidades directivas'!B17&gt;6," ","*"))</f>
         <v> </v>
       </c>
-      <c r="D17" s="57" t="str">
+      <c r="D17" s="59" t="str">
         <f aca="false">IF('Habilidades directivas'!B17&gt;6,"*"," ")</f>
         <v>*</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="55" t="str">
+      <c r="B18" s="57" t="str">
         <f aca="false">IF('Habilidades directivas'!B18&gt;3," ","*")</f>
         <v> </v>
       </c>
-      <c r="C18" s="56" t="str">
+      <c r="C18" s="58" t="str">
         <f aca="false">IF('Habilidades directivas'!B18&lt;4," ",IF('Habilidades directivas'!B18&gt;6," ","*"))</f>
         <v> </v>
       </c>
-      <c r="D18" s="57" t="str">
+      <c r="D18" s="59" t="str">
         <f aca="false">IF('Habilidades directivas'!B18&gt;6,"*"," ")</f>
         <v>*</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="55" t="str">
+      <c r="B19" s="57" t="str">
         <f aca="false">IF('Habilidades directivas'!B19&gt;3," ","*")</f>
         <v> </v>
       </c>
-      <c r="C19" s="56" t="str">
+      <c r="C19" s="58" t="str">
         <f aca="false">IF('Habilidades directivas'!B19&lt;4," ",IF('Habilidades directivas'!B19&gt;6," ","*"))</f>
         <v> </v>
       </c>
-      <c r="D19" s="57" t="str">
+      <c r="D19" s="59" t="str">
         <f aca="false">IF('Habilidades directivas'!B19&gt;6,"*"," ")</f>
         <v>*</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="55" t="str">
+      <c r="B20" s="57" t="str">
         <f aca="false">IF('Habilidades directivas'!B20&gt;3," ","*")</f>
         <v> </v>
       </c>
-      <c r="C20" s="56" t="str">
+      <c r="C20" s="58" t="str">
         <f aca="false">IF('Habilidades directivas'!B20&lt;4," ",IF('Habilidades directivas'!B20&gt;6," ","*"))</f>
         <v> </v>
       </c>
-      <c r="D20" s="57" t="str">
+      <c r="D20" s="59" t="str">
         <f aca="false">IF('Habilidades directivas'!B20&gt;6,"*"," ")</f>
         <v>*</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="55" t="str">
+      <c r="B21" s="57" t="str">
         <f aca="false">IF('Habilidades directivas'!B21&gt;3," ","*")</f>
         <v> </v>
       </c>
-      <c r="C21" s="56" t="str">
+      <c r="C21" s="58" t="str">
         <f aca="false">IF('Habilidades directivas'!B21&lt;4," ",IF('Habilidades directivas'!B21&gt;6," ","*"))</f>
         <v> </v>
       </c>
-      <c r="D21" s="57" t="str">
+      <c r="D21" s="59" t="str">
         <f aca="false">IF('Habilidades directivas'!B21&gt;6,"*"," ")</f>
         <v>*</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="55" t="str">
+      <c r="B22" s="57" t="str">
         <f aca="false">IF('Habilidades directivas'!B22&gt;3," ","*")</f>
         <v> </v>
       </c>
-      <c r="C22" s="56" t="str">
+      <c r="C22" s="58" t="str">
         <f aca="false">IF('Habilidades directivas'!B22&lt;4," ",IF('Habilidades directivas'!B22&gt;6," ","*"))</f>
         <v> </v>
       </c>
-      <c r="D22" s="57" t="str">
+      <c r="D22" s="59" t="str">
         <f aca="false">IF('Habilidades directivas'!B22&gt;6,"*"," ")</f>
         <v>*</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="55" t="str">
+      <c r="B23" s="57" t="str">
         <f aca="false">IF('Habilidades directivas'!B23&gt;3," ","*")</f>
         <v> </v>
       </c>
-      <c r="C23" s="56" t="str">
+      <c r="C23" s="58" t="str">
         <f aca="false">IF('Habilidades directivas'!B23&lt;4," ",IF('Habilidades directivas'!B23&gt;6," ","*"))</f>
         <v> </v>
       </c>
-      <c r="D23" s="57" t="str">
+      <c r="D23" s="59" t="str">
         <f aca="false">IF('Habilidades directivas'!B23&gt;6,"*"," ")</f>
         <v>*</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="B24" s="55" t="str">
+      <c r="B24" s="57" t="str">
         <f aca="false">IF('Habilidades directivas'!B24&gt;3," ","*")</f>
         <v> </v>
       </c>
-      <c r="C24" s="56" t="str">
+      <c r="C24" s="58" t="str">
         <f aca="false">IF('Habilidades directivas'!B24&lt;4," ",IF('Habilidades directivas'!B24&gt;6," ","*"))</f>
         <v> </v>
       </c>
-      <c r="D24" s="57" t="str">
+      <c r="D24" s="59" t="str">
         <f aca="false">IF('Habilidades directivas'!B24&gt;6,"*"," ")</f>
         <v>*</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="B25" s="55" t="str">
+      <c r="B25" s="57" t="str">
         <f aca="false">IF('Habilidades directivas'!B25&gt;3," ","*")</f>
         <v> </v>
       </c>
-      <c r="C25" s="56" t="str">
+      <c r="C25" s="58" t="str">
         <f aca="false">IF('Habilidades directivas'!B25&lt;4," ",IF('Habilidades directivas'!B25&gt;6," ","*"))</f>
         <v> </v>
       </c>
-      <c r="D25" s="57" t="str">
+      <c r="D25" s="59" t="str">
         <f aca="false">IF('Habilidades directivas'!B25&gt;6,"*"," ")</f>
         <v>*</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="55" t="str">
+      <c r="B26" s="57" t="str">
         <f aca="false">IF('Habilidades directivas'!B26&gt;3," ","*")</f>
         <v> </v>
       </c>
-      <c r="C26" s="56" t="str">
+      <c r="C26" s="58" t="str">
         <f aca="false">IF('Habilidades directivas'!B26&lt;4," ",IF('Habilidades directivas'!B26&gt;6," ","*"))</f>
         <v> </v>
       </c>
-      <c r="D26" s="57" t="str">
+      <c r="D26" s="59" t="str">
         <f aca="false">IF('Habilidades directivas'!B26&gt;6,"*"," ")</f>
         <v>*</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="38" t="s">
+      <c r="A27" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="B27" s="58" t="str">
+      <c r="B27" s="60" t="str">
         <f aca="false">IF('Habilidades directivas'!B27&gt;3," ","*")</f>
         <v> </v>
       </c>
-      <c r="C27" s="59" t="str">
+      <c r="C27" s="61" t="str">
         <f aca="false">IF('Habilidades directivas'!B27&lt;4," ",IF('Habilidades directivas'!B27&gt;6," ","*"))</f>
         <v> </v>
       </c>
-      <c r="D27" s="60" t="str">
+      <c r="D27" s="62" t="str">
         <f aca="false">IF('Habilidades directivas'!B27&gt;6,"*"," ")</f>
         <v>*</v>
       </c>
@@ -4260,688 +4386,688 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="136.33"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="11" min="8" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="44.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="19.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="12.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="136.33"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="11" min="8" style="7" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="H1" s="13" t="n">
+      <c r="H1" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="I1" s="13" t="n">
+      <c r="I1" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="J1" s="13" t="n">
+      <c r="J1" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="K1" s="13" t="n">
+      <c r="K1" s="14" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="24"/>
-    </row>
-    <row r="3" s="31" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="61" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="25"/>
+    </row>
+    <row r="3" s="32" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
     </row>
     <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
     </row>
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="67" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="67" t="n">
+      <c r="B6" s="69" t="n">
         <f aca="false">SUM(B7:B13)</f>
         <v>19</v>
       </c>
-      <c r="C6" s="68" t="n">
+      <c r="C6" s="70" t="n">
         <f aca="false">(B6/7)/100</f>
         <v>0.0271428571428571</v>
       </c>
-      <c r="D6" s="69" t="s">
+      <c r="D6" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="69" t="s">
+      <c r="E6" s="71" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="71" t="n">
+      <c r="B7" s="73" t="n">
         <v>4</v>
       </c>
-      <c r="C7" s="72" t="str">
+      <c r="C7" s="74" t="str">
         <f aca="false">IF(B7&gt;2,"OPORTUNIDADE - O","AMEAZA - A")</f>
         <v>OPORTUNIDADE - O</v>
       </c>
-      <c r="D7" s="73" t="str">
+      <c r="D7" s="75" t="str">
         <f aca="false">IF(B7&gt;4,"Corrixir!",IF(B7&lt;1,"Corrixir!"," "))</f>
         <v> </v>
       </c>
-      <c r="E7" s="74" t="s">
+      <c r="E7" s="76" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="77" t="s">
         <v>91</v>
       </c>
-      <c r="B8" s="76" t="n">
+      <c r="B8" s="78" t="n">
         <v>4</v>
       </c>
-      <c r="C8" s="77" t="str">
+      <c r="C8" s="79" t="str">
         <f aca="false">IF(B8&gt;2,"OPORTUNIDADE - O","AMEAZA - A")</f>
         <v>OPORTUNIDADE - O</v>
       </c>
-      <c r="D8" s="78" t="str">
+      <c r="D8" s="80" t="str">
         <f aca="false">IF(B8&gt;4,"Corrixir!",IF(B8&lt;1,"Corrixir!"," "))</f>
         <v> </v>
       </c>
-      <c r="E8" s="79" t="s">
+      <c r="E8" s="81" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="B9" s="76" t="n">
+      <c r="B9" s="78" t="n">
         <v>4</v>
       </c>
-      <c r="C9" s="77" t="str">
+      <c r="C9" s="79" t="str">
         <f aca="false">IF(B9&gt;2,"OPORTUNIDADE - O","AMEAZA - A")</f>
         <v>OPORTUNIDADE - O</v>
       </c>
-      <c r="D9" s="78" t="str">
+      <c r="D9" s="80" t="str">
         <f aca="false">IF(B9&gt;4,"Corrixir!",IF(B9&lt;1,"Corrixir!"," "))</f>
         <v> </v>
       </c>
-      <c r="E9" s="79" t="s">
+      <c r="E9" s="81" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="77" t="s">
         <v>95</v>
       </c>
-      <c r="B10" s="76" t="n">
+      <c r="B10" s="78" t="n">
         <v>3</v>
       </c>
-      <c r="C10" s="77" t="str">
+      <c r="C10" s="79" t="str">
         <f aca="false">IF(B10&gt;2,"OPORTUNIDADE - O","AMEAZA - A")</f>
         <v>OPORTUNIDADE - O</v>
       </c>
-      <c r="D10" s="78" t="str">
+      <c r="D10" s="80" t="str">
         <f aca="false">IF(B10&gt;4,"Corrixir!",IF(B10&lt;1,"Corrixir!"," "))</f>
         <v> </v>
       </c>
-      <c r="E10" s="79" t="s">
+      <c r="E10" s="81" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="75" t="s">
+      <c r="A11" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="76" t="n">
+      <c r="B11" s="78" t="n">
         <v>2</v>
       </c>
-      <c r="C11" s="77" t="str">
+      <c r="C11" s="79" t="str">
         <f aca="false">IF(B11&gt;2,"OPORTUNIDADE - O","AMEAZA - A")</f>
         <v>AMEAZA - A</v>
       </c>
-      <c r="D11" s="78" t="str">
+      <c r="D11" s="80" t="str">
         <f aca="false">IF(B11&gt;4,"Corrixir!",IF(B11&lt;1,"Corrixir!"," "))</f>
         <v> </v>
       </c>
-      <c r="E11" s="79" t="s">
+      <c r="E11" s="81" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="75" t="s">
+      <c r="A12" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="B12" s="76" t="n">
+      <c r="B12" s="78" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="77" t="str">
+      <c r="C12" s="79" t="str">
         <f aca="false">IF(B12&gt;2,"OPORTUNIDADE - O","AMEAZA - A")</f>
         <v>AMEAZA - A</v>
       </c>
-      <c r="D12" s="78" t="str">
+      <c r="D12" s="80" t="str">
         <f aca="false">IF(B12&gt;4,"Corrixir!",IF(B12&lt;1,"Corrixir!"," "))</f>
         <v> </v>
       </c>
-      <c r="E12" s="79" t="s">
+      <c r="E12" s="81" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="80" t="s">
+      <c r="A13" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="B13" s="81" t="n">
+      <c r="B13" s="83" t="n">
         <v>1</v>
       </c>
-      <c r="C13" s="77" t="str">
+      <c r="C13" s="79" t="str">
         <f aca="false">IF(B13&gt;2,"OPORTUNIDADE - O","AMEAZA - A")</f>
         <v>AMEAZA - A</v>
       </c>
-      <c r="D13" s="78" t="str">
+      <c r="D13" s="80" t="str">
         <f aca="false">IF(B13&gt;4,"Corrixir!",IF(B13&lt;1,"Corrixir!"," "))</f>
         <v> </v>
       </c>
-      <c r="E13" s="79" t="s">
+      <c r="E13" s="81" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="82" t="s">
+      <c r="A14" s="84" t="s">
         <v>103</v>
       </c>
-      <c r="B14" s="83" t="n">
+      <c r="B14" s="85" t="n">
         <f aca="false">SUM(B15:B21)</f>
         <v>18</v>
       </c>
-      <c r="C14" s="84" t="n">
+      <c r="C14" s="86" t="n">
         <f aca="false">(B14/7)/100</f>
         <v>0.0257142857142857</v>
       </c>
-      <c r="D14" s="85"/>
-      <c r="E14" s="79"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="81"/>
     </row>
     <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="75" t="s">
+      <c r="A15" s="77" t="s">
         <v>104</v>
       </c>
-      <c r="B15" s="71" t="n">
+      <c r="B15" s="73" t="n">
         <v>4</v>
       </c>
-      <c r="C15" s="72" t="str">
+      <c r="C15" s="74" t="str">
         <f aca="false">IF(B15&gt;2,"OPORTUNIDADE - O","AMEAZA - A")</f>
         <v>OPORTUNIDADE - O</v>
       </c>
-      <c r="D15" s="78" t="str">
+      <c r="D15" s="80" t="str">
         <f aca="false">IF(B15&gt;4,"Corrixir!",IF(B15&lt;1,"Corrixir!"," "))</f>
         <v> </v>
       </c>
-      <c r="E15" s="79" t="s">
+      <c r="E15" s="81" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="75" t="s">
+      <c r="A16" s="77" t="s">
         <v>106</v>
       </c>
-      <c r="B16" s="76" t="n">
+      <c r="B16" s="78" t="n">
         <v>4</v>
       </c>
-      <c r="C16" s="77" t="str">
+      <c r="C16" s="79" t="str">
         <f aca="false">IF(B16&gt;2,"OPORTUNIDADE - O","AMEAZA - A")</f>
         <v>OPORTUNIDADE - O</v>
       </c>
-      <c r="D16" s="78" t="str">
+      <c r="D16" s="80" t="str">
         <f aca="false">IF(B16&gt;4,"Corrixir!",IF(B16&lt;1,"Corrixir!"," "))</f>
         <v> </v>
       </c>
-      <c r="E16" s="79" t="s">
+      <c r="E16" s="81" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="75" t="s">
+      <c r="A17" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="B17" s="76" t="n">
+      <c r="B17" s="78" t="n">
         <v>1</v>
       </c>
-      <c r="C17" s="77" t="str">
+      <c r="C17" s="79" t="str">
         <f aca="false">IF(B17&gt;2,"OPORTUNIDADE - O","AMEAZA - A")</f>
         <v>AMEAZA - A</v>
       </c>
-      <c r="D17" s="78" t="str">
+      <c r="D17" s="80" t="str">
         <f aca="false">IF(B17&gt;4,"Corrixir!",IF(B17&lt;1,"Corrixir!"," "))</f>
         <v> </v>
       </c>
-      <c r="E17" s="79" t="s">
+      <c r="E17" s="81" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="75" t="s">
+      <c r="A18" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="B18" s="76" t="n">
+      <c r="B18" s="78" t="n">
         <v>1</v>
       </c>
-      <c r="C18" s="77" t="str">
+      <c r="C18" s="79" t="str">
         <f aca="false">IF(B18&gt;2,"OPORTUNIDADE - O","AMEAZA - A")</f>
         <v>AMEAZA - A</v>
       </c>
-      <c r="D18" s="78" t="str">
+      <c r="D18" s="80" t="str">
         <f aca="false">IF(B18&gt;4,"Corrixir!",IF(B18&lt;1,"Corrixir!"," "))</f>
         <v> </v>
       </c>
-      <c r="E18" s="79" t="s">
+      <c r="E18" s="81" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="75" t="s">
+      <c r="A19" s="77" t="s">
         <v>112</v>
       </c>
-      <c r="B19" s="76" t="n">
+      <c r="B19" s="78" t="n">
         <v>2</v>
       </c>
-      <c r="C19" s="77" t="str">
+      <c r="C19" s="79" t="str">
         <f aca="false">IF(B19&gt;2,"OPORTUNIDADE - O","AMEAZA - A")</f>
         <v>AMEAZA - A</v>
       </c>
-      <c r="D19" s="78" t="str">
+      <c r="D19" s="80" t="str">
         <f aca="false">IF(B19&gt;4,"Corrixir!",IF(B19&lt;1,"Corrixir!"," "))</f>
         <v> </v>
       </c>
-      <c r="E19" s="79" t="s">
+      <c r="E19" s="81" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="75" t="s">
+      <c r="A20" s="77" t="s">
         <v>114</v>
       </c>
-      <c r="B20" s="76" t="n">
+      <c r="B20" s="78" t="n">
         <v>2</v>
       </c>
-      <c r="C20" s="77" t="str">
+      <c r="C20" s="79" t="str">
         <f aca="false">IF(B20&gt;2,"OPORTUNIDADE - O","AMEAZA - A")</f>
         <v>AMEAZA - A</v>
       </c>
-      <c r="D20" s="78" t="str">
+      <c r="D20" s="80" t="str">
         <f aca="false">IF(B20&gt;4,"Corrixir!",IF(B20&lt;1,"Corrixir!"," "))</f>
         <v> </v>
       </c>
-      <c r="E20" s="79" t="s">
+      <c r="E20" s="81" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="80" t="s">
+      <c r="A21" s="82" t="s">
         <v>116</v>
       </c>
-      <c r="B21" s="76" t="n">
+      <c r="B21" s="78" t="n">
         <v>4</v>
       </c>
-      <c r="C21" s="77" t="str">
+      <c r="C21" s="79" t="str">
         <f aca="false">IF(B21&gt;2,"OPORTUNIDADE - O","AMEAZA - A")</f>
         <v>OPORTUNIDADE - O</v>
       </c>
-      <c r="D21" s="78" t="str">
+      <c r="D21" s="80" t="str">
         <f aca="false">IF(B21&gt;4,"Corrixir!",IF(B21&lt;1,"Corrixir!"," "))</f>
         <v> </v>
       </c>
-      <c r="E21" s="79" t="s">
+      <c r="E21" s="81" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="82" t="s">
+      <c r="A22" s="84" t="s">
         <v>118</v>
       </c>
-      <c r="B22" s="83" t="n">
+      <c r="B22" s="85" t="n">
         <f aca="false">SUM(B23:B26)</f>
         <v>13</v>
       </c>
-      <c r="C22" s="84" t="n">
+      <c r="C22" s="86" t="n">
         <f aca="false">(B22/4)/100</f>
         <v>0.0325</v>
       </c>
-      <c r="D22" s="85"/>
-      <c r="E22" s="79"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="81"/>
     </row>
     <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="75" t="s">
+      <c r="A23" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="B23" s="71" t="n">
+      <c r="B23" s="73" t="n">
         <v>3</v>
       </c>
-      <c r="C23" s="72" t="str">
+      <c r="C23" s="74" t="str">
         <f aca="false">IF(B23&gt;2,"OPORTUNIDADE - O","AMEAZA - A")</f>
         <v>OPORTUNIDADE - O</v>
       </c>
-      <c r="D23" s="78" t="str">
+      <c r="D23" s="80" t="str">
         <f aca="false">IF(B23&gt;4,"Corrixir!",IF(B23&lt;1,"Corrixir!"," "))</f>
         <v> </v>
       </c>
-      <c r="E23" s="79" t="s">
+      <c r="E23" s="81" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="75" t="s">
+      <c r="A24" s="77" t="s">
         <v>121</v>
       </c>
-      <c r="B24" s="76" t="n">
+      <c r="B24" s="78" t="n">
         <v>4</v>
       </c>
-      <c r="C24" s="77" t="str">
+      <c r="C24" s="79" t="str">
         <f aca="false">IF(B24&gt;2,"OPORTUNIDADE - O","AMEAZA - A")</f>
         <v>OPORTUNIDADE - O</v>
       </c>
-      <c r="D24" s="78" t="str">
+      <c r="D24" s="80" t="str">
         <f aca="false">IF(B24&gt;4,"Corrixir!",IF(B24&lt;1,"Corrixir!"," "))</f>
         <v> </v>
       </c>
-      <c r="E24" s="79" t="s">
+      <c r="E24" s="81" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="75" t="s">
+      <c r="A25" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="B25" s="76" t="n">
+      <c r="B25" s="78" t="n">
         <v>4</v>
       </c>
-      <c r="C25" s="77" t="str">
+      <c r="C25" s="79" t="str">
         <f aca="false">IF(B25&gt;2,"OPORTUNIDADE - O","AMEAZA - A")</f>
         <v>OPORTUNIDADE - O</v>
       </c>
-      <c r="D25" s="78" t="str">
+      <c r="D25" s="80" t="str">
         <f aca="false">IF(B25&gt;4,"Corrixir!",IF(B25&lt;1,"Corrixir!"," "))</f>
         <v> </v>
       </c>
-      <c r="E25" s="79" t="s">
+      <c r="E25" s="81" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="80" t="s">
+      <c r="A26" s="82" t="s">
         <v>125</v>
       </c>
-      <c r="B26" s="76" t="n">
+      <c r="B26" s="78" t="n">
         <v>2</v>
       </c>
-      <c r="C26" s="77" t="str">
+      <c r="C26" s="79" t="str">
         <f aca="false">IF(B26&gt;2,"OPORTUNIDADE - O","AMEAZA - A")</f>
         <v>AMEAZA - A</v>
       </c>
-      <c r="D26" s="78" t="str">
+      <c r="D26" s="80" t="str">
         <f aca="false">IF(B26&gt;4,"Corrixir!",IF(B26&lt;1,"Corrixir!"," "))</f>
         <v> </v>
       </c>
-      <c r="E26" s="79" t="s">
+      <c r="E26" s="81" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="82" t="s">
+      <c r="A27" s="84" t="s">
         <v>127</v>
       </c>
-      <c r="B27" s="83" t="n">
+      <c r="B27" s="85" t="n">
         <f aca="false">SUM(B28:B32)</f>
         <v>11</v>
       </c>
-      <c r="C27" s="84" t="n">
+      <c r="C27" s="86" t="n">
         <f aca="false">(B27/5)/100</f>
         <v>0.022</v>
       </c>
-      <c r="D27" s="78"/>
-      <c r="E27" s="79"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="81"/>
     </row>
     <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="75" t="s">
+      <c r="A28" s="77" t="s">
         <v>128</v>
       </c>
-      <c r="B28" s="71" t="n">
+      <c r="B28" s="73" t="n">
         <v>1</v>
       </c>
-      <c r="C28" s="72" t="str">
+      <c r="C28" s="74" t="str">
         <f aca="false">IF(B28&gt;2,"OPORTUNIDADE - O","AMEAZA - A")</f>
         <v>AMEAZA - A</v>
       </c>
-      <c r="D28" s="78" t="str">
+      <c r="D28" s="80" t="str">
         <f aca="false">IF(B28&gt;4,"Corrixir!",IF(B28&lt;1,"Corrixir!"," "))</f>
         <v> </v>
       </c>
-      <c r="E28" s="79" t="s">
+      <c r="E28" s="81" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="75" t="s">
+      <c r="A29" s="77" t="s">
         <v>130</v>
       </c>
-      <c r="B29" s="76" t="n">
+      <c r="B29" s="78" t="n">
         <v>3</v>
       </c>
-      <c r="C29" s="77" t="str">
+      <c r="C29" s="79" t="str">
         <f aca="false">IF(B29&gt;2,"OPORTUNIDADE - O","AMEAZA - A")</f>
         <v>OPORTUNIDADE - O</v>
       </c>
-      <c r="D29" s="78" t="str">
+      <c r="D29" s="80" t="str">
         <f aca="false">IF(B29&gt;4,"Corrixir!",IF(B29&lt;1,"Corrixir!"," "))</f>
         <v> </v>
       </c>
-      <c r="E29" s="79" t="s">
+      <c r="E29" s="81" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="75" t="s">
+      <c r="A30" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="B30" s="76" t="n">
+      <c r="B30" s="78" t="n">
         <v>4</v>
       </c>
-      <c r="C30" s="77" t="str">
+      <c r="C30" s="79" t="str">
         <f aca="false">IF(B30&gt;2,"OPORTUNIDADE - O","AMEAZA - A")</f>
         <v>OPORTUNIDADE - O</v>
       </c>
-      <c r="D30" s="78" t="str">
+      <c r="D30" s="80" t="str">
         <f aca="false">IF(B30&gt;4,"Corrixir!",IF(B30&lt;1,"Corrixir!"," "))</f>
         <v> </v>
       </c>
-      <c r="E30" s="79" t="s">
+      <c r="E30" s="81" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="75" t="s">
+      <c r="A31" s="77" t="s">
         <v>134</v>
       </c>
-      <c r="B31" s="76" t="n">
+      <c r="B31" s="78" t="n">
         <v>2</v>
       </c>
-      <c r="C31" s="77" t="str">
+      <c r="C31" s="79" t="str">
         <f aca="false">IF(B31&gt;2,"OPORTUNIDADE - O","AMEAZA - A")</f>
         <v>AMEAZA - A</v>
       </c>
-      <c r="D31" s="78" t="str">
+      <c r="D31" s="80" t="str">
         <f aca="false">IF(B31&gt;4,"Corrixir!",IF(B31&lt;1,"Corrixir!"," "))</f>
         <v> </v>
       </c>
-      <c r="E31" s="79" t="s">
+      <c r="E31" s="81" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="80" t="s">
+      <c r="A32" s="82" t="s">
         <v>136</v>
       </c>
-      <c r="B32" s="76" t="n">
+      <c r="B32" s="78" t="n">
         <v>1</v>
       </c>
-      <c r="C32" s="86" t="str">
+      <c r="C32" s="88" t="str">
         <f aca="false">IF(B32&gt;2,"OPORTUNIDADE - O","AMEAZA - A")</f>
         <v>AMEAZA - A</v>
       </c>
-      <c r="D32" s="78" t="str">
+      <c r="D32" s="80" t="str">
         <f aca="false">IF(B32&gt;4,"Corrixir!",IF(B32&lt;1,"Corrixir!"," "))</f>
         <v> </v>
       </c>
-      <c r="E32" s="79" t="s">
+      <c r="E32" s="81" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="82" t="s">
+      <c r="A33" s="84" t="s">
         <v>138</v>
       </c>
-      <c r="B33" s="83" t="n">
+      <c r="B33" s="85" t="n">
         <f aca="false">SUM(B34:B35)</f>
         <v>6</v>
       </c>
-      <c r="C33" s="84" t="n">
+      <c r="C33" s="86" t="n">
         <f aca="false">(B33/2)/100</f>
         <v>0.03</v>
       </c>
-      <c r="D33" s="85"/>
-      <c r="E33" s="79"/>
+      <c r="D33" s="87"/>
+      <c r="E33" s="81"/>
     </row>
     <row r="34" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="75" t="s">
+      <c r="A34" s="77" t="s">
         <v>139</v>
       </c>
-      <c r="B34" s="71" t="n">
+      <c r="B34" s="73" t="n">
         <v>3</v>
       </c>
-      <c r="C34" s="77" t="str">
+      <c r="C34" s="79" t="str">
         <f aca="false">IF(B34&gt;2,"OPORTUNIDADE - O","AMEAZA - A")</f>
         <v>OPORTUNIDADE - O</v>
       </c>
-      <c r="D34" s="78" t="str">
+      <c r="D34" s="80" t="str">
         <f aca="false">IF(B34&gt;4,"Corrixir!",IF(B34&lt;1,"Corrixir!"," "))</f>
         <v> </v>
       </c>
-      <c r="E34" s="79" t="s">
+      <c r="E34" s="81" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="87" t="s">
+      <c r="A35" s="89" t="s">
         <v>141</v>
       </c>
-      <c r="B35" s="88" t="n">
+      <c r="B35" s="90" t="n">
         <v>3</v>
       </c>
-      <c r="C35" s="89" t="str">
+      <c r="C35" s="91" t="str">
         <f aca="false">IF(B35&gt;2,"OPORTUNIDADE - O","AMEAZA - A")</f>
         <v>OPORTUNIDADE - O</v>
       </c>
-      <c r="D35" s="90" t="str">
+      <c r="D35" s="92" t="str">
         <f aca="false">IF(B35&gt;4,"Corrixir!",IF(B35&lt;1,"Corrixir!"," "))</f>
         <v> </v>
       </c>
-      <c r="E35" s="91" t="s">
+      <c r="E35" s="93" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="37" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="38" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="92" t="s">
+      <c r="A38" s="94" t="s">
         <v>143</v>
       </c>
-      <c r="B38" s="93" t="n">
+      <c r="B38" s="95" t="n">
         <f aca="false">COUNTIF(B6:B21,1)+COUNTIF(B23:B26,1)+COUNTIF(B28:B32,1)+COUNTIF(B34:B35,1)</f>
         <v>6</v>
       </c>
-      <c r="C38" s="94" t="n">
+      <c r="C38" s="96" t="n">
         <f aca="false">B38*1</f>
         <v>6</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="95" t="s">
+      <c r="A39" s="97" t="s">
         <v>144</v>
       </c>
-      <c r="B39" s="96" t="n">
+      <c r="B39" s="98" t="n">
         <f aca="false">COUNTIF(B6:B21,2)+COUNTIF(B23:B26,2)+COUNTIF(B28:B32,2)+COUNTIF(B34:B35,2)</f>
         <v>5</v>
       </c>
-      <c r="C39" s="97" t="n">
+      <c r="C39" s="99" t="n">
         <f aca="false">B39*2</f>
         <v>10</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="95" t="s">
+      <c r="A40" s="97" t="s">
         <v>145</v>
       </c>
-      <c r="B40" s="96" t="n">
+      <c r="B40" s="98" t="n">
         <f aca="false">COUNTIF(B6:B21,3)+COUNTIF(B23:B26,3)+COUNTIF(B28:B32,3)+COUNTIF(B34:B35,3)</f>
         <v>5</v>
       </c>
-      <c r="C40" s="97" t="n">
+      <c r="C40" s="99" t="n">
         <f aca="false">B40*3</f>
         <v>15</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="98" t="s">
+      <c r="A41" s="100" t="s">
         <v>146</v>
       </c>
-      <c r="B41" s="99" t="n">
+      <c r="B41" s="101" t="n">
         <f aca="false">COUNTIF(B6:B21,4)+COUNTIF(B23:B26,4)+COUNTIF(B28:B32,4)+COUNTIF(B34:B35,4)</f>
         <v>9</v>
       </c>
-      <c r="C41" s="100" t="n">
+      <c r="C41" s="102" t="n">
         <f aca="false">B41*4</f>
         <v>36</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B42" s="45" t="s">
+      <c r="B42" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="C42" s="101" t="n">
+      <c r="C42" s="103" t="n">
         <f aca="false">SUM(C38:C41)</f>
         <v>67</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B43" s="45" t="s">
+      <c r="B43" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="C43" s="102" t="n">
+      <c r="C43" s="104" t="n">
         <f aca="false">C42/25</f>
         <v>2.68</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="45" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="103" t="str">
+      <c r="A45" s="105" t="str">
         <f aca="false">IF(C43=1,"MERCADO NADA ATRACTIVO",IF(C43&lt;2,"MERCADO POUCO ATRACTIVO",IF(C43&lt;3,"MERCADO CUN ATRACTIVO MEDIO","MERCADO CUN ATRACTIVO ALTO")))</f>
         <v>MERCADO CUN ATRACTIVO MEDIO</v>
       </c>
@@ -4991,704 +5117,704 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3359375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="104" width="10.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="104" width="60.67"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="4" style="104" width="11.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="106" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="106" width="60.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="4" style="106" width="11.33"/>
   </cols>
   <sheetData>
-    <row r="1" s="105" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="105" t="s">
+    <row r="1" s="107" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="107" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="106" t="s">
+      <c r="A3" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="108" t="s">
         <v>150</v>
       </c>
-      <c r="C3" s="106" t="s">
+      <c r="C3" s="108" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="107" t="n">
+      <c r="A4" s="109" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="108" t="str">
+      <c r="B4" s="110" t="str">
         <f aca="false">IF('Habilidades directivas'!B5&lt;4,"O/a promotor/a non posúe iniciativa"," ")</f>
         <v> </v>
       </c>
-      <c r="C4" s="108" t="str">
+      <c r="C4" s="110" t="str">
         <f aca="false">IF('Habilidades directivas'!B5&gt;6,"O/a promotor/a posúe iniciativa"," ")</f>
         <v>O/a promotor/a posúe iniciativa</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="109" t="n">
+      <c r="A5" s="111" t="n">
         <f aca="false">A4+1</f>
         <v>2</v>
       </c>
-      <c r="B5" s="110" t="str">
+      <c r="B5" s="112" t="str">
         <f aca="false">IF('Habilidades directivas'!B6&lt;4,"O/a promotor/a non posúe dispoñibilidade"," ")</f>
         <v> </v>
       </c>
-      <c r="C5" s="110" t="str">
+      <c r="C5" s="112" t="str">
         <f aca="false">IF('Habilidades directivas'!B6&gt;6,"O/a promotor/a posúe dispoñibilidade"," ")</f>
         <v>O/a promotor/a posúe dispoñibilidade</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="109" t="n">
+      <c r="A6" s="111" t="n">
         <f aca="false">A5+1</f>
         <v>3</v>
       </c>
-      <c r="B6" s="110" t="str">
+      <c r="B6" s="112" t="str">
         <f aca="false">IF('Habilidades directivas'!B7&lt;4,"O/a promotor/a non supera o desánimo"," ")</f>
         <v> </v>
       </c>
-      <c r="C6" s="110" t="str">
+      <c r="C6" s="112" t="str">
         <f aca="false">IF('Habilidades directivas'!B7&gt;6,"O/a promotor/a supera o desánimo"," ")</f>
         <v>O/a promotor/a supera o desánimo</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="109" t="n">
+      <c r="A7" s="111" t="n">
         <f aca="false">A6+1</f>
         <v>4</v>
       </c>
-      <c r="B7" s="110" t="str">
+      <c r="B7" s="112" t="str">
         <f aca="false">IF('Habilidades directivas'!B8&lt;4,"O/a promotor/a non posúe afán polo traballo ben feito"," ")</f>
         <v> </v>
       </c>
-      <c r="C7" s="110" t="str">
+      <c r="C7" s="112" t="str">
         <f aca="false">IF('Habilidades directivas'!B8&gt;6,"O/a promotor/a posúe afán polo traballo ben feito"," ")</f>
         <v>O/a promotor/a posúe afán polo traballo ben feito</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="109" t="n">
+      <c r="A8" s="111" t="n">
         <f aca="false">A7+1</f>
         <v>5</v>
       </c>
-      <c r="B8" s="110" t="str">
+      <c r="B8" s="112" t="str">
         <f aca="false">IF('Habilidades directivas'!B9&lt;4,"O/a promotor/a non posúe gusto pola competencia"," ")</f>
         <v> </v>
       </c>
-      <c r="C8" s="110" t="str">
+      <c r="C8" s="112" t="str">
         <f aca="false">IF('Habilidades directivas'!B9&gt;6,"O/a promotor/a posúe gusto pola competencia"," ")</f>
         <v> </v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="109" t="n">
+      <c r="A9" s="111" t="n">
         <f aca="false">A8+1</f>
         <v>6</v>
       </c>
-      <c r="B9" s="110" t="str">
+      <c r="B9" s="112" t="str">
         <f aca="false">IF('Habilidades directivas'!B10&lt;4,"O/a promotor/a non asume riscos controlados"," ")</f>
         <v> </v>
       </c>
-      <c r="C9" s="110" t="str">
+      <c r="C9" s="112" t="str">
         <f aca="false">IF('Habilidades directivas'!B10&gt;6,"O/a promotor/a asume riscos controlados"," ")</f>
         <v> </v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="109" t="n">
+      <c r="A10" s="111" t="n">
         <f aca="false">A9+1</f>
         <v>7</v>
       </c>
-      <c r="B10" s="110" t="str">
+      <c r="B10" s="112" t="str">
         <f aca="false">IF('Habilidades directivas'!B11&lt;4,"O/a promotor/a non toma de decisións de maneira meditada"," ")</f>
         <v> </v>
       </c>
-      <c r="C10" s="110" t="str">
+      <c r="C10" s="112" t="str">
         <f aca="false">IF('Habilidades directivas'!B11&gt;6,"O/a promotor/a toma de decisións de maneira meditada"," ")</f>
         <v>O/a promotor/a toma de decisións de maneira meditada</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="109" t="n">
+      <c r="A11" s="111" t="n">
         <f aca="false">A10+1</f>
         <v>8</v>
       </c>
-      <c r="B11" s="110" t="str">
+      <c r="B11" s="112" t="str">
         <f aca="false">IF('Habilidades directivas'!B12&lt;4,"O/a promotor/a non soporta a incerteza e a tensión"," ")</f>
         <v>O/a promotor/a non soporta a incerteza e a tensión</v>
       </c>
-      <c r="C11" s="110" t="str">
+      <c r="C11" s="112" t="str">
         <f aca="false">IF('Habilidades directivas'!B12&gt;6,"O/a promotor/a soporta a incerteza e a tensión"," ")</f>
         <v> </v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="109" t="n">
+      <c r="A12" s="111" t="n">
         <f aca="false">A11+1</f>
         <v>9</v>
       </c>
-      <c r="B12" s="110" t="str">
+      <c r="B12" s="112" t="str">
         <f aca="false">IF('Habilidades directivas'!B13&lt;4,"O/a promotor/a non finaliza os traballos que emprende"," ")</f>
         <v> </v>
       </c>
-      <c r="C12" s="110" t="str">
+      <c r="C12" s="112" t="str">
         <f aca="false">IF('Habilidades directivas'!B13&gt;6,"O/a promotor/a finaliza os traballos que emprende"," ")</f>
         <v>O/a promotor/a finaliza os traballos que emprende</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="109" t="n">
+      <c r="A13" s="111" t="n">
         <f aca="false">A12+1</f>
         <v>10</v>
       </c>
-      <c r="B13" s="110" t="str">
+      <c r="B13" s="112" t="str">
         <f aca="false">IF('Habilidades directivas'!B14&lt;4,"O/a promotor/a non posúe mentalidade aberta"," ")</f>
         <v> </v>
       </c>
-      <c r="C13" s="110" t="str">
+      <c r="C13" s="112" t="str">
         <f aca="false">IF('Habilidades directivas'!B14&gt;6,"O/a promotor/a posúe unha mentalidade aberta"," ")</f>
         <v>O/a promotor/a posúe unha mentalidade aberta</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="109" t="n">
+      <c r="A14" s="111" t="n">
         <f aca="false">A13+1</f>
         <v>11</v>
       </c>
-      <c r="B14" s="110" t="str">
+      <c r="B14" s="112" t="str">
         <f aca="false">IF('Habilidades directivas'!B15&lt;4,"O/a promotor/a non sabe planificar"," ")</f>
         <v> </v>
       </c>
-      <c r="C14" s="110" t="str">
+      <c r="C14" s="112" t="str">
         <f aca="false">IF('Habilidades directivas'!B15&gt;6,"O/a promotor/a sabe planificar"," ")</f>
         <v> </v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="109" t="n">
+      <c r="A15" s="111" t="n">
         <f aca="false">A14+1</f>
         <v>12</v>
       </c>
-      <c r="B15" s="110" t="str">
+      <c r="B15" s="112" t="str">
         <f aca="false">IF('Habilidades directivas'!B16&lt;4,"O/a promotor/a non sabe organizarse"," ")</f>
         <v> </v>
       </c>
-      <c r="C15" s="110" t="str">
+      <c r="C15" s="112" t="str">
         <f aca="false">IF('Habilidades directivas'!B16&gt;6,"O/a promotor/a sabe organizarse"," ")</f>
         <v> </v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="109" t="n">
+      <c r="A16" s="111" t="n">
         <f aca="false">A15+1</f>
         <v>13</v>
       </c>
-      <c r="B16" s="110" t="str">
+      <c r="B16" s="112" t="str">
         <f aca="false">IF('Habilidades directivas'!B17&lt;4,"O/a promotor/a non posúe capacidade de adaptación"," ")</f>
         <v> </v>
       </c>
-      <c r="C16" s="110" t="str">
+      <c r="C16" s="112" t="str">
         <f aca="false">IF('Habilidades directivas'!B17&gt;6,"O/a promotor/a posúe capacidade de adaptación"," ")</f>
         <v>O/a promotor/a posúe capacidade de adaptación</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="109" t="n">
+      <c r="A17" s="111" t="n">
         <f aca="false">A16+1</f>
         <v>14</v>
       </c>
-      <c r="B17" s="110" t="str">
+      <c r="B17" s="112" t="str">
         <f aca="false">IF('Habilidades directivas'!B18&lt;4,"O/a promotor/a non é tolerante"," ")</f>
         <v> </v>
       </c>
-      <c r="C17" s="110" t="str">
+      <c r="C17" s="112" t="str">
         <f aca="false">IF('Habilidades directivas'!B18&gt;6,"O/a promotor/a é tolerante"," ")</f>
         <v>O/a promotor/a é tolerante</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="109" t="n">
+      <c r="A18" s="111" t="n">
         <f aca="false">A17+1</f>
         <v>15</v>
       </c>
-      <c r="B18" s="110" t="str">
+      <c r="B18" s="112" t="str">
         <f aca="false">IF('Habilidades directivas'!B19&lt;4,"O/a promotor/a non sabe vender as súas ideas"," ")</f>
         <v> </v>
       </c>
-      <c r="C18" s="110" t="str">
+      <c r="C18" s="112" t="str">
         <f aca="false">IF('Habilidades directivas'!B19&gt;6,"O/a promotor/a sabe vender as súas ideas"," ")</f>
         <v>O/a promotor/a sabe vender as súas ideas</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="109" t="n">
+      <c r="A19" s="111" t="n">
         <f aca="false">A18+1</f>
         <v>16</v>
       </c>
-      <c r="B19" s="110" t="str">
+      <c r="B19" s="112" t="str">
         <f aca="false">IF('Habilidades directivas'!B20&lt;4,"O/a promotor/a non sabe negociar"," ")</f>
         <v> </v>
       </c>
-      <c r="C19" s="110" t="str">
+      <c r="C19" s="112" t="str">
         <f aca="false">IF('Habilidades directivas'!B20&gt;6,"O/a promotor/a sabe negociar"," ")</f>
         <v>O/a promotor/a sabe negociar</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="109" t="n">
+      <c r="A20" s="111" t="n">
         <f aca="false">A19+1</f>
         <v>17</v>
       </c>
-      <c r="B20" s="110" t="str">
+      <c r="B20" s="112" t="str">
         <f aca="false">IF('Habilidades directivas'!B21&lt;4,"O/a promotor/a non é perseverante"," ")</f>
         <v> </v>
       </c>
-      <c r="C20" s="110" t="str">
+      <c r="C20" s="112" t="str">
         <f aca="false">IF('Habilidades directivas'!B21&gt;6,"O/a promotor/a é perseverante"," ")</f>
         <v>O/a promotor/a é perseverante</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="109" t="n">
+      <c r="A21" s="111" t="n">
         <f aca="false">A20+1</f>
         <v>18</v>
       </c>
-      <c r="B21" s="110" t="str">
+      <c r="B21" s="112" t="str">
         <f aca="false">IF('Habilidades directivas'!B22&lt;4,"O/a promotor/a non é optimista"," ")</f>
         <v> </v>
       </c>
-      <c r="C21" s="110" t="str">
+      <c r="C21" s="112" t="str">
         <f aca="false">IF('Habilidades directivas'!B22&gt;6,"O/a promotor/a é optimista"," ")</f>
         <v>O/a promotor/a é optimista</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="109" t="n">
+      <c r="A22" s="111" t="n">
         <f aca="false">A21+1</f>
         <v>19</v>
       </c>
-      <c r="B22" s="110" t="str">
+      <c r="B22" s="112" t="str">
         <f aca="false">IF('Habilidades directivas'!B23&lt;4,"O/a promotor/a non posúe confianza e coñecemento en si propio"," ")</f>
         <v> </v>
       </c>
-      <c r="C22" s="110" t="str">
+      <c r="C22" s="112" t="str">
         <f aca="false">IF('Habilidades directivas'!B23&gt;6,"O/a promotor/a posúe confianza e coñecemento en si propio"," ")</f>
         <v>O/a promotor/a posúe confianza e coñecemento en si propio</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="109" t="n">
+      <c r="A23" s="111" t="n">
         <f aca="false">A22+1</f>
         <v>20</v>
       </c>
-      <c r="B23" s="110" t="str">
+      <c r="B23" s="112" t="str">
         <f aca="false">IF('Habilidades directivas'!B24&lt;4,"O/a promotor/a non posúe facilidade para xerar novos contactos"," ")</f>
         <v> </v>
       </c>
-      <c r="C23" s="110" t="str">
+      <c r="C23" s="112" t="str">
         <f aca="false">IF('Habilidades directivas'!B24&gt;6,"O/a promotor/a posúe facilidade para xerar novos contactos"," ")</f>
         <v>O/a promotor/a posúe facilidade para xerar novos contactos</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="109" t="n">
+      <c r="A24" s="111" t="n">
         <f aca="false">A23+1</f>
         <v>21</v>
       </c>
-      <c r="B24" s="110" t="str">
+      <c r="B24" s="112" t="str">
         <f aca="false">IF('Habilidades directivas'!B25&lt;4,"O/a promotor/a non posúe espírito independente"," ")</f>
         <v> </v>
       </c>
-      <c r="C24" s="110" t="str">
+      <c r="C24" s="112" t="str">
         <f aca="false">IF('Habilidades directivas'!B25&gt;6,"O/a promotor/a posúe espírito independente"," ")</f>
         <v>O/a promotor/a posúe espírito independente</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="109" t="n">
+      <c r="A25" s="111" t="n">
         <f aca="false">A24+1</f>
         <v>22</v>
       </c>
-      <c r="B25" s="110" t="str">
+      <c r="B25" s="112" t="str">
         <f aca="false">IF('Habilidades directivas'!B26&lt;4,"O/a promotor/a non posúe gusto polo triunfo"," ")</f>
         <v> </v>
       </c>
-      <c r="C25" s="110" t="str">
+      <c r="C25" s="112" t="str">
         <f aca="false">IF('Habilidades directivas'!B26&gt;6,"O/a promotor/a posúe gusto polo triunfo"," ")</f>
         <v>O/a promotor/a posúe gusto polo triunfo</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="111" t="n">
+      <c r="A26" s="113" t="n">
         <f aca="false">A25+1</f>
         <v>23</v>
       </c>
-      <c r="B26" s="112" t="str">
+      <c r="B26" s="114" t="str">
         <f aca="false">IF('Habilidades directivas'!B27&lt;4,"O/a promotor/a non sabe solucionar conflitos"," ")</f>
         <v> </v>
       </c>
-      <c r="C26" s="112" t="str">
+      <c r="C26" s="114" t="str">
         <f aca="false">IF('Habilidades directivas'!B27&gt;6,"O/a promotor/a sabe solucionar conflitos"," ")</f>
         <v>O/a promotor/a sabe solucionar conflitos</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="106" t="s">
+      <c r="A27" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="106" t="s">
+      <c r="B27" s="108" t="s">
         <v>152</v>
       </c>
-      <c r="C27" s="106" t="s">
+      <c r="C27" s="108" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="107" t="n">
+      <c r="A28" s="109" t="n">
         <v>1</v>
       </c>
-      <c r="B28" s="108" t="str">
+      <c r="B28" s="110" t="str">
         <f aca="false">IF('Valorización da contorna'!B7&lt;3,"Perspectivas de crecemento para a concorrencia"," ")</f>
         <v> </v>
       </c>
-      <c r="C28" s="108" t="str">
+      <c r="C28" s="110" t="str">
         <f aca="false">IF('Valorización da contorna'!B7&gt;2,"Boas perspectivas de crecemento"," ")</f>
         <v>Boas perspectivas de crecemento</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="109" t="n">
+      <c r="A29" s="111" t="n">
         <f aca="false">A28+1</f>
         <v>2</v>
       </c>
-      <c r="B29" s="110" t="str">
+      <c r="B29" s="112" t="str">
         <f aca="false">IF('Valorización da contorna'!B8&lt;3,"Moitos competidores"," ")</f>
         <v> </v>
       </c>
-      <c r="C29" s="113" t="str">
+      <c r="C29" s="115" t="str">
         <f aca="false">IF('Valorización da contorna'!B8&gt;2,"Poucos competidores"," ")</f>
         <v>Poucos competidores</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="109" t="n">
+      <c r="A30" s="111" t="n">
         <f aca="false">A29+1</f>
         <v>3</v>
       </c>
-      <c r="B30" s="110" t="str">
+      <c r="B30" s="112" t="str">
         <f aca="false">IF('Valorización da contorna'!B9&lt;3,"Activos pouco accesíbeis economicamente"," ")</f>
         <v> </v>
       </c>
-      <c r="C30" s="113" t="str">
+      <c r="C30" s="115" t="str">
         <f aca="false">IF('Valorización da contorna'!B9&gt;2,"Compra accesíbel de activos"," ")</f>
         <v>Compra accesíbel de activos</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="109" t="n">
+      <c r="A31" s="111" t="n">
         <f aca="false">A30+1</f>
         <v>4</v>
       </c>
-      <c r="B31" s="110" t="str">
+      <c r="B31" s="112" t="str">
         <f aca="false">IF('Valorización da contorna'!B10&lt;3,"Capacidade de produción con excedentes"," ")</f>
         <v> </v>
       </c>
-      <c r="C31" s="113" t="str">
+      <c r="C31" s="115" t="str">
         <f aca="false">IF('Valorización da contorna'!B10&gt;2,"Capacidade de produción sen excedentes"," ")</f>
         <v>Capacidade de produción sen excedentes</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="109" t="n">
+      <c r="A32" s="111" t="n">
         <f aca="false">A31+1</f>
         <v>5</v>
       </c>
-      <c r="B32" s="110" t="str">
+      <c r="B32" s="112" t="str">
         <f aca="false">IF('Valorización da contorna'!B11&lt;3,"Rendibilidade media do sector grande"," ")</f>
         <v>Rendibilidade media do sector grande</v>
       </c>
-      <c r="C32" s="113" t="str">
+      <c r="C32" s="115" t="str">
         <f aca="false">IF('Valorización da contorna'!B11&gt;2,"Rendibilidade media do sector reducida"," ")</f>
         <v> </v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="109" t="n">
+      <c r="A33" s="111" t="n">
         <f aca="false">A32+1</f>
         <v>6</v>
       </c>
-      <c r="B33" s="110" t="str">
+      <c r="B33" s="112" t="str">
         <f aca="false">IF('Valorización da contorna'!B12&lt;3,"Baixa diferenciación de produtos"," ")</f>
         <v>Baixa diferenciación de produtos</v>
       </c>
-      <c r="C33" s="113" t="str">
+      <c r="C33" s="115" t="str">
         <f aca="false">IF('Valorización da contorna'!B12&gt;2,"Alta diferenciación de produtos"," ")</f>
         <v> </v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="109" t="n">
+      <c r="A34" s="111" t="n">
         <f aca="false">A33+1</f>
         <v>7</v>
       </c>
-      <c r="B34" s="110" t="str">
+      <c r="B34" s="112" t="str">
         <f aca="false">IF('Valorización da contorna'!B13&lt;3,"Non existen barreiras de saída no sector"," ")</f>
         <v>Non existen barreiras de saída no sector</v>
       </c>
-      <c r="C34" s="113" t="str">
+      <c r="C34" s="115" t="str">
         <f aca="false">IF('Valorización da contorna'!B13&gt;2,"Existen barreiras de saída no sector"," ")</f>
         <v> </v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="109" t="n">
+      <c r="A35" s="111" t="n">
         <f aca="false">A34+1</f>
         <v>8</v>
       </c>
-      <c r="B35" s="110" t="str">
+      <c r="B35" s="112" t="str">
         <f aca="false">IF('Valorización da contorna'!B15&lt;3,"Non son apreciadas economías de escala"," ")</f>
         <v> </v>
       </c>
-      <c r="C35" s="113" t="str">
+      <c r="C35" s="115" t="str">
         <f aca="false">IF('Valorización da contorna'!B15&gt;2,"Son apreciadas grandes economías de escala"," ")</f>
         <v>Son apreciadas grandes economías de escala</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="109" t="n">
+      <c r="A36" s="111" t="n">
         <f aca="false">A35+1</f>
         <v>9</v>
       </c>
-      <c r="B36" s="110" t="str">
+      <c r="B36" s="112" t="str">
         <f aca="false">IF('Valorización da contorna'!B16&lt;3,"Facilidade no acceso ás canles de distribución"," ")</f>
         <v> </v>
       </c>
-      <c r="C36" s="113" t="str">
+      <c r="C36" s="115" t="str">
         <f aca="false">IF('Valorización da contorna'!B16&gt;2,"Dificultade de acceso ás canles de distribución"," ")</f>
         <v>Dificultade de acceso ás canles de distribución</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="109" t="n">
+      <c r="A37" s="111" t="n">
         <f aca="false">A36+1</f>
         <v>10</v>
       </c>
-      <c r="B37" s="110" t="str">
+      <c r="B37" s="112" t="str">
         <f aca="false">IF('Valorización da contorna'!B17&lt;3,"Reducidas necesidades de capital"," ")</f>
         <v>Reducidas necesidades de capital</v>
       </c>
-      <c r="C37" s="113" t="str">
+      <c r="C37" s="115" t="str">
         <f aca="false">IF('Valorización da contorna'!B17&gt;2,"Grandes necesidades de capital"," ")</f>
         <v> </v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="109" t="n">
+      <c r="A38" s="111" t="n">
         <f aca="false">A37+1</f>
         <v>11</v>
       </c>
-      <c r="B38" s="110" t="str">
+      <c r="B38" s="112" t="str">
         <f aca="false">IF('Valorización da contorna'!B18&lt;3,"Fácil acceso á tecnoloxía"," ")</f>
         <v>Fácil acceso á tecnoloxía</v>
       </c>
-      <c r="C38" s="113" t="str">
+      <c r="C38" s="115" t="str">
         <f aca="false">IF('Valorización da contorna'!B18&gt;2,"Difícil acceso á tecnoloxía"," ")</f>
         <v> </v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="109" t="n">
+      <c r="A39" s="111" t="n">
         <f aca="false">A38+1</f>
         <v>12</v>
       </c>
-      <c r="B39" s="110" t="str">
+      <c r="B39" s="112" t="str">
         <f aca="false">IF('Valorización da contorna'!B19&lt;3,"Non existe normativa que dificulta a produción"," ")</f>
         <v>Non existe normativa que dificulta a produción</v>
       </c>
-      <c r="C39" s="113" t="str">
+      <c r="C39" s="115" t="str">
         <f aca="false">IF('Valorización da contorna'!B19&gt;2,"Existe normativa que dificulta a produción"," ")</f>
         <v> </v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="109" t="n">
+      <c r="A40" s="111" t="n">
         <f aca="false">A39+1</f>
         <v>13</v>
       </c>
-      <c r="B40" s="110" t="str">
+      <c r="B40" s="112" t="str">
         <f aca="false">IF('Valorización da contorna'!B20&lt;3,"Facilidade na tramitación burocrática"," ")</f>
         <v>Facilidade na tramitación burocrática</v>
       </c>
-      <c r="C40" s="113" t="str">
+      <c r="C40" s="115" t="str">
         <f aca="false">IF('Valorización da contorna'!B20&gt;2,"Dificultade na tramitación burocrática"," ")</f>
         <v> </v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="109" t="n">
+      <c r="A41" s="111" t="n">
         <f aca="false">A40+1</f>
         <v>14</v>
       </c>
-      <c r="B41" s="110" t="str">
+      <c r="B41" s="112" t="str">
         <f aca="false">IF('Valorización da contorna'!B21&lt;3,"Os competidores reaccionan rapidamente"," ")</f>
         <v> </v>
       </c>
-      <c r="C41" s="113" t="str">
+      <c r="C41" s="115" t="str">
         <f aca="false">IF('Valorización da contorna'!B21&gt;2,"Escasa reacción dos competidores"," ")</f>
         <v>Escasa reacción dos competidores</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="109" t="n">
+      <c r="A42" s="111" t="n">
         <f aca="false">A41+1</f>
         <v>15</v>
       </c>
-      <c r="B42" s="110" t="str">
+      <c r="B42" s="112" t="str">
         <f aca="false">IF('Valorización da contorna'!B23&lt;3,"Reducido número de fornecedores no sector"," ")</f>
         <v> </v>
       </c>
-      <c r="C42" s="113" t="str">
+      <c r="C42" s="115" t="str">
         <f aca="false">IF('Valorización da contorna'!B23&gt;2,"Elevado número de fornecedores no sector"," ")</f>
         <v>Elevado número de fornecedores no sector</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="109" t="n">
+      <c r="A43" s="111" t="n">
         <f aca="false">A42+1</f>
         <v>16</v>
       </c>
-      <c r="B43" s="110" t="str">
+      <c r="B43" s="112" t="str">
         <f aca="false">IF('Valorización da contorna'!B24&lt;3,"A mudanza de fornecedor carreta grandes custos"," ")</f>
         <v> </v>
       </c>
-      <c r="C43" s="113" t="str">
+      <c r="C43" s="115" t="str">
         <f aca="false">IF('Valorización da contorna'!B24&gt;2,"A mudanza de fornecedor non carreta grandes custos"," ")</f>
         <v>A mudanza de fornecedor non carreta grandes custos</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="109" t="n">
+      <c r="A44" s="111" t="n">
         <f aca="false">A43+1</f>
         <v>17</v>
       </c>
-      <c r="B44" s="110" t="str">
+      <c r="B44" s="112" t="str">
         <f aca="false">IF('Valorización da contorna'!B25&lt;3,"É fácil unha integración para adiante"," ")</f>
         <v> </v>
       </c>
-      <c r="C44" s="113" t="str">
+      <c r="C44" s="115" t="str">
         <f aca="false">IF('Valorización da contorna'!B25&gt;2,"A integración para adiante non é factíbel"," ")</f>
         <v>A integración para adiante non é factíbel</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="109" t="n">
+      <c r="A45" s="111" t="n">
         <f aca="false">A44+1</f>
         <v>18</v>
       </c>
-      <c r="B45" s="110" t="str">
+      <c r="B45" s="112" t="str">
         <f aca="false">IF('Valorización da contorna'!B26&lt;3,"Pouca importancia do sector para os fornecedores"," ")</f>
         <v>Pouca importancia do sector para os fornecedores</v>
       </c>
-      <c r="C45" s="113" t="str">
+      <c r="C45" s="115" t="str">
         <f aca="false">IF('Valorización da contorna'!B26&gt;2,"Os fornecedores dan importancia ao sector"," ")</f>
         <v> </v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="109" t="n">
+      <c r="A46" s="111" t="n">
         <f aca="false">A45+1</f>
         <v>19</v>
       </c>
-      <c r="B46" s="110" t="str">
+      <c r="B46" s="112" t="str">
         <f aca="false">IF('Valorización da contorna'!B28&lt;3,"Poucos clientes aos que atender"," ")</f>
         <v>Poucos clientes aos que atender</v>
       </c>
-      <c r="C46" s="113" t="str">
+      <c r="C46" s="115" t="str">
         <f aca="false">IF('Valorización da contorna'!B28&gt;2,"Elevado número de clientes aos que atender"," ")</f>
         <v> </v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="109" t="n">
+      <c r="A47" s="111" t="n">
         <f aca="false">A46+1</f>
         <v>20</v>
       </c>
-      <c r="B47" s="110" t="str">
+      <c r="B47" s="112" t="str">
         <f aca="false">IF('Valorización da contorna'!B29&lt;3,"Fácil integración para atrás"," ")</f>
         <v> </v>
       </c>
-      <c r="C47" s="113" t="str">
+      <c r="C47" s="115" t="str">
         <f aca="false">IF('Valorización da contorna'!B29&gt;2,"Difícil integración para atrás"," ")</f>
         <v>Difícil integración para atrás</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="109" t="n">
+      <c r="A48" s="111" t="n">
         <f aca="false">A47+1</f>
         <v>21</v>
       </c>
-      <c r="B48" s="110" t="str">
+      <c r="B48" s="112" t="str">
         <f aca="false">IF('Valorización da contorna'!B30&lt;3,"A rendibilidade dos clientes é baixa"," ")</f>
         <v> </v>
       </c>
-      <c r="C48" s="113" t="str">
+      <c r="C48" s="115" t="str">
         <f aca="false">IF('Valorización da contorna'!B30&gt;2,"A rendibilidade dos clientes é grande"," ")</f>
         <v>A rendibilidade dos clientes é grande</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="109" t="n">
+      <c r="A49" s="111" t="n">
         <f aca="false">A48+1</f>
         <v>22</v>
       </c>
-      <c r="B49" s="110" t="str">
+      <c r="B49" s="112" t="str">
         <f aca="false">IF('Valorización da contorna'!B31&lt;3,"Mudar de fornecedor carreta un custo ao cliente"," ")</f>
         <v>Mudar de fornecedor carreta un custo ao cliente</v>
       </c>
-      <c r="C49" s="113" t="str">
+      <c r="C49" s="115" t="str">
         <f aca="false">IF('Valorización da contorna'!B31&gt;2,"Mudar de fornecedor non carreta un custo ao cliente"," ")</f>
         <v> </v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="109" t="n">
+      <c r="A50" s="111" t="n">
         <f aca="false">A49+1</f>
         <v>23</v>
       </c>
-      <c r="B50" s="110" t="str">
+      <c r="B50" s="112" t="str">
         <f aca="false">IF('Valorización da contorna'!B32&lt;3,"As vendas asimilan en demasía o custo de compras"," ")</f>
         <v>As vendas asimilan en demasía o custo de compras</v>
       </c>
-      <c r="C50" s="113" t="str">
+      <c r="C50" s="115" t="str">
         <f aca="false">IF('Valorización da contorna'!B32&gt;2,"O custo da compra non afecta en grande medida ás vendas"," ")</f>
         <v> </v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="109" t="n">
+      <c r="A51" s="111" t="n">
         <f aca="false">A50+1</f>
         <v>24</v>
       </c>
-      <c r="B51" s="110" t="str">
+      <c r="B51" s="112" t="str">
         <f aca="false">IF('Valorización da contorna'!B34&lt;3,"Existen moitos produtos substitutivos no sector"," ")</f>
         <v> </v>
       </c>
-      <c r="C51" s="113" t="str">
+      <c r="C51" s="115" t="str">
         <f aca="false">IF('Valorización da contorna'!B34&gt;2,"Non existen (ou existen poucos) produtos substitutivos no sector"," ")</f>
         <v>Non existen (ou existen poucos) produtos substitutivos no sector</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="111" t="n">
+      <c r="A52" s="113" t="n">
         <f aca="false">A51+1</f>
         <v>25</v>
       </c>
-      <c r="B52" s="112" t="str">
+      <c r="B52" s="114" t="str">
         <f aca="false">IF('Valorización da contorna'!B35&lt;3,"Dáse unha política agresiva por parte dos fornecedores"," ")</f>
         <v> </v>
       </c>
-      <c r="C52" s="114" t="str">
+      <c r="C52" s="116" t="str">
         <f aca="false">IF('Valorización da contorna'!B35&gt;2,"Os fornecedores manteñen unha reducida agresividade"," ")</f>
         <v>Os fornecedores manteñen unha reducida agresividade</v>
       </c>
@@ -5718,419 +5844,419 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3359375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="104" width="10.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="104" width="60.67"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="4" style="104" width="11.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="106" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="106" width="60.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="4" style="106" width="11.33"/>
   </cols>
   <sheetData>
-    <row r="1" s="105" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="105" t="s">
+    <row r="1" s="107" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="107" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="106" t="s">
+      <c r="A3" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="108" t="s">
         <v>155</v>
       </c>
-      <c r="C3" s="106" t="s">
+      <c r="C3" s="108" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="107" t="n">
+      <c r="A4" s="109" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="115"/>
-      <c r="C4" s="115"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="117"/>
     </row>
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="109" t="n">
+      <c r="A5" s="111" t="n">
         <f aca="false">A4+1</f>
         <v>2</v>
       </c>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
+      <c r="B5" s="118"/>
+      <c r="C5" s="118"/>
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="109" t="n">
+      <c r="A6" s="111" t="n">
         <f aca="false">A5+1</f>
         <v>3</v>
       </c>
-      <c r="B6" s="116"/>
-      <c r="C6" s="116"/>
+      <c r="B6" s="118"/>
+      <c r="C6" s="118"/>
     </row>
     <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="109" t="n">
+      <c r="A7" s="111" t="n">
         <f aca="false">A6+1</f>
         <v>4</v>
       </c>
-      <c r="B7" s="116"/>
-      <c r="C7" s="116"/>
+      <c r="B7" s="118"/>
+      <c r="C7" s="118"/>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="109" t="n">
+      <c r="A8" s="111" t="n">
         <f aca="false">A7+1</f>
         <v>5</v>
       </c>
-      <c r="B8" s="116"/>
-      <c r="C8" s="116"/>
+      <c r="B8" s="118"/>
+      <c r="C8" s="118"/>
     </row>
     <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="109" t="n">
+      <c r="A9" s="111" t="n">
         <f aca="false">A8+1</f>
         <v>6</v>
       </c>
-      <c r="B9" s="116"/>
-      <c r="C9" s="116"/>
+      <c r="B9" s="118"/>
+      <c r="C9" s="118"/>
     </row>
     <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="109" t="n">
+      <c r="A10" s="111" t="n">
         <f aca="false">A9+1</f>
         <v>7</v>
       </c>
-      <c r="B10" s="116"/>
-      <c r="C10" s="116"/>
+      <c r="B10" s="118"/>
+      <c r="C10" s="118"/>
     </row>
     <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="109" t="n">
+      <c r="A11" s="111" t="n">
         <f aca="false">A10+1</f>
         <v>8</v>
       </c>
-      <c r="B11" s="116"/>
-      <c r="C11" s="116"/>
+      <c r="B11" s="118"/>
+      <c r="C11" s="118"/>
     </row>
     <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="109" t="n">
+      <c r="A12" s="111" t="n">
         <f aca="false">A11+1</f>
         <v>9</v>
       </c>
-      <c r="B12" s="116"/>
-      <c r="C12" s="116"/>
+      <c r="B12" s="118"/>
+      <c r="C12" s="118"/>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="109" t="n">
+      <c r="A13" s="111" t="n">
         <f aca="false">A12+1</f>
         <v>10</v>
       </c>
-      <c r="B13" s="116"/>
-      <c r="C13" s="116"/>
+      <c r="B13" s="118"/>
+      <c r="C13" s="118"/>
     </row>
     <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="109" t="n">
+      <c r="A14" s="111" t="n">
         <f aca="false">A13+1</f>
         <v>11</v>
       </c>
-      <c r="B14" s="116"/>
-      <c r="C14" s="116"/>
+      <c r="B14" s="118"/>
+      <c r="C14" s="118"/>
     </row>
     <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="109" t="n">
+      <c r="A15" s="111" t="n">
         <f aca="false">A14+1</f>
         <v>12</v>
       </c>
-      <c r="B15" s="116"/>
-      <c r="C15" s="116"/>
+      <c r="B15" s="118"/>
+      <c r="C15" s="118"/>
     </row>
     <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="109" t="n">
+      <c r="A16" s="111" t="n">
         <f aca="false">A15+1</f>
         <v>13</v>
       </c>
-      <c r="B16" s="116"/>
-      <c r="C16" s="116"/>
+      <c r="B16" s="118"/>
+      <c r="C16" s="118"/>
     </row>
     <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="109" t="n">
+      <c r="A17" s="111" t="n">
         <f aca="false">A16+1</f>
         <v>14</v>
       </c>
-      <c r="B17" s="116"/>
-      <c r="C17" s="116"/>
+      <c r="B17" s="118"/>
+      <c r="C17" s="118"/>
     </row>
     <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="109" t="n">
+      <c r="A18" s="111" t="n">
         <f aca="false">A17+1</f>
         <v>15</v>
       </c>
-      <c r="B18" s="116"/>
-      <c r="C18" s="116"/>
+      <c r="B18" s="118"/>
+      <c r="C18" s="118"/>
     </row>
     <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="109" t="n">
+      <c r="A19" s="111" t="n">
         <f aca="false">A18+1</f>
         <v>16</v>
       </c>
-      <c r="B19" s="116"/>
-      <c r="C19" s="116"/>
+      <c r="B19" s="118"/>
+      <c r="C19" s="118"/>
     </row>
     <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="109" t="n">
+      <c r="A20" s="111" t="n">
         <f aca="false">A19+1</f>
         <v>17</v>
       </c>
-      <c r="B20" s="116"/>
-      <c r="C20" s="116"/>
+      <c r="B20" s="118"/>
+      <c r="C20" s="118"/>
     </row>
     <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="109" t="n">
+      <c r="A21" s="111" t="n">
         <f aca="false">A20+1</f>
         <v>18</v>
       </c>
-      <c r="B21" s="116"/>
-      <c r="C21" s="116"/>
+      <c r="B21" s="118"/>
+      <c r="C21" s="118"/>
     </row>
     <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="109" t="n">
+      <c r="A22" s="111" t="n">
         <f aca="false">A21+1</f>
         <v>19</v>
       </c>
-      <c r="B22" s="116"/>
-      <c r="C22" s="116"/>
+      <c r="B22" s="118"/>
+      <c r="C22" s="118"/>
     </row>
     <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="109" t="n">
+      <c r="A23" s="111" t="n">
         <f aca="false">A22+1</f>
         <v>20</v>
       </c>
-      <c r="B23" s="116"/>
-      <c r="C23" s="116"/>
+      <c r="B23" s="118"/>
+      <c r="C23" s="118"/>
     </row>
     <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="109" t="n">
+      <c r="A24" s="111" t="n">
         <f aca="false">A23+1</f>
         <v>21</v>
       </c>
-      <c r="B24" s="116"/>
-      <c r="C24" s="116"/>
+      <c r="B24" s="118"/>
+      <c r="C24" s="118"/>
     </row>
     <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="109" t="n">
+      <c r="A25" s="111" t="n">
         <f aca="false">A24+1</f>
         <v>22</v>
       </c>
-      <c r="B25" s="116"/>
-      <c r="C25" s="116"/>
+      <c r="B25" s="118"/>
+      <c r="C25" s="118"/>
     </row>
     <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="111" t="n">
+      <c r="A26" s="113" t="n">
         <f aca="false">A25+1</f>
         <v>23</v>
       </c>
-      <c r="B26" s="117"/>
-      <c r="C26" s="117"/>
+      <c r="B26" s="119"/>
+      <c r="C26" s="119"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="106" t="s">
+      <c r="A27" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="106" t="s">
+      <c r="B27" s="108" t="s">
         <v>157</v>
       </c>
-      <c r="C27" s="106" t="s">
+      <c r="C27" s="108" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="107" t="n">
+      <c r="A28" s="109" t="n">
         <v>1</v>
       </c>
-      <c r="B28" s="115"/>
-      <c r="C28" s="115"/>
+      <c r="B28" s="117"/>
+      <c r="C28" s="117"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="109" t="n">
+      <c r="A29" s="111" t="n">
         <f aca="false">A28+1</f>
         <v>2</v>
       </c>
-      <c r="B29" s="116"/>
-      <c r="C29" s="116"/>
+      <c r="B29" s="118"/>
+      <c r="C29" s="118"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="109" t="n">
+      <c r="A30" s="111" t="n">
         <f aca="false">A29+1</f>
         <v>3</v>
       </c>
-      <c r="B30" s="116"/>
-      <c r="C30" s="116"/>
+      <c r="B30" s="118"/>
+      <c r="C30" s="118"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="109" t="n">
+      <c r="A31" s="111" t="n">
         <f aca="false">A30+1</f>
         <v>4</v>
       </c>
-      <c r="B31" s="116"/>
-      <c r="C31" s="116"/>
+      <c r="B31" s="118"/>
+      <c r="C31" s="118"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="109" t="n">
+      <c r="A32" s="111" t="n">
         <f aca="false">A31+1</f>
         <v>5</v>
       </c>
-      <c r="B32" s="116"/>
-      <c r="C32" s="116"/>
+      <c r="B32" s="118"/>
+      <c r="C32" s="118"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="109" t="n">
+      <c r="A33" s="111" t="n">
         <f aca="false">A32+1</f>
         <v>6</v>
       </c>
-      <c r="B33" s="116"/>
-      <c r="C33" s="116"/>
+      <c r="B33" s="118"/>
+      <c r="C33" s="118"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="109" t="n">
+      <c r="A34" s="111" t="n">
         <f aca="false">A33+1</f>
         <v>7</v>
       </c>
-      <c r="B34" s="116"/>
-      <c r="C34" s="116"/>
+      <c r="B34" s="118"/>
+      <c r="C34" s="118"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="109" t="n">
+      <c r="A35" s="111" t="n">
         <f aca="false">A34+1</f>
         <v>8</v>
       </c>
-      <c r="B35" s="116"/>
-      <c r="C35" s="116"/>
+      <c r="B35" s="118"/>
+      <c r="C35" s="118"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="109" t="n">
+      <c r="A36" s="111" t="n">
         <f aca="false">A35+1</f>
         <v>9</v>
       </c>
-      <c r="B36" s="116"/>
-      <c r="C36" s="116"/>
+      <c r="B36" s="118"/>
+      <c r="C36" s="118"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="109" t="n">
+      <c r="A37" s="111" t="n">
         <f aca="false">A36+1</f>
         <v>10</v>
       </c>
-      <c r="B37" s="116"/>
-      <c r="C37" s="116"/>
+      <c r="B37" s="118"/>
+      <c r="C37" s="118"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="109" t="n">
+      <c r="A38" s="111" t="n">
         <f aca="false">A37+1</f>
         <v>11</v>
       </c>
-      <c r="B38" s="116"/>
-      <c r="C38" s="116"/>
+      <c r="B38" s="118"/>
+      <c r="C38" s="118"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="109" t="n">
+      <c r="A39" s="111" t="n">
         <f aca="false">A38+1</f>
         <v>12</v>
       </c>
-      <c r="B39" s="116"/>
-      <c r="C39" s="116"/>
+      <c r="B39" s="118"/>
+      <c r="C39" s="118"/>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="109" t="n">
+      <c r="A40" s="111" t="n">
         <f aca="false">A39+1</f>
         <v>13</v>
       </c>
-      <c r="B40" s="116"/>
-      <c r="C40" s="116"/>
+      <c r="B40" s="118"/>
+      <c r="C40" s="118"/>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="109" t="n">
+      <c r="A41" s="111" t="n">
         <f aca="false">A40+1</f>
         <v>14</v>
       </c>
-      <c r="B41" s="116"/>
-      <c r="C41" s="116"/>
+      <c r="B41" s="118"/>
+      <c r="C41" s="118"/>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="109" t="n">
+      <c r="A42" s="111" t="n">
         <f aca="false">A41+1</f>
         <v>15</v>
       </c>
-      <c r="B42" s="116"/>
-      <c r="C42" s="116"/>
+      <c r="B42" s="118"/>
+      <c r="C42" s="118"/>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="109" t="n">
+      <c r="A43" s="111" t="n">
         <f aca="false">A42+1</f>
         <v>16</v>
       </c>
-      <c r="B43" s="116"/>
-      <c r="C43" s="116"/>
+      <c r="B43" s="118"/>
+      <c r="C43" s="118"/>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="109" t="n">
+      <c r="A44" s="111" t="n">
         <f aca="false">A43+1</f>
         <v>17</v>
       </c>
-      <c r="B44" s="116"/>
-      <c r="C44" s="116"/>
+      <c r="B44" s="118"/>
+      <c r="C44" s="118"/>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="109" t="n">
+      <c r="A45" s="111" t="n">
         <f aca="false">A44+1</f>
         <v>18</v>
       </c>
-      <c r="B45" s="116"/>
-      <c r="C45" s="116"/>
+      <c r="B45" s="118"/>
+      <c r="C45" s="118"/>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="109" t="n">
+      <c r="A46" s="111" t="n">
         <f aca="false">A45+1</f>
         <v>19</v>
       </c>
-      <c r="B46" s="116"/>
-      <c r="C46" s="116"/>
+      <c r="B46" s="118"/>
+      <c r="C46" s="118"/>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="109" t="n">
+      <c r="A47" s="111" t="n">
         <f aca="false">A46+1</f>
         <v>20</v>
       </c>
-      <c r="B47" s="116"/>
-      <c r="C47" s="116"/>
+      <c r="B47" s="118"/>
+      <c r="C47" s="118"/>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="109" t="n">
+      <c r="A48" s="111" t="n">
         <f aca="false">A47+1</f>
         <v>21</v>
       </c>
-      <c r="B48" s="116"/>
-      <c r="C48" s="116"/>
+      <c r="B48" s="118"/>
+      <c r="C48" s="118"/>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="109" t="n">
+      <c r="A49" s="111" t="n">
         <f aca="false">A48+1</f>
         <v>22</v>
       </c>
-      <c r="B49" s="116"/>
-      <c r="C49" s="116"/>
+      <c r="B49" s="118"/>
+      <c r="C49" s="118"/>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="109" t="n">
+      <c r="A50" s="111" t="n">
         <f aca="false">A49+1</f>
         <v>23</v>
       </c>
-      <c r="B50" s="116"/>
-      <c r="C50" s="116"/>
+      <c r="B50" s="118"/>
+      <c r="C50" s="118"/>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="109" t="n">
+      <c r="A51" s="111" t="n">
         <f aca="false">A50+1</f>
         <v>24</v>
       </c>
-      <c r="B51" s="116"/>
-      <c r="C51" s="116"/>
+      <c r="B51" s="118"/>
+      <c r="C51" s="118"/>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="111" t="n">
+      <c r="A52" s="113" t="n">
         <f aca="false">A51+1</f>
         <v>25</v>
       </c>
-      <c r="B52" s="117"/>
-      <c r="C52" s="117"/>
+      <c r="B52" s="119"/>
+      <c r="C52" s="119"/>
     </row>
   </sheetData>
   <sheetProtection sheet="true" password="946e" objects="true" scenarios="true"/>
@@ -6151,300 +6277,346 @@
   </sheetPr>
   <dimension ref="B2:G40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="118" width="11.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="118" width="28.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="118" width="14.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="118" width="28.67"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="8" style="118" width="11.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="120" width="11.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="120" width="28.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="120" width="14.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="120" width="28.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="8" style="120" width="11.44"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="119" t="s">
+      <c r="B2" s="121" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="120" t="s">
+      <c r="C2" s="122" t="s">
         <v>160</v>
       </c>
-      <c r="D2" s="119" t="s">
+      <c r="D2" s="121" t="s">
         <v>161</v>
       </c>
-      <c r="E2" s="119"/>
-      <c r="F2" s="120" t="s">
+      <c r="E2" s="121"/>
+      <c r="F2" s="122" t="s">
         <v>162</v>
       </c>
-      <c r="G2" s="119" t="s">
+      <c r="G2" s="121" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="121"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="122"/>
-      <c r="G3" s="121"/>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="121"/>
-      <c r="C4" s="122"/>
-      <c r="D4" s="121"/>
-      <c r="E4" s="121"/>
-      <c r="F4" s="122"/>
-      <c r="G4" s="121"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="123"/>
+    </row>
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="123"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="125" t="s">
+        <v>164</v>
+      </c>
+      <c r="G4" s="126" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="121"/>
-      <c r="C5" s="122"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121"/>
-      <c r="F5" s="122"/>
-      <c r="G5" s="121"/>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="121"/>
-      <c r="C6" s="122"/>
-      <c r="D6" s="121"/>
-      <c r="E6" s="121"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="121"/>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="121"/>
-      <c r="C7" s="122"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="121"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="121"/>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="121"/>
-      <c r="C8" s="122"/>
-      <c r="D8" s="121"/>
-      <c r="E8" s="121"/>
-      <c r="F8" s="122"/>
-      <c r="G8" s="121"/>
+      <c r="B5" s="123"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="126"/>
+    </row>
+    <row r="6" customFormat="false" ht="55.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="127" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="128" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" s="127" t="s">
+        <v>168</v>
+      </c>
+      <c r="E6" s="127"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="126"/>
+    </row>
+    <row r="7" customFormat="false" ht="95.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="127"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="127" t="s">
+        <v>169</v>
+      </c>
+      <c r="E7" s="127"/>
+      <c r="F7" s="125"/>
+      <c r="G7" s="126"/>
+    </row>
+    <row r="8" customFormat="false" ht="68.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="127"/>
+      <c r="C8" s="128"/>
+      <c r="D8" s="127" t="s">
+        <v>170</v>
+      </c>
+      <c r="E8" s="127"/>
+      <c r="F8" s="125"/>
+      <c r="G8" s="126"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="121"/>
-      <c r="C9" s="122"/>
-      <c r="D9" s="121"/>
-      <c r="E9" s="121"/>
-      <c r="F9" s="122"/>
-      <c r="G9" s="121"/>
+      <c r="B9" s="127"/>
+      <c r="C9" s="128"/>
+      <c r="D9" s="127" t="s">
+        <v>171</v>
+      </c>
+      <c r="E9" s="127"/>
+      <c r="F9" s="125"/>
+      <c r="G9" s="126"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="121"/>
-      <c r="C10" s="122"/>
-      <c r="D10" s="121"/>
-      <c r="E10" s="121"/>
-      <c r="F10" s="122"/>
-      <c r="G10" s="121"/>
+      <c r="B10" s="127"/>
+      <c r="C10" s="124"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="127"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="126"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="121"/>
-      <c r="C11" s="122"/>
-      <c r="D11" s="121"/>
-      <c r="E11" s="121"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="121"/>
+      <c r="B11" s="127"/>
+      <c r="C11" s="124"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="127"/>
+      <c r="F11" s="124"/>
+      <c r="G11" s="126"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="121"/>
-      <c r="C12" s="123"/>
-      <c r="D12" s="121"/>
-      <c r="E12" s="121"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="121"/>
+      <c r="B12" s="127"/>
+      <c r="C12" s="129"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="127"/>
+      <c r="F12" s="129"/>
+      <c r="G12" s="126"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="121"/>
-      <c r="C13" s="124" t="s">
-        <v>164</v>
-      </c>
-      <c r="D13" s="121"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="124" t="s">
-        <v>165</v>
-      </c>
-      <c r="G13" s="121"/>
+      <c r="B13" s="127"/>
+      <c r="C13" s="130" t="s">
+        <v>172</v>
+      </c>
+      <c r="D13" s="127"/>
+      <c r="E13" s="127"/>
+      <c r="F13" s="130" t="s">
+        <v>173</v>
+      </c>
+      <c r="G13" s="126"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="121"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="121"/>
-      <c r="E14" s="121"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="121"/>
+      <c r="B14" s="127"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="127"/>
+      <c r="E14" s="127"/>
+      <c r="F14" s="124"/>
+      <c r="G14" s="126"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="121"/>
-      <c r="C15" s="122"/>
-      <c r="D15" s="121"/>
-      <c r="E15" s="121"/>
-      <c r="F15" s="122"/>
-      <c r="G15" s="121"/>
+      <c r="B15" s="127"/>
+      <c r="C15" s="124" t="s">
+        <v>174</v>
+      </c>
+      <c r="D15" s="127"/>
+      <c r="E15" s="127"/>
+      <c r="F15" s="124" t="s">
+        <v>175</v>
+      </c>
+      <c r="G15" s="126"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="121"/>
-      <c r="C16" s="122"/>
-      <c r="D16" s="121"/>
-      <c r="E16" s="121"/>
-      <c r="F16" s="122"/>
-      <c r="G16" s="121"/>
+      <c r="B16" s="127"/>
+      <c r="C16" s="124" t="s">
+        <v>176</v>
+      </c>
+      <c r="D16" s="127"/>
+      <c r="E16" s="127"/>
+      <c r="F16" s="124" t="s">
+        <v>177</v>
+      </c>
+      <c r="G16" s="126"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="121"/>
-      <c r="C17" s="122"/>
-      <c r="D17" s="121"/>
-      <c r="E17" s="121"/>
-      <c r="F17" s="122"/>
-      <c r="G17" s="121"/>
+      <c r="B17" s="127"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="127"/>
+      <c r="F17" s="124" t="s">
+        <v>178</v>
+      </c>
+      <c r="G17" s="126"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="121"/>
-      <c r="C18" s="122"/>
-      <c r="D18" s="121"/>
-      <c r="E18" s="121"/>
-      <c r="F18" s="122"/>
-      <c r="G18" s="121"/>
+      <c r="B18" s="127"/>
+      <c r="C18" s="124"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="127"/>
+      <c r="F18" s="124" t="s">
+        <v>179</v>
+      </c>
+      <c r="G18" s="126"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="121"/>
-      <c r="C19" s="122"/>
-      <c r="D19" s="121"/>
-      <c r="E19" s="121"/>
-      <c r="F19" s="122"/>
-      <c r="G19" s="121"/>
+      <c r="B19" s="123"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="127"/>
+      <c r="E19" s="127"/>
+      <c r="F19" s="124"/>
+      <c r="G19" s="126"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="121"/>
-      <c r="C20" s="122"/>
-      <c r="D20" s="121"/>
-      <c r="E20" s="121"/>
-      <c r="F20" s="122"/>
-      <c r="G20" s="121"/>
+      <c r="B20" s="123"/>
+      <c r="C20" s="124"/>
+      <c r="D20" s="127"/>
+      <c r="E20" s="127"/>
+      <c r="F20" s="124"/>
+      <c r="G20" s="126"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="121"/>
-      <c r="C21" s="122"/>
-      <c r="D21" s="121"/>
-      <c r="E21" s="121"/>
-      <c r="F21" s="122"/>
-      <c r="G21" s="121"/>
+      <c r="B21" s="123"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="127"/>
+      <c r="F21" s="124"/>
+      <c r="G21" s="126"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="121"/>
-      <c r="C22" s="122"/>
-      <c r="D22" s="121"/>
-      <c r="E22" s="121"/>
-      <c r="F22" s="122"/>
-      <c r="G22" s="121"/>
+      <c r="B22" s="123"/>
+      <c r="C22" s="124"/>
+      <c r="D22" s="123"/>
+      <c r="E22" s="123"/>
+      <c r="F22" s="124"/>
+      <c r="G22" s="123"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="121"/>
-      <c r="C23" s="123"/>
-      <c r="D23" s="121"/>
-      <c r="E23" s="121"/>
-      <c r="F23" s="123"/>
-      <c r="G23" s="121"/>
+      <c r="B23" s="123"/>
+      <c r="C23" s="129"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="123"/>
+      <c r="F23" s="129"/>
+      <c r="G23" s="123"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="125" t="s">
-        <v>166</v>
-      </c>
-      <c r="C24" s="125"/>
-      <c r="D24" s="125"/>
-      <c r="E24" s="125" t="s">
-        <v>167</v>
-      </c>
-      <c r="F24" s="125"/>
-      <c r="G24" s="125"/>
+      <c r="B24" s="131" t="s">
+        <v>180</v>
+      </c>
+      <c r="C24" s="131"/>
+      <c r="D24" s="131"/>
+      <c r="E24" s="131" t="s">
+        <v>181</v>
+      </c>
+      <c r="F24" s="131"/>
+      <c r="G24" s="131"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="121"/>
-      <c r="C25" s="121"/>
-      <c r="D25" s="121"/>
-      <c r="E25" s="121"/>
-      <c r="F25" s="121"/>
-      <c r="G25" s="121"/>
+      <c r="B25" s="123"/>
+      <c r="C25" s="123"/>
+      <c r="D25" s="123"/>
+      <c r="E25" s="123" t="s">
+        <v>182</v>
+      </c>
+      <c r="F25" s="123"/>
+      <c r="G25" s="123"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="121"/>
-      <c r="C26" s="121"/>
-      <c r="D26" s="121"/>
-      <c r="E26" s="121"/>
-      <c r="F26" s="121"/>
-      <c r="G26" s="121"/>
+      <c r="B26" s="123" t="s">
+        <v>183</v>
+      </c>
+      <c r="C26" s="123"/>
+      <c r="D26" s="123"/>
+      <c r="E26" s="123" t="s">
+        <v>184</v>
+      </c>
+      <c r="F26" s="123"/>
+      <c r="G26" s="123"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="121"/>
-      <c r="C27" s="121"/>
-      <c r="D27" s="121"/>
-      <c r="E27" s="121"/>
-      <c r="F27" s="121"/>
-      <c r="G27" s="121"/>
+      <c r="B27" s="123" t="s">
+        <v>185</v>
+      </c>
+      <c r="C27" s="123"/>
+      <c r="D27" s="123"/>
+      <c r="E27" s="123" t="s">
+        <v>186</v>
+      </c>
+      <c r="F27" s="123"/>
+      <c r="G27" s="123"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="121"/>
-      <c r="C28" s="121"/>
-      <c r="D28" s="121"/>
-      <c r="E28" s="121"/>
-      <c r="F28" s="121"/>
-      <c r="G28" s="121"/>
+      <c r="B28" s="123" t="s">
+        <v>187</v>
+      </c>
+      <c r="C28" s="123"/>
+      <c r="D28" s="123"/>
+      <c r="E28" s="123"/>
+      <c r="F28" s="123"/>
+      <c r="G28" s="123"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="121"/>
-      <c r="C29" s="121"/>
-      <c r="D29" s="121"/>
-      <c r="E29" s="121"/>
-      <c r="F29" s="121"/>
-      <c r="G29" s="121"/>
+      <c r="B29" s="123" t="s">
+        <v>188</v>
+      </c>
+      <c r="C29" s="123"/>
+      <c r="D29" s="123"/>
+      <c r="E29" s="123"/>
+      <c r="F29" s="123"/>
+      <c r="G29" s="123"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="121"/>
-      <c r="C30" s="121"/>
-      <c r="D30" s="121"/>
-      <c r="E30" s="121"/>
-      <c r="F30" s="121"/>
-      <c r="G30" s="121"/>
+      <c r="B30" s="123" t="s">
+        <v>189</v>
+      </c>
+      <c r="C30" s="123"/>
+      <c r="D30" s="123"/>
+      <c r="E30" s="123"/>
+      <c r="F30" s="123"/>
+      <c r="G30" s="123"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B31" s="121"/>
-      <c r="C31" s="121"/>
-      <c r="D31" s="121"/>
-      <c r="E31" s="121"/>
-      <c r="F31" s="121"/>
-      <c r="G31" s="121"/>
+      <c r="B31" s="123" t="s">
+        <v>190</v>
+      </c>
+      <c r="C31" s="123"/>
+      <c r="D31" s="123"/>
+      <c r="E31" s="123"/>
+      <c r="F31" s="123"/>
+      <c r="G31" s="123"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="121"/>
-      <c r="C32" s="121"/>
-      <c r="D32" s="121"/>
-      <c r="E32" s="121"/>
-      <c r="F32" s="121"/>
-      <c r="G32" s="121"/>
+      <c r="B32" s="123"/>
+      <c r="C32" s="123"/>
+      <c r="D32" s="123"/>
+      <c r="E32" s="123"/>
+      <c r="F32" s="123"/>
+      <c r="G32" s="123"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B33" s="121"/>
-      <c r="C33" s="121"/>
-      <c r="D33" s="121"/>
-      <c r="E33" s="121"/>
-      <c r="F33" s="121"/>
-      <c r="G33" s="121"/>
+      <c r="B33" s="123"/>
+      <c r="C33" s="123"/>
+      <c r="D33" s="123"/>
+      <c r="E33" s="123"/>
+      <c r="F33" s="123"/>
+      <c r="G33" s="123"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B34" s="123"/>
-      <c r="C34" s="126"/>
-      <c r="D34" s="127"/>
-      <c r="E34" s="123"/>
-      <c r="F34" s="126"/>
-      <c r="G34" s="127"/>
+      <c r="B34" s="129"/>
+      <c r="C34" s="132"/>
+      <c r="D34" s="133"/>
+      <c r="E34" s="129"/>
+      <c r="F34" s="132"/>
+      <c r="G34" s="133"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -6454,27 +6626,19 @@
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="26XT2n8R7USgDtwwzsmIq0KhYai2/yXBRRv+SXJ+cOwTEPhE73V9zILFMJajaSbMeWiiV9bBsNUzJxTmUw6eEw==" saltValue="376nyB7Q5AyLKN7fPbto5g==" spinCount="100000" sheet="true" objects="true" scenarios="true"/>
-  <mergeCells count="42">
+  <mergeCells count="34">
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:F10"/>
+    <mergeCell ref="G4:G21"/>
     <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B6:B18"/>
+    <mergeCell ref="C6:C9"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D9:E21"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="B24:D24"/>

--- a/Viabilidade inicial Modelo.xlsx
+++ b/Viabilidade inicial Modelo.xlsx
@@ -5,22 +5,24 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
-    <sheet name="MENÚ DE OPCIÓNS" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="Elaboración da idea de negocio" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="Valorización da idea de negocio" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="Habilidades directivas" sheetId="4" state="visible" r:id="rId6"/>
-    <sheet name="Perfil do-a promotor-a" sheetId="5" state="visible" r:id="rId7"/>
-    <sheet name="Valorización da contorna" sheetId="6" state="visible" r:id="rId8"/>
-    <sheet name="Análise DAFO" sheetId="7" state="visible" r:id="rId9"/>
-    <sheet name="Análise CAME" sheetId="8" state="visible" r:id="rId10"/>
-    <sheet name="CANVAS" sheetId="9" state="visible" r:id="rId11"/>
-    <sheet name="Cuantificación da idea" sheetId="10" state="visible" r:id="rId12"/>
+    <sheet name="MENÚ DE OPCIÓNS" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Elaboración da idea de negocio" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Valorización da idea de negocio" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Habilidades directivas" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Perfil do-a promotor-a" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Valorización da contorna" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Análise DAFO" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Análise CAME" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="CANVAS" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Cuantificación da idea" sheetId="10" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm.Print_Area" vbProcedure="false">CANVAS!$B$2:$G$34</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm.Print_Area" vbProcedure="false">CANVAS!$B$2:$G$34</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm.Print_Area_0" vbProcedure="false">CANVAS!$B$2:$G$34</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="235">
   <si>
     <t xml:space="preserve">ANÁLISE DA VIABILIDADE INICIAL</t>
   </si>
@@ -639,10 +641,90 @@
     <t xml:space="preserve">MANTER AS FORTALEZAS</t>
   </si>
   <si>
+    <t xml:space="preserve">Desenvolvemento de habilidades de xestión do estrés e resiliencia a través de formación e asesoramento empresarial.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manter unha boa xestión do tempo para equilibrar dispoñibilidade e produtividade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fomentar unha mentalidade resiliente a través de formación e motivación continua.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Establecer estándares de calidade e procesos de mellora continua.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manter a análise de datos e tendencias como base para a toma de decisións.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seguir sendo flexible ante cambios do mercado e necesidades dos clientes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ampliar a rede de contactos mediante networking e eventos do sector.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Potenciar a autonomía na toma de decisións estratéxicas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manter obxectivos claros e celebrar os logros da empresa.
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">ATENUAR AS AMEAZAS</t>
   </si>
   <si>
     <t xml:space="preserve">EXPLOTAR AS OPORTUNIDADES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Focalizarse en nichos de mercado máis específicos que poidan ofrecer maior marxe de beneficio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invertir en innovación y expansión para captar nuevos mercados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Posicionarse como referente no sector mediante estratexias de branding e diferenciación.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apostar pola innovación e a personalización do servizo para crear unha proposta de valor única.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crear un ecosistema de servizos que faga que os clientes prefiran permanecer na empresa a longo prazo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Escalar o modelo de negocio para reducir custos e mellorar a marxe de beneficio.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aproveitar a vantaxe competitiva mediante accións agresivas de márketing e fidelización de clientes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aproveitar esta flexibilidade para innovar rapidamente, pero establecendo estándares internos de calidade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negociar condicións vantaxosas con provedores e diversificar fontes de subministración.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expandirse con axilidade en novos mercados antes que a competencia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enfocar esforzos en fidelización e ofrecer servizos premium para maximizar ingresos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crear relacións estratéxicas con provedores clave e buscar alternativas de subministración máis fiables.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aproveitar a falta de alternativas para converterse na opción estándar do mercado.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Expandir o mercado obxectivo con accións de captación dixital, parcerías con entidades e exploración de novos segmentos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ofrecer servizos de soporte e vantaxes adicionais para minimizar a fricción no cambio e fidelizar clientes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimizar os custos internos e negociar mellores acordos cos provedores para aumentar a marxe de beneficio.</t>
   </si>
   <si>
     <t xml:space="preserve">8. ALIANZAS CLAVE</t>
@@ -672,25 +754,7 @@
 Xunta de Galicia </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF1A56BA"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Desenvolvemento de software </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF1A56BA"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Servicio de mantemento de sofware Venta a puerta fria</t>
-    </r>
+    <t xml:space="preserve">Desenvolvemento de software Servicio de mantemento de sofware Venta a puerta fria</t>
   </si>
   <si>
     <t xml:space="preserve">A nosa proposta de valor baséase en tres piares fundamentais:</t>
@@ -823,16 +887,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="General"/>
-    <numFmt numFmtId="166" formatCode="0.00%"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00"/>
-    <numFmt numFmtId="168" formatCode="0"/>
-    <numFmt numFmtId="169" formatCode="0.00"/>
-    <numFmt numFmtId="170" formatCode="#,##0.00;[RED]#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="0.00%"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="0"/>
+    <numFmt numFmtId="168" formatCode="0.00"/>
+    <numFmt numFmtId="169" formatCode="#,##0.00;[RED]#,##0.00"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="36">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -855,9 +918,83 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -897,7 +1034,7 @@
       <b val="true"/>
       <u val="single"/>
       <sz val="12"/>
-      <color theme="10"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -905,7 +1042,7 @@
     <font>
       <u val="single"/>
       <sz val="10"/>
-      <color theme="10"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -972,6 +1109,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF1A56BA"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -997,12 +1141,7 @@
       <color rgb="FF1A56BA"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF1A56BA"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1021,7 +1160,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1030,8 +1169,50 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF000080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC0C0C0"/>
-        <bgColor rgb="FFC3D69B"/>
+        <bgColor rgb="FFDDDDDD"/>
       </patternFill>
     </fill>
     <fill>
@@ -1049,34 +1230,37 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor rgb="FFFCD5B5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFF99"/>
+        <bgColor rgb="FFFFCCCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCCC00"/>
-        <bgColor rgb="FFFFC000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
+        <bgColor rgb="FFFFCC00"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="50">
+  <borders count="51">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -1449,7 +1633,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="38">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1473,10 +1657,58 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1490,23 +1722,23 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1514,27 +1746,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="23" fillId="10" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="22" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="23" fillId="11" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1542,43 +1774,43 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="22" fillId="9" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="22" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="22" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="22" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="25" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1586,35 +1818,35 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="22" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="9" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="27" fillId="10" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1622,287 +1854,283 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="5" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="28" fillId="12" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="27" fillId="11" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="5" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="28" fillId="12" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="27" fillId="11" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="22" fillId="10" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="10" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="23" fillId="10" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="22" fillId="9" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="9" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="9" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="9" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="12" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="12" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="12" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="12" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="12" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="12" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="12" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="12" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="12" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="9" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="22" fillId="9" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="9" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="10" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="10" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="28" fillId="10" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="27" fillId="10" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="5" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="5" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="5" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="5" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="5" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="5" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="5" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="5" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="5" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="3" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="3" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="5" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="28" fillId="12" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="8" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="27" fillId="3" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="5" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="28" fillId="12" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="8" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="27" fillId="3" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="3" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="23" fillId="10" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="10" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="3" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="28" fillId="10" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="31" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="5" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="32" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="12" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="5" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="28" fillId="12" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="8" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="27" fillId="3" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="4" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="11" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="38" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="0" fillId="11" borderId="39" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="4" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="28" fillId="11" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="31" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="0" fillId="11" borderId="32" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="4" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="28" fillId="11" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="37" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="0" fillId="11" borderId="38" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="13" fillId="5" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="23" fillId="12" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="23" fillId="12" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1910,383 +2138,285 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="22" fillId="9" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="22" fillId="12" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="4" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="26" fillId="11" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="5" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="22" fillId="12" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="4" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="26" fillId="11" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="5" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="22" fillId="12" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="4" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="26" fillId="11" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="4" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="26" fillId="11" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="4" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="26" fillId="11" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="4" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="26" fillId="11" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="4" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="26" fillId="11" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="4" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="26" fillId="11" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="11" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="39" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="37" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="40" xfId="37" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="40" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="41" xfId="37" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="41" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="42" xfId="37" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="42" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="43" xfId="37" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="42" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="43" xfId="37" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="41" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="42" xfId="37" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="41" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="42" xfId="37" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="42" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="43" xfId="37" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="43" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="44" xfId="37" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="37" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="39" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="40" xfId="37" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="44" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="45" xfId="37" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="45" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="46" xfId="37" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="3" borderId="46" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="34" fillId="10" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="34" fillId="10" borderId="47" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="34" fillId="10" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="11" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="0" fillId="11" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="46" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="47" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="10" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="34" fillId="10" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="11" borderId="37" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="8" borderId="36" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="8" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="17" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="37" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="27" fillId="12" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="12" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="47" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="48" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="48" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="49" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="9" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="11" borderId="37" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="22" fillId="9" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="4" borderId="28" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="0" fillId="11" borderId="29" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="49" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="12" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="50" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="9" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Normal 2" xfId="21"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
+  <cellStyles count="24">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Heading" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="37" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color rgb="FF0000FF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color rgb="FF4F6228"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color rgb="FFFCD5B5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color rgb="FF0000FF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color rgb="FF4F6228"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color rgb="FFFCD5B5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color rgb="FFFCD5B5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color rgb="FF4F6228"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color rgb="FF0000FF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.3999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
+    <dxf/>
+    <dxf/>
+    <dxf/>
+    <dxf/>
   </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFCD5B5"/>
+      <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FFCC0000"/>
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF4F6228"/>
+      <rgbColor rgb="FF996600"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
@@ -2298,10 +2428,10 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF1A56BA"/>
-      <rgbColor rgb="FFC3D69B"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFCCCC00"/>
+      <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
@@ -2312,20 +2442,20 @@
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFFFCCCC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF92D050"/>
-      <rgbColor rgb="FFFFC000"/>
+      <rgbColor rgb="FFCCCC00"/>
+      <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF00B050"/>
-      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF006600"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
@@ -2336,190 +2466,21 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tema de Office">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="ffffff"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1f497d"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="eeece1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4f81bd"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="c0504d"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9bbb59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064a2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4bacc6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="f79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000ff"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria" pitchFamily="0" charset="1"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme>
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:U19"/>
+  <dimension ref="B1:U13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.89"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1" s="1"/>
@@ -2591,29 +2552,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="1"/>
-    </row>
+    <row r="13" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="V0zuluTxQnLMh0XoJowYPyqOg7fc36YFSZryh2ihVkiAGOmBlCykLvWRq1t/48IAjGPQUqhH8Q5Ou3TMYqRejw==" saltValue="htcSpSDUexrnhLYu0DTVvg==" spinCount="100000" sheet="true" objects="true" scenarios="true"/>
+  <sheetProtection sheet="true" objects="true" scenarios="true"/>
   <hyperlinks>
     <hyperlink ref="B4" location="'Elaboración da idea de negocio'!A1" display="* Elaboración da idea de negocio"/>
     <hyperlink ref="B5" location="'Valorización da idea de negocio'!A1" display="* Valorización da idea de negocio"/>
@@ -2626,8 +2573,8 @@
     <hyperlink ref="B12" location="'Cuantificación da idea'!A1" display="* Cuantificación da idea"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2636,75 +2583,77 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="11.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="20.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="16.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="64" width="13.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="63" width="13.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="25" width="12.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.01"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="27" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="134" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="B4" s="135"/>
       <c r="C4" s="136"/>
       <c r="E4" s="137" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C5" s="138" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="D5" s="138"/>
       <c r="E5" s="139"/>
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C6" s="138" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="D6" s="138"/>
       <c r="E6" s="140"/>
     </row>
     <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="134" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="B7" s="141"/>
       <c r="C7" s="136"/>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C8" s="138" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="D8" s="138"/>
       <c r="E8" s="139"/>
     </row>
     <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C9" s="138" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="D9" s="138"/>
       <c r="E9" s="140"/>
@@ -2716,28 +2665,28 @@
     <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="134" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="B11" s="135"/>
       <c r="C11" s="143"/>
     </row>
     <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C12" s="138" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="D12" s="138"/>
       <c r="E12" s="144"/>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C13" s="138" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="D13" s="138"/>
       <c r="E13" s="144"/>
     </row>
     <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C14" s="145" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="D14" s="138"/>
       <c r="E14" s="146" t="n">
@@ -2747,7 +2696,7 @@
     </row>
     <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C15" s="145" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="D15" s="145"/>
       <c r="E15" s="147" t="n">
@@ -2756,16 +2705,16 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C16" s="63" t="s">
-        <v>205</v>
-      </c>
-      <c r="D16" s="63"/>
+      <c r="C16" s="62" t="s">
+        <v>230</v>
+      </c>
+      <c r="D16" s="62"/>
       <c r="E16" s="148" t="n">
         <f aca="false">IF(E15=0,0,E15/E14)</f>
         <v>0</v>
       </c>
       <c r="F16" s="149" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2783,7 +2732,7 @@
       <c r="A21" s="150"/>
       <c r="B21" s="154"/>
       <c r="C21" s="155" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="D21" s="155"/>
       <c r="E21" s="156"/>
@@ -2793,7 +2742,7 @@
       <c r="A22" s="150"/>
       <c r="B22" s="154"/>
       <c r="C22" s="155" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="D22" s="155"/>
       <c r="E22" s="158"/>
@@ -2803,7 +2752,7 @@
       <c r="A23" s="150"/>
       <c r="B23" s="154"/>
       <c r="C23" s="155" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="D23" s="159"/>
       <c r="E23" s="160" t="n">
@@ -2829,10 +2778,10 @@
       <c r="F25" s="163"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="MP24MV7HK58UEYt56cggEtH2GgyK72fpECPlUfu0/wZLeGVj5+0qQhjxSbUxyBcT3VWkdiTDoPOxWrLde0Idkg==" saltValue="0opukY4hGXeHGufxaJqtgA==" spinCount="100000" sheet="true" selectLockedCells="true"/>
+  <sheetProtection sheet="true" selectLockedCells="true"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2841,20 +2790,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="150"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="150.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="47.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.45"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2881,10 +2831,10 @@
       <c r="A7" s="12"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="yRRas50JA2oxRbGXhz4REbzCIIUPurzoKyp/BZEW3ZLkMBO4vYWjO/pFRnFV9wmrdTSm+R8nLQEUABMscYpqCQ==" saltValue="UvWsAcT2wnfCvUWPxmINmA==" spinCount="100000" sheet="true" objects="true" scenarios="true"/>
+  <sheetProtection sheet="true" objects="true" scenarios="true"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPágina &amp;P</oddFooter>
@@ -2893,23 +2843,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:V23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="32.88"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="11.44"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="19" min="10" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="20" style="1" width="11.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="32.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="11.44"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="19" min="10" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="20" style="1" width="11.44"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3154,27 +3104,27 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ffmJGUsMIqXcvu+N2G5ewGCKji8flsCfXcgX0iN2Qjs/1IFWE0MqI3q0tLFmCz1XYZ+nB4e4GgeCI7DgCYzkmg==" saltValue="z+AKa7o9iXk8foPx92OqUA==" spinCount="100000" sheet="true" insertRows="false" selectLockedCells="true"/>
+  <sheetProtection sheet="true" insertRows="false" selectLockedCells="true"/>
   <conditionalFormatting sqref="B23">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>$B$21&gt;70%</formula>
+      <formula>$B$21&gt;0.7</formula>
     </cfRule>
     <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>$B$21&gt;50%</formula>
+      <formula>$B$21&gt;0.5</formula>
     </cfRule>
     <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>$B$21&lt;49.9999999999999%</formula>
+      <formula>$B$21&lt;0.499999999999999</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B4:B17" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B4:B17" type="list">
       <formula1>$J$1:$S$1</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPágina &amp;P</oddFooter>
@@ -3183,23 +3133,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="46.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="25" width="10.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="25" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="19" min="10" style="7" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="25" width="14.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="13.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="5" style="0" width="11.01"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="19" min="10" style="7" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="20" style="0" width="11.01"/>
   </cols>
   <sheetData>
     <row r="1" s="8" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3862,14 +3814,14 @@
     </row>
     <row r="32" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="33" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="48" t="str">
+      <c r="A33" s="47" t="str">
         <f aca="false">IF(C28&lt;4,"AS HABILIDADES SON 'DEFICIENTES' E DEBE AMPLIALAS",IF(C28&gt;7,"BO PERFIL EMPRENDEDOR (TEN HABILIDADES DIRECTIVAS)","POUCAS HABILIDADES, DEBEN SER MELLORADAS"))</f>
         <v>BO PERFIL EMPRENDEDOR (TEN HABILIDADES DIRECTIVAS)</v>
       </c>
-      <c r="B33" s="48"/>
+      <c r="B33" s="47"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="3bwQ+BS9NHQb64TWGnATl6VGP+3jk9Tf71YcPuKyiQO8nh1kGW6fm2s5NGxA/kJqedofP7HIQ12MhS+MibMiDw==" saltValue="8Jm/BQYnm22oh7Q9Byoj9w==" spinCount="100000" sheet="true" selectLockedCells="true"/>
+  <sheetProtection sheet="true" selectLockedCells="true"/>
   <mergeCells count="25">
     <mergeCell ref="E5:M5"/>
     <mergeCell ref="E6:M6"/>
@@ -3898,25 +3850,25 @@
     <mergeCell ref="A33:B33"/>
   </mergeCells>
   <conditionalFormatting sqref="A33:B33">
-    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>B28&gt;161</formula>
     </cfRule>
-    <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+    <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>B28&gt;92</formula>
     </cfRule>
-    <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>B28&lt;91.9999999999999</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B5:B26" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B5:B26" type="list">
       <formula1>$J$1:$S$1</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3925,22 +3877,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="42.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="25" width="11.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="25" width="12.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="25" width="11.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.01"/>
   </cols>
   <sheetData>
     <row r="1" s="8" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3952,37 +3905,37 @@
       <c r="D1" s="26"/>
     </row>
     <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="51" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
     </row>
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="54" t="str">
+      <c r="B5" s="53" t="str">
         <f aca="false">IF('Habilidades directivas'!B5&gt;3," ","*")</f>
         <v> </v>
       </c>
-      <c r="C5" s="55" t="str">
+      <c r="C5" s="54" t="str">
         <f aca="false">IF('Habilidades directivas'!B5&lt;4," ",IF('Habilidades directivas'!B5&gt;6," ","*"))</f>
         <v> </v>
       </c>
-      <c r="D5" s="56" t="str">
+      <c r="D5" s="55" t="str">
         <f aca="false">IF('Habilidades directivas'!B5&gt;6,"*"," ")</f>
         <v>*</v>
       </c>
@@ -3991,15 +3944,15 @@
       <c r="A6" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="57" t="str">
+      <c r="B6" s="56" t="str">
         <f aca="false">IF('Habilidades directivas'!B6&gt;3," ","*")</f>
         <v> </v>
       </c>
-      <c r="C6" s="58" t="str">
+      <c r="C6" s="57" t="str">
         <f aca="false">IF('Habilidades directivas'!B6&lt;4," ",IF('Habilidades directivas'!B6&gt;6," ","*"))</f>
         <v> </v>
       </c>
-      <c r="D6" s="59" t="str">
+      <c r="D6" s="58" t="str">
         <f aca="false">IF('Habilidades directivas'!B6&gt;6,"*"," ")</f>
         <v>*</v>
       </c>
@@ -4008,15 +3961,15 @@
       <c r="A7" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="57" t="str">
+      <c r="B7" s="56" t="str">
         <f aca="false">IF('Habilidades directivas'!B7&gt;3," ","*")</f>
         <v> </v>
       </c>
-      <c r="C7" s="58" t="str">
+      <c r="C7" s="57" t="str">
         <f aca="false">IF('Habilidades directivas'!B7&lt;4," ",IF('Habilidades directivas'!B7&gt;6," ","*"))</f>
         <v> </v>
       </c>
-      <c r="D7" s="59" t="str">
+      <c r="D7" s="58" t="str">
         <f aca="false">IF('Habilidades directivas'!B7&gt;6,"*"," ")</f>
         <v>*</v>
       </c>
@@ -4025,15 +3978,15 @@
       <c r="A8" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="57" t="str">
+      <c r="B8" s="56" t="str">
         <f aca="false">IF('Habilidades directivas'!B8&gt;3," ","*")</f>
         <v> </v>
       </c>
-      <c r="C8" s="58" t="str">
+      <c r="C8" s="57" t="str">
         <f aca="false">IF('Habilidades directivas'!B8&lt;4," ",IF('Habilidades directivas'!B8&gt;6," ","*"))</f>
         <v> </v>
       </c>
-      <c r="D8" s="59" t="str">
+      <c r="D8" s="58" t="str">
         <f aca="false">IF('Habilidades directivas'!B8&gt;6,"*"," ")</f>
         <v>*</v>
       </c>
@@ -4042,15 +3995,15 @@
       <c r="A9" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="57" t="str">
+      <c r="B9" s="56" t="str">
         <f aca="false">IF('Habilidades directivas'!B9&gt;3," ","*")</f>
         <v> </v>
       </c>
-      <c r="C9" s="58" t="str">
+      <c r="C9" s="57" t="str">
         <f aca="false">IF('Habilidades directivas'!B9&lt;4," ",IF('Habilidades directivas'!B9&gt;6," ","*"))</f>
         <v>*</v>
       </c>
-      <c r="D9" s="59" t="str">
+      <c r="D9" s="58" t="str">
         <f aca="false">IF('Habilidades directivas'!B9&gt;6,"*"," ")</f>
         <v> </v>
       </c>
@@ -4059,15 +4012,15 @@
       <c r="A10" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="57" t="str">
+      <c r="B10" s="56" t="str">
         <f aca="false">IF('Habilidades directivas'!B10&gt;3," ","*")</f>
         <v> </v>
       </c>
-      <c r="C10" s="58" t="str">
+      <c r="C10" s="57" t="str">
         <f aca="false">IF('Habilidades directivas'!B10&lt;4," ",IF('Habilidades directivas'!B10&gt;6," ","*"))</f>
         <v>*</v>
       </c>
-      <c r="D10" s="59" t="str">
+      <c r="D10" s="58" t="str">
         <f aca="false">IF('Habilidades directivas'!B10&gt;6,"*"," ")</f>
         <v> </v>
       </c>
@@ -4076,15 +4029,15 @@
       <c r="A11" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="57" t="str">
+      <c r="B11" s="56" t="str">
         <f aca="false">IF('Habilidades directivas'!B11&gt;3," ","*")</f>
         <v> </v>
       </c>
-      <c r="C11" s="58" t="str">
+      <c r="C11" s="57" t="str">
         <f aca="false">IF('Habilidades directivas'!B11&lt;4," ",IF('Habilidades directivas'!B11&gt;6," ","*"))</f>
         <v> </v>
       </c>
-      <c r="D11" s="59" t="str">
+      <c r="D11" s="58" t="str">
         <f aca="false">IF('Habilidades directivas'!B11&gt;6,"*"," ")</f>
         <v>*</v>
       </c>
@@ -4093,15 +4046,15 @@
       <c r="A12" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="57" t="str">
+      <c r="B12" s="56" t="str">
         <f aca="false">IF('Habilidades directivas'!B12&gt;3," ","*")</f>
         <v>*</v>
       </c>
-      <c r="C12" s="58" t="str">
+      <c r="C12" s="57" t="str">
         <f aca="false">IF('Habilidades directivas'!B12&lt;4," ",IF('Habilidades directivas'!B12&gt;6," ","*"))</f>
         <v> </v>
       </c>
-      <c r="D12" s="59" t="str">
+      <c r="D12" s="58" t="str">
         <f aca="false">IF('Habilidades directivas'!B12&gt;6,"*"," ")</f>
         <v> </v>
       </c>
@@ -4110,15 +4063,15 @@
       <c r="A13" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="57" t="str">
+      <c r="B13" s="56" t="str">
         <f aca="false">IF('Habilidades directivas'!B13&gt;3," ","*")</f>
         <v> </v>
       </c>
-      <c r="C13" s="58" t="str">
+      <c r="C13" s="57" t="str">
         <f aca="false">IF('Habilidades directivas'!B13&lt;4," ",IF('Habilidades directivas'!B13&gt;6," ","*"))</f>
         <v> </v>
       </c>
-      <c r="D13" s="59" t="str">
+      <c r="D13" s="58" t="str">
         <f aca="false">IF('Habilidades directivas'!B13&gt;6,"*"," ")</f>
         <v>*</v>
       </c>
@@ -4127,15 +4080,15 @@
       <c r="A14" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="57" t="str">
+      <c r="B14" s="56" t="str">
         <f aca="false">IF('Habilidades directivas'!B14&gt;3," ","*")</f>
         <v> </v>
       </c>
-      <c r="C14" s="58" t="str">
+      <c r="C14" s="57" t="str">
         <f aca="false">IF('Habilidades directivas'!B14&lt;4," ",IF('Habilidades directivas'!B14&gt;6," ","*"))</f>
         <v> </v>
       </c>
-      <c r="D14" s="59" t="str">
+      <c r="D14" s="58" t="str">
         <f aca="false">IF('Habilidades directivas'!B14&gt;6,"*"," ")</f>
         <v>*</v>
       </c>
@@ -4144,15 +4097,15 @@
       <c r="A15" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="57" t="str">
+      <c r="B15" s="56" t="str">
         <f aca="false">IF('Habilidades directivas'!B15&gt;3," ","*")</f>
         <v> </v>
       </c>
-      <c r="C15" s="58" t="str">
+      <c r="C15" s="57" t="str">
         <f aca="false">IF('Habilidades directivas'!B15&lt;4," ",IF('Habilidades directivas'!B15&gt;6," ","*"))</f>
         <v>*</v>
       </c>
-      <c r="D15" s="59" t="str">
+      <c r="D15" s="58" t="str">
         <f aca="false">IF('Habilidades directivas'!B15&gt;6,"*"," ")</f>
         <v> </v>
       </c>
@@ -4161,15 +4114,15 @@
       <c r="A16" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="57" t="str">
+      <c r="B16" s="56" t="str">
         <f aca="false">IF('Habilidades directivas'!B16&gt;3," ","*")</f>
         <v> </v>
       </c>
-      <c r="C16" s="58" t="str">
+      <c r="C16" s="57" t="str">
         <f aca="false">IF('Habilidades directivas'!B16&lt;4," ",IF('Habilidades directivas'!B16&gt;6," ","*"))</f>
         <v>*</v>
       </c>
-      <c r="D16" s="59" t="str">
+      <c r="D16" s="58" t="str">
         <f aca="false">IF('Habilidades directivas'!B16&gt;6,"*"," ")</f>
         <v> </v>
       </c>
@@ -4178,15 +4131,15 @@
       <c r="A17" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="57" t="str">
+      <c r="B17" s="56" t="str">
         <f aca="false">IF('Habilidades directivas'!B17&gt;3," ","*")</f>
         <v> </v>
       </c>
-      <c r="C17" s="58" t="str">
+      <c r="C17" s="57" t="str">
         <f aca="false">IF('Habilidades directivas'!B17&lt;4," ",IF('Habilidades directivas'!B17&gt;6," ","*"))</f>
         <v> </v>
       </c>
-      <c r="D17" s="59" t="str">
+      <c r="D17" s="58" t="str">
         <f aca="false">IF('Habilidades directivas'!B17&gt;6,"*"," ")</f>
         <v>*</v>
       </c>
@@ -4195,15 +4148,15 @@
       <c r="A18" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="57" t="str">
+      <c r="B18" s="56" t="str">
         <f aca="false">IF('Habilidades directivas'!B18&gt;3," ","*")</f>
         <v> </v>
       </c>
-      <c r="C18" s="58" t="str">
+      <c r="C18" s="57" t="str">
         <f aca="false">IF('Habilidades directivas'!B18&lt;4," ",IF('Habilidades directivas'!B18&gt;6," ","*"))</f>
         <v> </v>
       </c>
-      <c r="D18" s="59" t="str">
+      <c r="D18" s="58" t="str">
         <f aca="false">IF('Habilidades directivas'!B18&gt;6,"*"," ")</f>
         <v>*</v>
       </c>
@@ -4212,15 +4165,15 @@
       <c r="A19" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="57" t="str">
+      <c r="B19" s="56" t="str">
         <f aca="false">IF('Habilidades directivas'!B19&gt;3," ","*")</f>
         <v> </v>
       </c>
-      <c r="C19" s="58" t="str">
+      <c r="C19" s="57" t="str">
         <f aca="false">IF('Habilidades directivas'!B19&lt;4," ",IF('Habilidades directivas'!B19&gt;6," ","*"))</f>
         <v> </v>
       </c>
-      <c r="D19" s="59" t="str">
+      <c r="D19" s="58" t="str">
         <f aca="false">IF('Habilidades directivas'!B19&gt;6,"*"," ")</f>
         <v>*</v>
       </c>
@@ -4229,15 +4182,15 @@
       <c r="A20" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="57" t="str">
+      <c r="B20" s="56" t="str">
         <f aca="false">IF('Habilidades directivas'!B20&gt;3," ","*")</f>
         <v> </v>
       </c>
-      <c r="C20" s="58" t="str">
+      <c r="C20" s="57" t="str">
         <f aca="false">IF('Habilidades directivas'!B20&lt;4," ",IF('Habilidades directivas'!B20&gt;6," ","*"))</f>
         <v> </v>
       </c>
-      <c r="D20" s="59" t="str">
+      <c r="D20" s="58" t="str">
         <f aca="false">IF('Habilidades directivas'!B20&gt;6,"*"," ")</f>
         <v>*</v>
       </c>
@@ -4246,15 +4199,15 @@
       <c r="A21" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="57" t="str">
+      <c r="B21" s="56" t="str">
         <f aca="false">IF('Habilidades directivas'!B21&gt;3," ","*")</f>
         <v> </v>
       </c>
-      <c r="C21" s="58" t="str">
+      <c r="C21" s="57" t="str">
         <f aca="false">IF('Habilidades directivas'!B21&lt;4," ",IF('Habilidades directivas'!B21&gt;6," ","*"))</f>
         <v> </v>
       </c>
-      <c r="D21" s="59" t="str">
+      <c r="D21" s="58" t="str">
         <f aca="false">IF('Habilidades directivas'!B21&gt;6,"*"," ")</f>
         <v>*</v>
       </c>
@@ -4263,15 +4216,15 @@
       <c r="A22" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="57" t="str">
+      <c r="B22" s="56" t="str">
         <f aca="false">IF('Habilidades directivas'!B22&gt;3," ","*")</f>
         <v> </v>
       </c>
-      <c r="C22" s="58" t="str">
+      <c r="C22" s="57" t="str">
         <f aca="false">IF('Habilidades directivas'!B22&lt;4," ",IF('Habilidades directivas'!B22&gt;6," ","*"))</f>
         <v> </v>
       </c>
-      <c r="D22" s="59" t="str">
+      <c r="D22" s="58" t="str">
         <f aca="false">IF('Habilidades directivas'!B22&gt;6,"*"," ")</f>
         <v>*</v>
       </c>
@@ -4280,15 +4233,15 @@
       <c r="A23" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="57" t="str">
+      <c r="B23" s="56" t="str">
         <f aca="false">IF('Habilidades directivas'!B23&gt;3," ","*")</f>
         <v> </v>
       </c>
-      <c r="C23" s="58" t="str">
+      <c r="C23" s="57" t="str">
         <f aca="false">IF('Habilidades directivas'!B23&lt;4," ",IF('Habilidades directivas'!B23&gt;6," ","*"))</f>
         <v> </v>
       </c>
-      <c r="D23" s="59" t="str">
+      <c r="D23" s="58" t="str">
         <f aca="false">IF('Habilidades directivas'!B23&gt;6,"*"," ")</f>
         <v>*</v>
       </c>
@@ -4297,15 +4250,15 @@
       <c r="A24" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="B24" s="57" t="str">
+      <c r="B24" s="56" t="str">
         <f aca="false">IF('Habilidades directivas'!B24&gt;3," ","*")</f>
         <v> </v>
       </c>
-      <c r="C24" s="58" t="str">
+      <c r="C24" s="57" t="str">
         <f aca="false">IF('Habilidades directivas'!B24&lt;4," ",IF('Habilidades directivas'!B24&gt;6," ","*"))</f>
         <v> </v>
       </c>
-      <c r="D24" s="59" t="str">
+      <c r="D24" s="58" t="str">
         <f aca="false">IF('Habilidades directivas'!B24&gt;6,"*"," ")</f>
         <v>*</v>
       </c>
@@ -4314,15 +4267,15 @@
       <c r="A25" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="B25" s="57" t="str">
+      <c r="B25" s="56" t="str">
         <f aca="false">IF('Habilidades directivas'!B25&gt;3," ","*")</f>
         <v> </v>
       </c>
-      <c r="C25" s="58" t="str">
+      <c r="C25" s="57" t="str">
         <f aca="false">IF('Habilidades directivas'!B25&lt;4," ",IF('Habilidades directivas'!B25&gt;6," ","*"))</f>
         <v> </v>
       </c>
-      <c r="D25" s="59" t="str">
+      <c r="D25" s="58" t="str">
         <f aca="false">IF('Habilidades directivas'!B25&gt;6,"*"," ")</f>
         <v>*</v>
       </c>
@@ -4331,15 +4284,15 @@
       <c r="A26" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="57" t="str">
+      <c r="B26" s="56" t="str">
         <f aca="false">IF('Habilidades directivas'!B26&gt;3," ","*")</f>
         <v> </v>
       </c>
-      <c r="C26" s="58" t="str">
+      <c r="C26" s="57" t="str">
         <f aca="false">IF('Habilidades directivas'!B26&lt;4," ",IF('Habilidades directivas'!B26&gt;6," ","*"))</f>
         <v> </v>
       </c>
-      <c r="D26" s="59" t="str">
+      <c r="D26" s="58" t="str">
         <f aca="false">IF('Habilidades directivas'!B26&gt;6,"*"," ")</f>
         <v>*</v>
       </c>
@@ -4348,24 +4301,24 @@
       <c r="A27" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="B27" s="60" t="str">
+      <c r="B27" s="59" t="str">
         <f aca="false">IF('Habilidades directivas'!B27&gt;3," ","*")</f>
         <v> </v>
       </c>
-      <c r="C27" s="61" t="str">
+      <c r="C27" s="60" t="str">
         <f aca="false">IF('Habilidades directivas'!B27&lt;4," ",IF('Habilidades directivas'!B27&gt;6," ","*"))</f>
         <v> </v>
       </c>
-      <c r="D27" s="62" t="str">
+      <c r="D27" s="61" t="str">
         <f aca="false">IF('Habilidades directivas'!B27&gt;6,"*"," ")</f>
         <v>*</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="A2rKSnNFWouSiiluXkRtxnSV5zSTQ5Ur4HFYRQviNcUr0x7myL3g5aV1na8j6r5BbizO9C0zZlcUOEfiYj+e4g==" saltValue="41bT0PNzGUIx0HeECeyr2w==" spinCount="100000" sheet="true"/>
+  <sheetProtection sheet="true"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -4374,23 +4327,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="99" zoomScaleNormal="99" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="44.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="44.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="19.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="12.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="136.33"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="11" min="8" style="7" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="11.01"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="11" min="8" style="7" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="11.01"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4418,631 +4374,631 @@
       <c r="C2" s="25"/>
     </row>
     <row r="3" s="32" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
     </row>
     <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
     </row>
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="66" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="69" t="n">
+      <c r="B6" s="68" t="n">
         <f aca="false">SUM(B7:B13)</f>
         <v>19</v>
       </c>
-      <c r="C6" s="70" t="n">
+      <c r="C6" s="69" t="n">
         <f aca="false">(B6/7)/100</f>
         <v>0.0271428571428571</v>
       </c>
-      <c r="D6" s="71" t="s">
+      <c r="D6" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="71" t="s">
+      <c r="E6" s="70" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="73" t="n">
+      <c r="B7" s="72" t="n">
         <v>4</v>
       </c>
-      <c r="C7" s="74" t="str">
+      <c r="C7" s="73" t="str">
         <f aca="false">IF(B7&gt;2,"OPORTUNIDADE - O","AMEAZA - A")</f>
         <v>OPORTUNIDADE - O</v>
       </c>
-      <c r="D7" s="75" t="str">
+      <c r="D7" s="74" t="str">
         <f aca="false">IF(B7&gt;4,"Corrixir!",IF(B7&lt;1,"Corrixir!"," "))</f>
         <v> </v>
       </c>
-      <c r="E7" s="76" t="s">
+      <c r="E7" s="75" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="77" t="s">
+      <c r="A8" s="76" t="s">
         <v>91</v>
       </c>
-      <c r="B8" s="78" t="n">
+      <c r="B8" s="77" t="n">
         <v>4</v>
       </c>
-      <c r="C8" s="79" t="str">
+      <c r="C8" s="78" t="str">
         <f aca="false">IF(B8&gt;2,"OPORTUNIDADE - O","AMEAZA - A")</f>
         <v>OPORTUNIDADE - O</v>
       </c>
-      <c r="D8" s="80" t="str">
+      <c r="D8" s="79" t="str">
         <f aca="false">IF(B8&gt;4,"Corrixir!",IF(B8&lt;1,"Corrixir!"," "))</f>
         <v> </v>
       </c>
-      <c r="E8" s="81" t="s">
+      <c r="E8" s="80" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="B9" s="78" t="n">
+      <c r="B9" s="77" t="n">
         <v>4</v>
       </c>
-      <c r="C9" s="79" t="str">
+      <c r="C9" s="78" t="str">
         <f aca="false">IF(B9&gt;2,"OPORTUNIDADE - O","AMEAZA - A")</f>
         <v>OPORTUNIDADE - O</v>
       </c>
-      <c r="D9" s="80" t="str">
+      <c r="D9" s="79" t="str">
         <f aca="false">IF(B9&gt;4,"Corrixir!",IF(B9&lt;1,"Corrixir!"," "))</f>
         <v> </v>
       </c>
-      <c r="E9" s="81" t="s">
+      <c r="E9" s="80" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="77" t="s">
+      <c r="A10" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="B10" s="78" t="n">
+      <c r="B10" s="77" t="n">
         <v>3</v>
       </c>
-      <c r="C10" s="79" t="str">
+      <c r="C10" s="78" t="str">
         <f aca="false">IF(B10&gt;2,"OPORTUNIDADE - O","AMEAZA - A")</f>
         <v>OPORTUNIDADE - O</v>
       </c>
-      <c r="D10" s="80" t="str">
+      <c r="D10" s="79" t="str">
         <f aca="false">IF(B10&gt;4,"Corrixir!",IF(B10&lt;1,"Corrixir!"," "))</f>
         <v> </v>
       </c>
-      <c r="E10" s="81" t="s">
+      <c r="E10" s="80" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="77" t="s">
+      <c r="A11" s="76" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="78" t="n">
+      <c r="B11" s="77" t="n">
         <v>2</v>
       </c>
-      <c r="C11" s="79" t="str">
+      <c r="C11" s="78" t="str">
         <f aca="false">IF(B11&gt;2,"OPORTUNIDADE - O","AMEAZA - A")</f>
         <v>AMEAZA - A</v>
       </c>
-      <c r="D11" s="80" t="str">
+      <c r="D11" s="79" t="str">
         <f aca="false">IF(B11&gt;4,"Corrixir!",IF(B11&lt;1,"Corrixir!"," "))</f>
         <v> </v>
       </c>
-      <c r="E11" s="81" t="s">
+      <c r="E11" s="80" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="77" t="s">
+      <c r="A12" s="76" t="s">
         <v>99</v>
       </c>
-      <c r="B12" s="78" t="n">
+      <c r="B12" s="77" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="79" t="str">
+      <c r="C12" s="78" t="str">
         <f aca="false">IF(B12&gt;2,"OPORTUNIDADE - O","AMEAZA - A")</f>
         <v>AMEAZA - A</v>
       </c>
-      <c r="D12" s="80" t="str">
+      <c r="D12" s="79" t="str">
         <f aca="false">IF(B12&gt;4,"Corrixir!",IF(B12&lt;1,"Corrixir!"," "))</f>
         <v> </v>
       </c>
-      <c r="E12" s="81" t="s">
+      <c r="E12" s="80" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="82" t="s">
+      <c r="A13" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="B13" s="83" t="n">
+      <c r="B13" s="82" t="n">
         <v>1</v>
       </c>
-      <c r="C13" s="79" t="str">
+      <c r="C13" s="78" t="str">
         <f aca="false">IF(B13&gt;2,"OPORTUNIDADE - O","AMEAZA - A")</f>
         <v>AMEAZA - A</v>
       </c>
-      <c r="D13" s="80" t="str">
+      <c r="D13" s="79" t="str">
         <f aca="false">IF(B13&gt;4,"Corrixir!",IF(B13&lt;1,"Corrixir!"," "))</f>
         <v> </v>
       </c>
-      <c r="E13" s="81" t="s">
+      <c r="E13" s="80" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="84" t="s">
+      <c r="A14" s="83" t="s">
         <v>103</v>
       </c>
-      <c r="B14" s="85" t="n">
+      <c r="B14" s="84" t="n">
         <f aca="false">SUM(B15:B21)</f>
         <v>18</v>
       </c>
-      <c r="C14" s="86" t="n">
+      <c r="C14" s="85" t="n">
         <f aca="false">(B14/7)/100</f>
         <v>0.0257142857142857</v>
       </c>
-      <c r="D14" s="87"/>
-      <c r="E14" s="81"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="80"/>
     </row>
     <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="77" t="s">
+      <c r="A15" s="76" t="s">
         <v>104</v>
       </c>
-      <c r="B15" s="73" t="n">
+      <c r="B15" s="72" t="n">
         <v>4</v>
       </c>
-      <c r="C15" s="74" t="str">
+      <c r="C15" s="73" t="str">
         <f aca="false">IF(B15&gt;2,"OPORTUNIDADE - O","AMEAZA - A")</f>
         <v>OPORTUNIDADE - O</v>
       </c>
-      <c r="D15" s="80" t="str">
+      <c r="D15" s="79" t="str">
         <f aca="false">IF(B15&gt;4,"Corrixir!",IF(B15&lt;1,"Corrixir!"," "))</f>
         <v> </v>
       </c>
-      <c r="E15" s="81" t="s">
+      <c r="E15" s="80" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="77" t="s">
+      <c r="A16" s="76" t="s">
         <v>106</v>
       </c>
-      <c r="B16" s="78" t="n">
+      <c r="B16" s="77" t="n">
         <v>4</v>
       </c>
-      <c r="C16" s="79" t="str">
+      <c r="C16" s="78" t="str">
         <f aca="false">IF(B16&gt;2,"OPORTUNIDADE - O","AMEAZA - A")</f>
         <v>OPORTUNIDADE - O</v>
       </c>
-      <c r="D16" s="80" t="str">
+      <c r="D16" s="79" t="str">
         <f aca="false">IF(B16&gt;4,"Corrixir!",IF(B16&lt;1,"Corrixir!"," "))</f>
         <v> </v>
       </c>
-      <c r="E16" s="81" t="s">
+      <c r="E16" s="80" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="77" t="s">
+      <c r="A17" s="76" t="s">
         <v>108</v>
       </c>
-      <c r="B17" s="78" t="n">
+      <c r="B17" s="77" t="n">
         <v>1</v>
       </c>
-      <c r="C17" s="79" t="str">
+      <c r="C17" s="78" t="str">
         <f aca="false">IF(B17&gt;2,"OPORTUNIDADE - O","AMEAZA - A")</f>
         <v>AMEAZA - A</v>
       </c>
-      <c r="D17" s="80" t="str">
+      <c r="D17" s="79" t="str">
         <f aca="false">IF(B17&gt;4,"Corrixir!",IF(B17&lt;1,"Corrixir!"," "))</f>
         <v> </v>
       </c>
-      <c r="E17" s="81" t="s">
+      <c r="E17" s="80" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="77" t="s">
+      <c r="A18" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="B18" s="78" t="n">
+      <c r="B18" s="77" t="n">
         <v>1</v>
       </c>
-      <c r="C18" s="79" t="str">
+      <c r="C18" s="78" t="str">
         <f aca="false">IF(B18&gt;2,"OPORTUNIDADE - O","AMEAZA - A")</f>
         <v>AMEAZA - A</v>
       </c>
-      <c r="D18" s="80" t="str">
+      <c r="D18" s="79" t="str">
         <f aca="false">IF(B18&gt;4,"Corrixir!",IF(B18&lt;1,"Corrixir!"," "))</f>
         <v> </v>
       </c>
-      <c r="E18" s="81" t="s">
+      <c r="E18" s="80" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="77" t="s">
+      <c r="A19" s="76" t="s">
         <v>112</v>
       </c>
-      <c r="B19" s="78" t="n">
+      <c r="B19" s="77" t="n">
         <v>2</v>
       </c>
-      <c r="C19" s="79" t="str">
+      <c r="C19" s="78" t="str">
         <f aca="false">IF(B19&gt;2,"OPORTUNIDADE - O","AMEAZA - A")</f>
         <v>AMEAZA - A</v>
       </c>
-      <c r="D19" s="80" t="str">
+      <c r="D19" s="79" t="str">
         <f aca="false">IF(B19&gt;4,"Corrixir!",IF(B19&lt;1,"Corrixir!"," "))</f>
         <v> </v>
       </c>
-      <c r="E19" s="81" t="s">
+      <c r="E19" s="80" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="77" t="s">
+      <c r="A20" s="76" t="s">
         <v>114</v>
       </c>
-      <c r="B20" s="78" t="n">
+      <c r="B20" s="77" t="n">
         <v>2</v>
       </c>
-      <c r="C20" s="79" t="str">
+      <c r="C20" s="78" t="str">
         <f aca="false">IF(B20&gt;2,"OPORTUNIDADE - O","AMEAZA - A")</f>
         <v>AMEAZA - A</v>
       </c>
-      <c r="D20" s="80" t="str">
+      <c r="D20" s="79" t="str">
         <f aca="false">IF(B20&gt;4,"Corrixir!",IF(B20&lt;1,"Corrixir!"," "))</f>
         <v> </v>
       </c>
-      <c r="E20" s="81" t="s">
+      <c r="E20" s="80" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="82" t="s">
+      <c r="A21" s="81" t="s">
         <v>116</v>
       </c>
-      <c r="B21" s="78" t="n">
+      <c r="B21" s="77" t="n">
         <v>4</v>
       </c>
-      <c r="C21" s="79" t="str">
+      <c r="C21" s="78" t="str">
         <f aca="false">IF(B21&gt;2,"OPORTUNIDADE - O","AMEAZA - A")</f>
         <v>OPORTUNIDADE - O</v>
       </c>
-      <c r="D21" s="80" t="str">
+      <c r="D21" s="79" t="str">
         <f aca="false">IF(B21&gt;4,"Corrixir!",IF(B21&lt;1,"Corrixir!"," "))</f>
         <v> </v>
       </c>
-      <c r="E21" s="81" t="s">
+      <c r="E21" s="80" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="84" t="s">
+      <c r="A22" s="83" t="s">
         <v>118</v>
       </c>
-      <c r="B22" s="85" t="n">
+      <c r="B22" s="84" t="n">
         <f aca="false">SUM(B23:B26)</f>
         <v>13</v>
       </c>
-      <c r="C22" s="86" t="n">
+      <c r="C22" s="85" t="n">
         <f aca="false">(B22/4)/100</f>
         <v>0.0325</v>
       </c>
-      <c r="D22" s="87"/>
-      <c r="E22" s="81"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="80"/>
     </row>
     <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="77" t="s">
+      <c r="A23" s="76" t="s">
         <v>119</v>
       </c>
-      <c r="B23" s="73" t="n">
+      <c r="B23" s="72" t="n">
         <v>3</v>
       </c>
-      <c r="C23" s="74" t="str">
+      <c r="C23" s="73" t="str">
         <f aca="false">IF(B23&gt;2,"OPORTUNIDADE - O","AMEAZA - A")</f>
         <v>OPORTUNIDADE - O</v>
       </c>
-      <c r="D23" s="80" t="str">
+      <c r="D23" s="79" t="str">
         <f aca="false">IF(B23&gt;4,"Corrixir!",IF(B23&lt;1,"Corrixir!"," "))</f>
         <v> </v>
       </c>
-      <c r="E23" s="81" t="s">
+      <c r="E23" s="80" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="77" t="s">
+      <c r="A24" s="76" t="s">
         <v>121</v>
       </c>
-      <c r="B24" s="78" t="n">
+      <c r="B24" s="77" t="n">
         <v>4</v>
       </c>
-      <c r="C24" s="79" t="str">
+      <c r="C24" s="78" t="str">
         <f aca="false">IF(B24&gt;2,"OPORTUNIDADE - O","AMEAZA - A")</f>
         <v>OPORTUNIDADE - O</v>
       </c>
-      <c r="D24" s="80" t="str">
+      <c r="D24" s="79" t="str">
         <f aca="false">IF(B24&gt;4,"Corrixir!",IF(B24&lt;1,"Corrixir!"," "))</f>
         <v> </v>
       </c>
-      <c r="E24" s="81" t="s">
+      <c r="E24" s="80" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="77" t="s">
+      <c r="A25" s="76" t="s">
         <v>123</v>
       </c>
-      <c r="B25" s="78" t="n">
+      <c r="B25" s="77" t="n">
         <v>4</v>
       </c>
-      <c r="C25" s="79" t="str">
+      <c r="C25" s="78" t="str">
         <f aca="false">IF(B25&gt;2,"OPORTUNIDADE - O","AMEAZA - A")</f>
         <v>OPORTUNIDADE - O</v>
       </c>
-      <c r="D25" s="80" t="str">
+      <c r="D25" s="79" t="str">
         <f aca="false">IF(B25&gt;4,"Corrixir!",IF(B25&lt;1,"Corrixir!"," "))</f>
         <v> </v>
       </c>
-      <c r="E25" s="81" t="s">
+      <c r="E25" s="80" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="82" t="s">
+      <c r="A26" s="81" t="s">
         <v>125</v>
       </c>
-      <c r="B26" s="78" t="n">
+      <c r="B26" s="77" t="n">
         <v>2</v>
       </c>
-      <c r="C26" s="79" t="str">
+      <c r="C26" s="78" t="str">
         <f aca="false">IF(B26&gt;2,"OPORTUNIDADE - O","AMEAZA - A")</f>
         <v>AMEAZA - A</v>
       </c>
-      <c r="D26" s="80" t="str">
+      <c r="D26" s="79" t="str">
         <f aca="false">IF(B26&gt;4,"Corrixir!",IF(B26&lt;1,"Corrixir!"," "))</f>
         <v> </v>
       </c>
-      <c r="E26" s="81" t="s">
+      <c r="E26" s="80" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="84" t="s">
+      <c r="A27" s="83" t="s">
         <v>127</v>
       </c>
-      <c r="B27" s="85" t="n">
+      <c r="B27" s="84" t="n">
         <f aca="false">SUM(B28:B32)</f>
         <v>11</v>
       </c>
-      <c r="C27" s="86" t="n">
+      <c r="C27" s="85" t="n">
         <f aca="false">(B27/5)/100</f>
         <v>0.022</v>
       </c>
-      <c r="D27" s="80"/>
-      <c r="E27" s="81"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="80"/>
     </row>
     <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="77" t="s">
+      <c r="A28" s="76" t="s">
         <v>128</v>
       </c>
-      <c r="B28" s="73" t="n">
+      <c r="B28" s="72" t="n">
         <v>1</v>
       </c>
-      <c r="C28" s="74" t="str">
+      <c r="C28" s="73" t="str">
         <f aca="false">IF(B28&gt;2,"OPORTUNIDADE - O","AMEAZA - A")</f>
         <v>AMEAZA - A</v>
       </c>
-      <c r="D28" s="80" t="str">
+      <c r="D28" s="79" t="str">
         <f aca="false">IF(B28&gt;4,"Corrixir!",IF(B28&lt;1,"Corrixir!"," "))</f>
         <v> </v>
       </c>
-      <c r="E28" s="81" t="s">
+      <c r="E28" s="80" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="77" t="s">
+      <c r="A29" s="76" t="s">
         <v>130</v>
       </c>
-      <c r="B29" s="78" t="n">
+      <c r="B29" s="77" t="n">
         <v>3</v>
       </c>
-      <c r="C29" s="79" t="str">
+      <c r="C29" s="78" t="str">
         <f aca="false">IF(B29&gt;2,"OPORTUNIDADE - O","AMEAZA - A")</f>
         <v>OPORTUNIDADE - O</v>
       </c>
-      <c r="D29" s="80" t="str">
+      <c r="D29" s="79" t="str">
         <f aca="false">IF(B29&gt;4,"Corrixir!",IF(B29&lt;1,"Corrixir!"," "))</f>
         <v> </v>
       </c>
-      <c r="E29" s="81" t="s">
+      <c r="E29" s="80" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="77" t="s">
+      <c r="A30" s="76" t="s">
         <v>132</v>
       </c>
-      <c r="B30" s="78" t="n">
+      <c r="B30" s="77" t="n">
         <v>4</v>
       </c>
-      <c r="C30" s="79" t="str">
+      <c r="C30" s="78" t="str">
         <f aca="false">IF(B30&gt;2,"OPORTUNIDADE - O","AMEAZA - A")</f>
         <v>OPORTUNIDADE - O</v>
       </c>
-      <c r="D30" s="80" t="str">
+      <c r="D30" s="79" t="str">
         <f aca="false">IF(B30&gt;4,"Corrixir!",IF(B30&lt;1,"Corrixir!"," "))</f>
         <v> </v>
       </c>
-      <c r="E30" s="81" t="s">
+      <c r="E30" s="80" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="77" t="s">
+      <c r="A31" s="76" t="s">
         <v>134</v>
       </c>
-      <c r="B31" s="78" t="n">
+      <c r="B31" s="77" t="n">
         <v>2</v>
       </c>
-      <c r="C31" s="79" t="str">
+      <c r="C31" s="78" t="str">
         <f aca="false">IF(B31&gt;2,"OPORTUNIDADE - O","AMEAZA - A")</f>
         <v>AMEAZA - A</v>
       </c>
-      <c r="D31" s="80" t="str">
+      <c r="D31" s="79" t="str">
         <f aca="false">IF(B31&gt;4,"Corrixir!",IF(B31&lt;1,"Corrixir!"," "))</f>
         <v> </v>
       </c>
-      <c r="E31" s="81" t="s">
+      <c r="E31" s="80" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="82" t="s">
+      <c r="A32" s="81" t="s">
         <v>136</v>
       </c>
-      <c r="B32" s="78" t="n">
+      <c r="B32" s="77" t="n">
         <v>1</v>
       </c>
-      <c r="C32" s="88" t="str">
+      <c r="C32" s="87" t="str">
         <f aca="false">IF(B32&gt;2,"OPORTUNIDADE - O","AMEAZA - A")</f>
         <v>AMEAZA - A</v>
       </c>
-      <c r="D32" s="80" t="str">
+      <c r="D32" s="79" t="str">
         <f aca="false">IF(B32&gt;4,"Corrixir!",IF(B32&lt;1,"Corrixir!"," "))</f>
         <v> </v>
       </c>
-      <c r="E32" s="81" t="s">
+      <c r="E32" s="80" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="84" t="s">
+      <c r="A33" s="83" t="s">
         <v>138</v>
       </c>
-      <c r="B33" s="85" t="n">
+      <c r="B33" s="84" t="n">
         <f aca="false">SUM(B34:B35)</f>
         <v>6</v>
       </c>
-      <c r="C33" s="86" t="n">
+      <c r="C33" s="85" t="n">
         <f aca="false">(B33/2)/100</f>
         <v>0.03</v>
       </c>
-      <c r="D33" s="87"/>
-      <c r="E33" s="81"/>
+      <c r="D33" s="86"/>
+      <c r="E33" s="80"/>
     </row>
     <row r="34" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="77" t="s">
+      <c r="A34" s="76" t="s">
         <v>139</v>
       </c>
-      <c r="B34" s="73" t="n">
+      <c r="B34" s="72" t="n">
         <v>3</v>
       </c>
-      <c r="C34" s="79" t="str">
+      <c r="C34" s="78" t="str">
         <f aca="false">IF(B34&gt;2,"OPORTUNIDADE - O","AMEAZA - A")</f>
         <v>OPORTUNIDADE - O</v>
       </c>
-      <c r="D34" s="80" t="str">
+      <c r="D34" s="79" t="str">
         <f aca="false">IF(B34&gt;4,"Corrixir!",IF(B34&lt;1,"Corrixir!"," "))</f>
         <v> </v>
       </c>
-      <c r="E34" s="81" t="s">
+      <c r="E34" s="80" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="89" t="s">
+      <c r="A35" s="88" t="s">
         <v>141</v>
       </c>
-      <c r="B35" s="90" t="n">
+      <c r="B35" s="89" t="n">
         <v>3</v>
       </c>
-      <c r="C35" s="91" t="str">
+      <c r="C35" s="90" t="str">
         <f aca="false">IF(B35&gt;2,"OPORTUNIDADE - O","AMEAZA - A")</f>
         <v>OPORTUNIDADE - O</v>
       </c>
-      <c r="D35" s="92" t="str">
+      <c r="D35" s="91" t="str">
         <f aca="false">IF(B35&gt;4,"Corrixir!",IF(B35&lt;1,"Corrixir!"," "))</f>
         <v> </v>
       </c>
-      <c r="E35" s="93" t="s">
+      <c r="E35" s="92" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="37" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="38" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="94" t="s">
+      <c r="A38" s="93" t="s">
         <v>143</v>
       </c>
-      <c r="B38" s="95" t="n">
+      <c r="B38" s="94" t="n">
         <f aca="false">COUNTIF(B6:B21,1)+COUNTIF(B23:B26,1)+COUNTIF(B28:B32,1)+COUNTIF(B34:B35,1)</f>
         <v>6</v>
       </c>
-      <c r="C38" s="96" t="n">
+      <c r="C38" s="95" t="n">
         <f aca="false">B38*1</f>
         <v>6</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="97" t="s">
+      <c r="A39" s="96" t="s">
         <v>144</v>
       </c>
-      <c r="B39" s="98" t="n">
+      <c r="B39" s="97" t="n">
         <f aca="false">COUNTIF(B6:B21,2)+COUNTIF(B23:B26,2)+COUNTIF(B28:B32,2)+COUNTIF(B34:B35,2)</f>
         <v>5</v>
       </c>
-      <c r="C39" s="99" t="n">
+      <c r="C39" s="98" t="n">
         <f aca="false">B39*2</f>
         <v>10</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="97" t="s">
+      <c r="A40" s="96" t="s">
         <v>145</v>
       </c>
-      <c r="B40" s="98" t="n">
+      <c r="B40" s="97" t="n">
         <f aca="false">COUNTIF(B6:B21,3)+COUNTIF(B23:B26,3)+COUNTIF(B28:B32,3)+COUNTIF(B34:B35,3)</f>
         <v>5</v>
       </c>
-      <c r="C40" s="99" t="n">
+      <c r="C40" s="98" t="n">
         <f aca="false">B40*3</f>
         <v>15</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="100" t="s">
+      <c r="A41" s="99" t="s">
         <v>146</v>
       </c>
-      <c r="B41" s="101" t="n">
+      <c r="B41" s="100" t="n">
         <f aca="false">COUNTIF(B6:B21,4)+COUNTIF(B23:B26,4)+COUNTIF(B28:B32,4)+COUNTIF(B34:B35,4)</f>
         <v>9</v>
       </c>
-      <c r="C41" s="102" t="n">
+      <c r="C41" s="101" t="n">
         <f aca="false">B41*4</f>
         <v>36</v>
       </c>
@@ -5051,7 +5007,7 @@
       <c r="B42" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="C42" s="103" t="n">
+      <c r="C42" s="102" t="n">
         <f aca="false">SUM(C38:C41)</f>
         <v>67</v>
       </c>
@@ -5060,14 +5016,14 @@
       <c r="B43" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="C43" s="104" t="n">
+      <c r="C43" s="103" t="n">
         <f aca="false">C42/25</f>
         <v>2.68</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="45" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="105" t="str">
+      <c r="A45" s="104" t="str">
         <f aca="false">IF(C43=1,"MERCADO NADA ATRACTIVO",IF(C43&lt;2,"MERCADO POUCO ATRACTIVO",IF(C43&lt;3,"MERCADO CUN ATRACTIVO MEDIO","MERCADO CUN ATRACTIVO ALTO")))</f>
         <v>MERCADO CUN ATRACTIVO MEDIO</v>
       </c>
@@ -5075,28 +5031,28 @@
   </sheetData>
   <sheetProtection sheet="true" password="946e" selectLockedCells="true"/>
   <conditionalFormatting sqref="A45">
-    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>$C$43=1</formula>
     </cfRule>
-    <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>$C$43&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+    <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>$C$43&lt;3</formula>
     </cfRule>
-    <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+    <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>$C$43&gt;3</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B7:B13 B15:B21 B23:B26 B28:B32 B34:B35" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B7:B13 B15:B21 B23:B26 B28:B32 B34:B35" type="list">
       <formula1>$H$1:$K$1</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.8" right="0.329861111111111" top="0.8" bottom="0.770138888888889" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.8" right="0.329861111111111" top="0.8" bottom="0.770138888888889" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -5105,716 +5061,716 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3359375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="106" width="10.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="106" width="60.67"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="4" style="106" width="11.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="105" width="10.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="105" width="60.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="105" width="11.33"/>
   </cols>
   <sheetData>
-    <row r="1" s="107" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="107" t="s">
+    <row r="1" s="106" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="106" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="108" t="s">
+      <c r="B3" s="107" t="s">
         <v>150</v>
       </c>
-      <c r="C3" s="108" t="s">
+      <c r="C3" s="107" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="109" t="n">
+      <c r="A4" s="108" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="110" t="str">
+      <c r="B4" s="109" t="str">
         <f aca="false">IF('Habilidades directivas'!B5&lt;4,"O/a promotor/a non posúe iniciativa"," ")</f>
         <v> </v>
       </c>
-      <c r="C4" s="110" t="str">
+      <c r="C4" s="109" t="str">
         <f aca="false">IF('Habilidades directivas'!B5&gt;6,"O/a promotor/a posúe iniciativa"," ")</f>
         <v>O/a promotor/a posúe iniciativa</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="111" t="n">
+      <c r="A5" s="110" t="n">
         <f aca="false">A4+1</f>
         <v>2</v>
       </c>
-      <c r="B5" s="112" t="str">
+      <c r="B5" s="111" t="str">
         <f aca="false">IF('Habilidades directivas'!B6&lt;4,"O/a promotor/a non posúe dispoñibilidade"," ")</f>
         <v> </v>
       </c>
-      <c r="C5" s="112" t="str">
+      <c r="C5" s="111" t="str">
         <f aca="false">IF('Habilidades directivas'!B6&gt;6,"O/a promotor/a posúe dispoñibilidade"," ")</f>
         <v>O/a promotor/a posúe dispoñibilidade</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="111" t="n">
+      <c r="A6" s="110" t="n">
         <f aca="false">A5+1</f>
         <v>3</v>
       </c>
-      <c r="B6" s="112" t="str">
+      <c r="B6" s="111" t="str">
         <f aca="false">IF('Habilidades directivas'!B7&lt;4,"O/a promotor/a non supera o desánimo"," ")</f>
         <v> </v>
       </c>
-      <c r="C6" s="112" t="str">
+      <c r="C6" s="111" t="str">
         <f aca="false">IF('Habilidades directivas'!B7&gt;6,"O/a promotor/a supera o desánimo"," ")</f>
         <v>O/a promotor/a supera o desánimo</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="111" t="n">
+      <c r="A7" s="110" t="n">
         <f aca="false">A6+1</f>
         <v>4</v>
       </c>
-      <c r="B7" s="112" t="str">
+      <c r="B7" s="111" t="str">
         <f aca="false">IF('Habilidades directivas'!B8&lt;4,"O/a promotor/a non posúe afán polo traballo ben feito"," ")</f>
         <v> </v>
       </c>
-      <c r="C7" s="112" t="str">
+      <c r="C7" s="111" t="str">
         <f aca="false">IF('Habilidades directivas'!B8&gt;6,"O/a promotor/a posúe afán polo traballo ben feito"," ")</f>
         <v>O/a promotor/a posúe afán polo traballo ben feito</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="111" t="n">
+      <c r="A8" s="110" t="n">
         <f aca="false">A7+1</f>
         <v>5</v>
       </c>
-      <c r="B8" s="112" t="str">
+      <c r="B8" s="111" t="str">
         <f aca="false">IF('Habilidades directivas'!B9&lt;4,"O/a promotor/a non posúe gusto pola competencia"," ")</f>
         <v> </v>
       </c>
-      <c r="C8" s="112" t="str">
+      <c r="C8" s="111" t="str">
         <f aca="false">IF('Habilidades directivas'!B9&gt;6,"O/a promotor/a posúe gusto pola competencia"," ")</f>
         <v> </v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="111" t="n">
+      <c r="A9" s="110" t="n">
         <f aca="false">A8+1</f>
         <v>6</v>
       </c>
-      <c r="B9" s="112" t="str">
+      <c r="B9" s="111" t="str">
         <f aca="false">IF('Habilidades directivas'!B10&lt;4,"O/a promotor/a non asume riscos controlados"," ")</f>
         <v> </v>
       </c>
-      <c r="C9" s="112" t="str">
+      <c r="C9" s="111" t="str">
         <f aca="false">IF('Habilidades directivas'!B10&gt;6,"O/a promotor/a asume riscos controlados"," ")</f>
         <v> </v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="111" t="n">
+      <c r="A10" s="110" t="n">
         <f aca="false">A9+1</f>
         <v>7</v>
       </c>
-      <c r="B10" s="112" t="str">
+      <c r="B10" s="111" t="str">
         <f aca="false">IF('Habilidades directivas'!B11&lt;4,"O/a promotor/a non toma de decisións de maneira meditada"," ")</f>
         <v> </v>
       </c>
-      <c r="C10" s="112" t="str">
+      <c r="C10" s="111" t="str">
         <f aca="false">IF('Habilidades directivas'!B11&gt;6,"O/a promotor/a toma de decisións de maneira meditada"," ")</f>
         <v>O/a promotor/a toma de decisións de maneira meditada</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="111" t="n">
+      <c r="A11" s="110" t="n">
         <f aca="false">A10+1</f>
         <v>8</v>
       </c>
-      <c r="B11" s="112" t="str">
+      <c r="B11" s="111" t="str">
         <f aca="false">IF('Habilidades directivas'!B12&lt;4,"O/a promotor/a non soporta a incerteza e a tensión"," ")</f>
         <v>O/a promotor/a non soporta a incerteza e a tensión</v>
       </c>
-      <c r="C11" s="112" t="str">
+      <c r="C11" s="111" t="str">
         <f aca="false">IF('Habilidades directivas'!B12&gt;6,"O/a promotor/a soporta a incerteza e a tensión"," ")</f>
         <v> </v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="111" t="n">
+      <c r="A12" s="110" t="n">
         <f aca="false">A11+1</f>
         <v>9</v>
       </c>
-      <c r="B12" s="112" t="str">
+      <c r="B12" s="111" t="str">
         <f aca="false">IF('Habilidades directivas'!B13&lt;4,"O/a promotor/a non finaliza os traballos que emprende"," ")</f>
         <v> </v>
       </c>
-      <c r="C12" s="112" t="str">
+      <c r="C12" s="111" t="str">
         <f aca="false">IF('Habilidades directivas'!B13&gt;6,"O/a promotor/a finaliza os traballos que emprende"," ")</f>
         <v>O/a promotor/a finaliza os traballos que emprende</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="111" t="n">
+      <c r="A13" s="110" t="n">
         <f aca="false">A12+1</f>
         <v>10</v>
       </c>
-      <c r="B13" s="112" t="str">
+      <c r="B13" s="111" t="str">
         <f aca="false">IF('Habilidades directivas'!B14&lt;4,"O/a promotor/a non posúe mentalidade aberta"," ")</f>
         <v> </v>
       </c>
-      <c r="C13" s="112" t="str">
+      <c r="C13" s="111" t="str">
         <f aca="false">IF('Habilidades directivas'!B14&gt;6,"O/a promotor/a posúe unha mentalidade aberta"," ")</f>
         <v>O/a promotor/a posúe unha mentalidade aberta</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="111" t="n">
+      <c r="A14" s="110" t="n">
         <f aca="false">A13+1</f>
         <v>11</v>
       </c>
-      <c r="B14" s="112" t="str">
+      <c r="B14" s="111" t="str">
         <f aca="false">IF('Habilidades directivas'!B15&lt;4,"O/a promotor/a non sabe planificar"," ")</f>
         <v> </v>
       </c>
-      <c r="C14" s="112" t="str">
+      <c r="C14" s="111" t="str">
         <f aca="false">IF('Habilidades directivas'!B15&gt;6,"O/a promotor/a sabe planificar"," ")</f>
         <v> </v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="111" t="n">
+      <c r="A15" s="110" t="n">
         <f aca="false">A14+1</f>
         <v>12</v>
       </c>
-      <c r="B15" s="112" t="str">
+      <c r="B15" s="111" t="str">
         <f aca="false">IF('Habilidades directivas'!B16&lt;4,"O/a promotor/a non sabe organizarse"," ")</f>
         <v> </v>
       </c>
-      <c r="C15" s="112" t="str">
+      <c r="C15" s="111" t="str">
         <f aca="false">IF('Habilidades directivas'!B16&gt;6,"O/a promotor/a sabe organizarse"," ")</f>
         <v> </v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="111" t="n">
+      <c r="A16" s="110" t="n">
         <f aca="false">A15+1</f>
         <v>13</v>
       </c>
-      <c r="B16" s="112" t="str">
+      <c r="B16" s="111" t="str">
         <f aca="false">IF('Habilidades directivas'!B17&lt;4,"O/a promotor/a non posúe capacidade de adaptación"," ")</f>
         <v> </v>
       </c>
-      <c r="C16" s="112" t="str">
+      <c r="C16" s="111" t="str">
         <f aca="false">IF('Habilidades directivas'!B17&gt;6,"O/a promotor/a posúe capacidade de adaptación"," ")</f>
         <v>O/a promotor/a posúe capacidade de adaptación</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="111" t="n">
+      <c r="A17" s="110" t="n">
         <f aca="false">A16+1</f>
         <v>14</v>
       </c>
-      <c r="B17" s="112" t="str">
+      <c r="B17" s="111" t="str">
         <f aca="false">IF('Habilidades directivas'!B18&lt;4,"O/a promotor/a non é tolerante"," ")</f>
         <v> </v>
       </c>
-      <c r="C17" s="112" t="str">
+      <c r="C17" s="111" t="str">
         <f aca="false">IF('Habilidades directivas'!B18&gt;6,"O/a promotor/a é tolerante"," ")</f>
         <v>O/a promotor/a é tolerante</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="111" t="n">
+      <c r="A18" s="110" t="n">
         <f aca="false">A17+1</f>
         <v>15</v>
       </c>
-      <c r="B18" s="112" t="str">
+      <c r="B18" s="111" t="str">
         <f aca="false">IF('Habilidades directivas'!B19&lt;4,"O/a promotor/a non sabe vender as súas ideas"," ")</f>
         <v> </v>
       </c>
-      <c r="C18" s="112" t="str">
+      <c r="C18" s="111" t="str">
         <f aca="false">IF('Habilidades directivas'!B19&gt;6,"O/a promotor/a sabe vender as súas ideas"," ")</f>
         <v>O/a promotor/a sabe vender as súas ideas</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="111" t="n">
+      <c r="A19" s="110" t="n">
         <f aca="false">A18+1</f>
         <v>16</v>
       </c>
-      <c r="B19" s="112" t="str">
+      <c r="B19" s="111" t="str">
         <f aca="false">IF('Habilidades directivas'!B20&lt;4,"O/a promotor/a non sabe negociar"," ")</f>
         <v> </v>
       </c>
-      <c r="C19" s="112" t="str">
+      <c r="C19" s="111" t="str">
         <f aca="false">IF('Habilidades directivas'!B20&gt;6,"O/a promotor/a sabe negociar"," ")</f>
         <v>O/a promotor/a sabe negociar</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="111" t="n">
+      <c r="A20" s="110" t="n">
         <f aca="false">A19+1</f>
         <v>17</v>
       </c>
-      <c r="B20" s="112" t="str">
+      <c r="B20" s="111" t="str">
         <f aca="false">IF('Habilidades directivas'!B21&lt;4,"O/a promotor/a non é perseverante"," ")</f>
         <v> </v>
       </c>
-      <c r="C20" s="112" t="str">
+      <c r="C20" s="111" t="str">
         <f aca="false">IF('Habilidades directivas'!B21&gt;6,"O/a promotor/a é perseverante"," ")</f>
         <v>O/a promotor/a é perseverante</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="111" t="n">
+      <c r="A21" s="110" t="n">
         <f aca="false">A20+1</f>
         <v>18</v>
       </c>
-      <c r="B21" s="112" t="str">
+      <c r="B21" s="111" t="str">
         <f aca="false">IF('Habilidades directivas'!B22&lt;4,"O/a promotor/a non é optimista"," ")</f>
         <v> </v>
       </c>
-      <c r="C21" s="112" t="str">
+      <c r="C21" s="111" t="str">
         <f aca="false">IF('Habilidades directivas'!B22&gt;6,"O/a promotor/a é optimista"," ")</f>
         <v>O/a promotor/a é optimista</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="111" t="n">
+      <c r="A22" s="110" t="n">
         <f aca="false">A21+1</f>
         <v>19</v>
       </c>
-      <c r="B22" s="112" t="str">
+      <c r="B22" s="111" t="str">
         <f aca="false">IF('Habilidades directivas'!B23&lt;4,"O/a promotor/a non posúe confianza e coñecemento en si propio"," ")</f>
         <v> </v>
       </c>
-      <c r="C22" s="112" t="str">
+      <c r="C22" s="111" t="str">
         <f aca="false">IF('Habilidades directivas'!B23&gt;6,"O/a promotor/a posúe confianza e coñecemento en si propio"," ")</f>
         <v>O/a promotor/a posúe confianza e coñecemento en si propio</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="111" t="n">
+      <c r="A23" s="110" t="n">
         <f aca="false">A22+1</f>
         <v>20</v>
       </c>
-      <c r="B23" s="112" t="str">
+      <c r="B23" s="111" t="str">
         <f aca="false">IF('Habilidades directivas'!B24&lt;4,"O/a promotor/a non posúe facilidade para xerar novos contactos"," ")</f>
         <v> </v>
       </c>
-      <c r="C23" s="112" t="str">
+      <c r="C23" s="111" t="str">
         <f aca="false">IF('Habilidades directivas'!B24&gt;6,"O/a promotor/a posúe facilidade para xerar novos contactos"," ")</f>
         <v>O/a promotor/a posúe facilidade para xerar novos contactos</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="111" t="n">
+      <c r="A24" s="110" t="n">
         <f aca="false">A23+1</f>
         <v>21</v>
       </c>
-      <c r="B24" s="112" t="str">
+      <c r="B24" s="111" t="str">
         <f aca="false">IF('Habilidades directivas'!B25&lt;4,"O/a promotor/a non posúe espírito independente"," ")</f>
         <v> </v>
       </c>
-      <c r="C24" s="112" t="str">
+      <c r="C24" s="111" t="str">
         <f aca="false">IF('Habilidades directivas'!B25&gt;6,"O/a promotor/a posúe espírito independente"," ")</f>
         <v>O/a promotor/a posúe espírito independente</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="111" t="n">
+      <c r="A25" s="110" t="n">
         <f aca="false">A24+1</f>
         <v>22</v>
       </c>
-      <c r="B25" s="112" t="str">
+      <c r="B25" s="111" t="str">
         <f aca="false">IF('Habilidades directivas'!B26&lt;4,"O/a promotor/a non posúe gusto polo triunfo"," ")</f>
         <v> </v>
       </c>
-      <c r="C25" s="112" t="str">
+      <c r="C25" s="111" t="str">
         <f aca="false">IF('Habilidades directivas'!B26&gt;6,"O/a promotor/a posúe gusto polo triunfo"," ")</f>
         <v>O/a promotor/a posúe gusto polo triunfo</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="113" t="n">
+      <c r="A26" s="112" t="n">
         <f aca="false">A25+1</f>
         <v>23</v>
       </c>
-      <c r="B26" s="114" t="str">
+      <c r="B26" s="113" t="str">
         <f aca="false">IF('Habilidades directivas'!B27&lt;4,"O/a promotor/a non sabe solucionar conflitos"," ")</f>
         <v> </v>
       </c>
-      <c r="C26" s="114" t="str">
+      <c r="C26" s="113" t="str">
         <f aca="false">IF('Habilidades directivas'!B27&gt;6,"O/a promotor/a sabe solucionar conflitos"," ")</f>
         <v>O/a promotor/a sabe solucionar conflitos</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="108" t="s">
+      <c r="A27" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="108" t="s">
+      <c r="B27" s="107" t="s">
         <v>152</v>
       </c>
-      <c r="C27" s="108" t="s">
+      <c r="C27" s="107" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="109" t="n">
+      <c r="A28" s="108" t="n">
         <v>1</v>
       </c>
-      <c r="B28" s="110" t="str">
+      <c r="B28" s="109" t="str">
         <f aca="false">IF('Valorización da contorna'!B7&lt;3,"Perspectivas de crecemento para a concorrencia"," ")</f>
         <v> </v>
       </c>
-      <c r="C28" s="110" t="str">
+      <c r="C28" s="109" t="str">
         <f aca="false">IF('Valorización da contorna'!B7&gt;2,"Boas perspectivas de crecemento"," ")</f>
         <v>Boas perspectivas de crecemento</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="111" t="n">
+      <c r="A29" s="110" t="n">
         <f aca="false">A28+1</f>
         <v>2</v>
       </c>
-      <c r="B29" s="112" t="str">
+      <c r="B29" s="111" t="str">
         <f aca="false">IF('Valorización da contorna'!B8&lt;3,"Moitos competidores"," ")</f>
         <v> </v>
       </c>
-      <c r="C29" s="115" t="str">
+      <c r="C29" s="114" t="str">
         <f aca="false">IF('Valorización da contorna'!B8&gt;2,"Poucos competidores"," ")</f>
         <v>Poucos competidores</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="111" t="n">
+      <c r="A30" s="110" t="n">
         <f aca="false">A29+1</f>
         <v>3</v>
       </c>
-      <c r="B30" s="112" t="str">
+      <c r="B30" s="111" t="str">
         <f aca="false">IF('Valorización da contorna'!B9&lt;3,"Activos pouco accesíbeis economicamente"," ")</f>
         <v> </v>
       </c>
-      <c r="C30" s="115" t="str">
+      <c r="C30" s="114" t="str">
         <f aca="false">IF('Valorización da contorna'!B9&gt;2,"Compra accesíbel de activos"," ")</f>
         <v>Compra accesíbel de activos</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="111" t="n">
+      <c r="A31" s="110" t="n">
         <f aca="false">A30+1</f>
         <v>4</v>
       </c>
-      <c r="B31" s="112" t="str">
+      <c r="B31" s="111" t="str">
         <f aca="false">IF('Valorización da contorna'!B10&lt;3,"Capacidade de produción con excedentes"," ")</f>
         <v> </v>
       </c>
-      <c r="C31" s="115" t="str">
+      <c r="C31" s="114" t="str">
         <f aca="false">IF('Valorización da contorna'!B10&gt;2,"Capacidade de produción sen excedentes"," ")</f>
         <v>Capacidade de produción sen excedentes</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="111" t="n">
+      <c r="A32" s="110" t="n">
         <f aca="false">A31+1</f>
         <v>5</v>
       </c>
-      <c r="B32" s="112" t="str">
+      <c r="B32" s="111" t="str">
         <f aca="false">IF('Valorización da contorna'!B11&lt;3,"Rendibilidade media do sector grande"," ")</f>
         <v>Rendibilidade media do sector grande</v>
       </c>
-      <c r="C32" s="115" t="str">
+      <c r="C32" s="114" t="str">
         <f aca="false">IF('Valorización da contorna'!B11&gt;2,"Rendibilidade media do sector reducida"," ")</f>
         <v> </v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="111" t="n">
+      <c r="A33" s="110" t="n">
         <f aca="false">A32+1</f>
         <v>6</v>
       </c>
-      <c r="B33" s="112" t="str">
+      <c r="B33" s="111" t="str">
         <f aca="false">IF('Valorización da contorna'!B12&lt;3,"Baixa diferenciación de produtos"," ")</f>
         <v>Baixa diferenciación de produtos</v>
       </c>
-      <c r="C33" s="115" t="str">
+      <c r="C33" s="114" t="str">
         <f aca="false">IF('Valorización da contorna'!B12&gt;2,"Alta diferenciación de produtos"," ")</f>
         <v> </v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="111" t="n">
+      <c r="A34" s="110" t="n">
         <f aca="false">A33+1</f>
         <v>7</v>
       </c>
-      <c r="B34" s="112" t="str">
+      <c r="B34" s="111" t="str">
         <f aca="false">IF('Valorización da contorna'!B13&lt;3,"Non existen barreiras de saída no sector"," ")</f>
         <v>Non existen barreiras de saída no sector</v>
       </c>
-      <c r="C34" s="115" t="str">
+      <c r="C34" s="114" t="str">
         <f aca="false">IF('Valorización da contorna'!B13&gt;2,"Existen barreiras de saída no sector"," ")</f>
         <v> </v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="111" t="n">
+      <c r="A35" s="110" t="n">
         <f aca="false">A34+1</f>
         <v>8</v>
       </c>
-      <c r="B35" s="112" t="str">
+      <c r="B35" s="111" t="str">
         <f aca="false">IF('Valorización da contorna'!B15&lt;3,"Non son apreciadas economías de escala"," ")</f>
         <v> </v>
       </c>
-      <c r="C35" s="115" t="str">
+      <c r="C35" s="114" t="str">
         <f aca="false">IF('Valorización da contorna'!B15&gt;2,"Son apreciadas grandes economías de escala"," ")</f>
         <v>Son apreciadas grandes economías de escala</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="111" t="n">
+      <c r="A36" s="110" t="n">
         <f aca="false">A35+1</f>
         <v>9</v>
       </c>
-      <c r="B36" s="112" t="str">
+      <c r="B36" s="111" t="str">
         <f aca="false">IF('Valorización da contorna'!B16&lt;3,"Facilidade no acceso ás canles de distribución"," ")</f>
         <v> </v>
       </c>
-      <c r="C36" s="115" t="str">
+      <c r="C36" s="114" t="str">
         <f aca="false">IF('Valorización da contorna'!B16&gt;2,"Dificultade de acceso ás canles de distribución"," ")</f>
         <v>Dificultade de acceso ás canles de distribución</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="111" t="n">
+      <c r="A37" s="110" t="n">
         <f aca="false">A36+1</f>
         <v>10</v>
       </c>
-      <c r="B37" s="112" t="str">
+      <c r="B37" s="111" t="str">
         <f aca="false">IF('Valorización da contorna'!B17&lt;3,"Reducidas necesidades de capital"," ")</f>
         <v>Reducidas necesidades de capital</v>
       </c>
-      <c r="C37" s="115" t="str">
+      <c r="C37" s="114" t="str">
         <f aca="false">IF('Valorización da contorna'!B17&gt;2,"Grandes necesidades de capital"," ")</f>
         <v> </v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="111" t="n">
+      <c r="A38" s="110" t="n">
         <f aca="false">A37+1</f>
         <v>11</v>
       </c>
-      <c r="B38" s="112" t="str">
+      <c r="B38" s="111" t="str">
         <f aca="false">IF('Valorización da contorna'!B18&lt;3,"Fácil acceso á tecnoloxía"," ")</f>
         <v>Fácil acceso á tecnoloxía</v>
       </c>
-      <c r="C38" s="115" t="str">
+      <c r="C38" s="114" t="str">
         <f aca="false">IF('Valorización da contorna'!B18&gt;2,"Difícil acceso á tecnoloxía"," ")</f>
         <v> </v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="111" t="n">
+      <c r="A39" s="110" t="n">
         <f aca="false">A38+1</f>
         <v>12</v>
       </c>
-      <c r="B39" s="112" t="str">
+      <c r="B39" s="111" t="str">
         <f aca="false">IF('Valorización da contorna'!B19&lt;3,"Non existe normativa que dificulta a produción"," ")</f>
         <v>Non existe normativa que dificulta a produción</v>
       </c>
-      <c r="C39" s="115" t="str">
+      <c r="C39" s="114" t="str">
         <f aca="false">IF('Valorización da contorna'!B19&gt;2,"Existe normativa que dificulta a produción"," ")</f>
         <v> </v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="111" t="n">
+      <c r="A40" s="110" t="n">
         <f aca="false">A39+1</f>
         <v>13</v>
       </c>
-      <c r="B40" s="112" t="str">
+      <c r="B40" s="111" t="str">
         <f aca="false">IF('Valorización da contorna'!B20&lt;3,"Facilidade na tramitación burocrática"," ")</f>
         <v>Facilidade na tramitación burocrática</v>
       </c>
-      <c r="C40" s="115" t="str">
+      <c r="C40" s="114" t="str">
         <f aca="false">IF('Valorización da contorna'!B20&gt;2,"Dificultade na tramitación burocrática"," ")</f>
         <v> </v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="111" t="n">
+      <c r="A41" s="110" t="n">
         <f aca="false">A40+1</f>
         <v>14</v>
       </c>
-      <c r="B41" s="112" t="str">
+      <c r="B41" s="111" t="str">
         <f aca="false">IF('Valorización da contorna'!B21&lt;3,"Os competidores reaccionan rapidamente"," ")</f>
         <v> </v>
       </c>
-      <c r="C41" s="115" t="str">
+      <c r="C41" s="114" t="str">
         <f aca="false">IF('Valorización da contorna'!B21&gt;2,"Escasa reacción dos competidores"," ")</f>
         <v>Escasa reacción dos competidores</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="111" t="n">
+      <c r="A42" s="110" t="n">
         <f aca="false">A41+1</f>
         <v>15</v>
       </c>
-      <c r="B42" s="112" t="str">
+      <c r="B42" s="111" t="str">
         <f aca="false">IF('Valorización da contorna'!B23&lt;3,"Reducido número de fornecedores no sector"," ")</f>
         <v> </v>
       </c>
-      <c r="C42" s="115" t="str">
+      <c r="C42" s="114" t="str">
         <f aca="false">IF('Valorización da contorna'!B23&gt;2,"Elevado número de fornecedores no sector"," ")</f>
         <v>Elevado número de fornecedores no sector</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="111" t="n">
+      <c r="A43" s="110" t="n">
         <f aca="false">A42+1</f>
         <v>16</v>
       </c>
-      <c r="B43" s="112" t="str">
+      <c r="B43" s="111" t="str">
         <f aca="false">IF('Valorización da contorna'!B24&lt;3,"A mudanza de fornecedor carreta grandes custos"," ")</f>
         <v> </v>
       </c>
-      <c r="C43" s="115" t="str">
+      <c r="C43" s="114" t="str">
         <f aca="false">IF('Valorización da contorna'!B24&gt;2,"A mudanza de fornecedor non carreta grandes custos"," ")</f>
         <v>A mudanza de fornecedor non carreta grandes custos</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="111" t="n">
+      <c r="A44" s="110" t="n">
         <f aca="false">A43+1</f>
         <v>17</v>
       </c>
-      <c r="B44" s="112" t="str">
+      <c r="B44" s="111" t="str">
         <f aca="false">IF('Valorización da contorna'!B25&lt;3,"É fácil unha integración para adiante"," ")</f>
         <v> </v>
       </c>
-      <c r="C44" s="115" t="str">
+      <c r="C44" s="114" t="str">
         <f aca="false">IF('Valorización da contorna'!B25&gt;2,"A integración para adiante non é factíbel"," ")</f>
         <v>A integración para adiante non é factíbel</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="111" t="n">
+      <c r="A45" s="110" t="n">
         <f aca="false">A44+1</f>
         <v>18</v>
       </c>
-      <c r="B45" s="112" t="str">
+      <c r="B45" s="111" t="str">
         <f aca="false">IF('Valorización da contorna'!B26&lt;3,"Pouca importancia do sector para os fornecedores"," ")</f>
         <v>Pouca importancia do sector para os fornecedores</v>
       </c>
-      <c r="C45" s="115" t="str">
+      <c r="C45" s="114" t="str">
         <f aca="false">IF('Valorización da contorna'!B26&gt;2,"Os fornecedores dan importancia ao sector"," ")</f>
         <v> </v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="111" t="n">
+      <c r="A46" s="110" t="n">
         <f aca="false">A45+1</f>
         <v>19</v>
       </c>
-      <c r="B46" s="112" t="str">
+      <c r="B46" s="111" t="str">
         <f aca="false">IF('Valorización da contorna'!B28&lt;3,"Poucos clientes aos que atender"," ")</f>
         <v>Poucos clientes aos que atender</v>
       </c>
-      <c r="C46" s="115" t="str">
+      <c r="C46" s="114" t="str">
         <f aca="false">IF('Valorización da contorna'!B28&gt;2,"Elevado número de clientes aos que atender"," ")</f>
         <v> </v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="111" t="n">
+      <c r="A47" s="110" t="n">
         <f aca="false">A46+1</f>
         <v>20</v>
       </c>
-      <c r="B47" s="112" t="str">
+      <c r="B47" s="111" t="str">
         <f aca="false">IF('Valorización da contorna'!B29&lt;3,"Fácil integración para atrás"," ")</f>
         <v> </v>
       </c>
-      <c r="C47" s="115" t="str">
+      <c r="C47" s="114" t="str">
         <f aca="false">IF('Valorización da contorna'!B29&gt;2,"Difícil integración para atrás"," ")</f>
         <v>Difícil integración para atrás</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="111" t="n">
+      <c r="A48" s="110" t="n">
         <f aca="false">A47+1</f>
         <v>21</v>
       </c>
-      <c r="B48" s="112" t="str">
+      <c r="B48" s="111" t="str">
         <f aca="false">IF('Valorización da contorna'!B30&lt;3,"A rendibilidade dos clientes é baixa"," ")</f>
         <v> </v>
       </c>
-      <c r="C48" s="115" t="str">
+      <c r="C48" s="114" t="str">
         <f aca="false">IF('Valorización da contorna'!B30&gt;2,"A rendibilidade dos clientes é grande"," ")</f>
         <v>A rendibilidade dos clientes é grande</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="111" t="n">
+      <c r="A49" s="110" t="n">
         <f aca="false">A48+1</f>
         <v>22</v>
       </c>
-      <c r="B49" s="112" t="str">
+      <c r="B49" s="111" t="str">
         <f aca="false">IF('Valorización da contorna'!B31&lt;3,"Mudar de fornecedor carreta un custo ao cliente"," ")</f>
         <v>Mudar de fornecedor carreta un custo ao cliente</v>
       </c>
-      <c r="C49" s="115" t="str">
+      <c r="C49" s="114" t="str">
         <f aca="false">IF('Valorización da contorna'!B31&gt;2,"Mudar de fornecedor non carreta un custo ao cliente"," ")</f>
         <v> </v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="111" t="n">
+      <c r="A50" s="110" t="n">
         <f aca="false">A49+1</f>
         <v>23</v>
       </c>
-      <c r="B50" s="112" t="str">
+      <c r="B50" s="111" t="str">
         <f aca="false">IF('Valorización da contorna'!B32&lt;3,"As vendas asimilan en demasía o custo de compras"," ")</f>
         <v>As vendas asimilan en demasía o custo de compras</v>
       </c>
-      <c r="C50" s="115" t="str">
+      <c r="C50" s="114" t="str">
         <f aca="false">IF('Valorización da contorna'!B32&gt;2,"O custo da compra non afecta en grande medida ás vendas"," ")</f>
         <v> </v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="111" t="n">
+      <c r="A51" s="110" t="n">
         <f aca="false">A50+1</f>
         <v>24</v>
       </c>
-      <c r="B51" s="112" t="str">
+      <c r="B51" s="111" t="str">
         <f aca="false">IF('Valorización da contorna'!B34&lt;3,"Existen moitos produtos substitutivos no sector"," ")</f>
         <v> </v>
       </c>
-      <c r="C51" s="115" t="str">
+      <c r="C51" s="114" t="str">
         <f aca="false">IF('Valorización da contorna'!B34&gt;2,"Non existen (ou existen poucos) produtos substitutivos no sector"," ")</f>
         <v>Non existen (ou existen poucos) produtos substitutivos no sector</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="113" t="n">
+      <c r="A52" s="112" t="n">
         <f aca="false">A51+1</f>
         <v>25</v>
       </c>
-      <c r="B52" s="114" t="str">
+      <c r="B52" s="113" t="str">
         <f aca="false">IF('Valorización da contorna'!B35&lt;3,"Dáse unha política agresiva por parte dos fornecedores"," ")</f>
         <v> </v>
       </c>
-      <c r="C52" s="116" t="str">
+      <c r="C52" s="115" t="str">
         <f aca="false">IF('Valorización da contorna'!B35&gt;2,"Os fornecedores manteñen unha reducida agresividade"," ")</f>
         <v>Os fornecedores manteñen unha reducida agresividade</v>
       </c>
@@ -5822,8 +5778,8 @@
   </sheetData>
   <sheetProtection sheet="true" password="946e" objects="true" scenarios="true"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.329861111111111" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.329861111111111" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -5832,80 +5788,84 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3359375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="106" width="10.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="106" width="60.67"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="4" style="106" width="11.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="105" width="10.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="105" width="60.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="105" width="11.33"/>
   </cols>
   <sheetData>
-    <row r="1" s="107" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="107" t="s">
+    <row r="1" s="106" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="106" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="108" t="s">
+      <c r="B3" s="107" t="s">
         <v>155</v>
       </c>
-      <c r="C3" s="108" t="s">
+      <c r="C3" s="107" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="109" t="n">
+      <c r="A4" s="108" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="117"/>
-      <c r="C4" s="117"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
     </row>
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="111" t="n">
+      <c r="A5" s="110" t="n">
         <f aca="false">A4+1</f>
         <v>2</v>
       </c>
-      <c r="B5" s="118"/>
-      <c r="C5" s="118"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="111" t="n">
+      <c r="A6" s="110" t="n">
         <f aca="false">A5+1</f>
         <v>3</v>
       </c>
-      <c r="B6" s="118"/>
-      <c r="C6" s="118"/>
+      <c r="B6" s="117"/>
+      <c r="C6" s="117"/>
     </row>
     <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="111" t="n">
+      <c r="A7" s="110" t="n">
         <f aca="false">A6+1</f>
         <v>4</v>
       </c>
-      <c r="B7" s="118"/>
+      <c r="B7" s="117"/>
       <c r="C7" s="118"/>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="111" t="n">
+      <c r="A8" s="110" t="n">
         <f aca="false">A7+1</f>
         <v>5</v>
       </c>
-      <c r="B8" s="118"/>
-      <c r="C8" s="118"/>
+      <c r="B8" s="118" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="118" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="111" t="n">
+      <c r="A9" s="110" t="n">
         <f aca="false">A8+1</f>
         <v>6</v>
       </c>
@@ -5913,135 +5873,149 @@
       <c r="C9" s="118"/>
     </row>
     <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="111" t="n">
+      <c r="A10" s="110" t="n">
         <f aca="false">A9+1</f>
         <v>7</v>
       </c>
-      <c r="B10" s="118"/>
-      <c r="C10" s="118"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="118" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="111" t="n">
+      <c r="A11" s="110" t="n">
         <f aca="false">A10+1</f>
         <v>8</v>
       </c>
-      <c r="B11" s="118"/>
+      <c r="B11" s="117"/>
       <c r="C11" s="118"/>
     </row>
     <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="111" t="n">
+      <c r="A12" s="110" t="n">
         <f aca="false">A11+1</f>
         <v>9</v>
       </c>
-      <c r="B12" s="118"/>
-      <c r="C12" s="118"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="118" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="111" t="n">
+      <c r="A13" s="110" t="n">
         <f aca="false">A12+1</f>
         <v>10</v>
       </c>
-      <c r="B13" s="118"/>
+      <c r="B13" s="117"/>
       <c r="C13" s="118"/>
     </row>
     <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="111" t="n">
+      <c r="A14" s="110" t="n">
         <f aca="false">A13+1</f>
         <v>11</v>
       </c>
-      <c r="B14" s="118"/>
-      <c r="C14" s="118"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="118" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="111" t="n">
+      <c r="A15" s="110" t="n">
         <f aca="false">A14+1</f>
         <v>12</v>
       </c>
-      <c r="B15" s="118"/>
+      <c r="B15" s="117"/>
       <c r="C15" s="118"/>
     </row>
     <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="111" t="n">
+      <c r="A16" s="110" t="n">
         <f aca="false">A15+1</f>
         <v>13</v>
       </c>
-      <c r="B16" s="118"/>
-      <c r="C16" s="118"/>
+      <c r="B16" s="117"/>
+      <c r="C16" s="118" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="111" t="n">
+      <c r="A17" s="110" t="n">
         <f aca="false">A16+1</f>
         <v>14</v>
       </c>
-      <c r="B17" s="118"/>
+      <c r="B17" s="117"/>
       <c r="C17" s="118"/>
     </row>
     <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="111" t="n">
+      <c r="A18" s="110" t="n">
         <f aca="false">A17+1</f>
         <v>15</v>
       </c>
-      <c r="B18" s="118"/>
+      <c r="B18" s="117"/>
       <c r="C18" s="118"/>
     </row>
     <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="111" t="n">
+      <c r="A19" s="110" t="n">
         <f aca="false">A18+1</f>
         <v>16</v>
       </c>
-      <c r="B19" s="118"/>
-      <c r="C19" s="118"/>
+      <c r="B19" s="117"/>
+      <c r="C19" s="118" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="111" t="n">
+      <c r="A20" s="110" t="n">
         <f aca="false">A19+1</f>
         <v>17</v>
       </c>
-      <c r="B20" s="118"/>
+      <c r="B20" s="117"/>
       <c r="C20" s="118"/>
     </row>
     <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="111" t="n">
+      <c r="A21" s="110" t="n">
         <f aca="false">A20+1</f>
         <v>18</v>
       </c>
-      <c r="B21" s="118"/>
-      <c r="C21" s="118"/>
+      <c r="B21" s="117"/>
+      <c r="C21" s="118" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="111" t="n">
+      <c r="A22" s="110" t="n">
         <f aca="false">A21+1</f>
         <v>19</v>
       </c>
-      <c r="B22" s="118"/>
+      <c r="B22" s="117"/>
       <c r="C22" s="118"/>
     </row>
     <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="111" t="n">
+      <c r="A23" s="110" t="n">
         <f aca="false">A22+1</f>
         <v>20</v>
       </c>
-      <c r="B23" s="118"/>
-      <c r="C23" s="118"/>
+      <c r="B23" s="117"/>
+      <c r="C23" s="118" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="111" t="n">
+      <c r="A24" s="110" t="n">
         <f aca="false">A23+1</f>
         <v>21</v>
       </c>
-      <c r="B24" s="118"/>
+      <c r="B24" s="117"/>
       <c r="C24" s="118"/>
     </row>
     <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="111" t="n">
+      <c r="A25" s="110" t="n">
         <f aca="false">A24+1</f>
         <v>22</v>
       </c>
-      <c r="B25" s="118"/>
-      <c r="C25" s="118"/>
+      <c r="B25" s="117"/>
+      <c r="C25" s="117"/>
     </row>
     <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="113" t="n">
+      <c r="A26" s="112" t="n">
         <f aca="false">A25+1</f>
         <v>23</v>
       </c>
@@ -6049,209 +6023,241 @@
       <c r="C26" s="119"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="108" t="s">
+      <c r="A27" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="108" t="s">
-        <v>157</v>
-      </c>
-      <c r="C27" s="108" t="s">
-        <v>158</v>
+      <c r="B27" s="107" t="s">
+        <v>166</v>
+      </c>
+      <c r="C27" s="107" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="109" t="n">
+      <c r="A28" s="108" t="n">
         <v>1</v>
       </c>
-      <c r="B28" s="117"/>
-      <c r="C28" s="117"/>
+      <c r="B28" s="116"/>
+      <c r="C28" s="116"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="111" t="n">
+      <c r="A29" s="110" t="n">
         <f aca="false">A28+1</f>
         <v>2</v>
       </c>
-      <c r="B29" s="118"/>
-      <c r="C29" s="118"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="111" t="n">
+      <c r="B29" s="117"/>
+      <c r="C29" s="117"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="110" t="n">
         <f aca="false">A29+1</f>
         <v>3</v>
       </c>
-      <c r="B30" s="118"/>
+      <c r="B30" s="117"/>
       <c r="C30" s="118"/>
     </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="111" t="n">
+    <row r="31" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="110" t="n">
         <f aca="false">A30+1</f>
         <v>4</v>
       </c>
-      <c r="B31" s="118"/>
-      <c r="C31" s="118"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="111" t="n">
+      <c r="B31" s="118" t="s">
+        <v>168</v>
+      </c>
+      <c r="C31" s="118" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="110" t="n">
         <f aca="false">A31+1</f>
         <v>5</v>
       </c>
-      <c r="B32" s="118"/>
-      <c r="C32" s="118"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="111" t="n">
+      <c r="B32" s="117"/>
+      <c r="C32" s="118" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="110" t="n">
         <f aca="false">A32+1</f>
         <v>6</v>
       </c>
-      <c r="B33" s="118"/>
+      <c r="B33" s="118" t="s">
+        <v>171</v>
+      </c>
       <c r="C33" s="118"/>
     </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="111" t="n">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="110" t="n">
         <f aca="false">A33+1</f>
         <v>7</v>
       </c>
       <c r="B34" s="118"/>
       <c r="C34" s="118"/>
     </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="111" t="n">
+    <row r="35" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="110" t="n">
         <f aca="false">A34+1</f>
         <v>8</v>
       </c>
-      <c r="B35" s="118"/>
-      <c r="C35" s="118"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="111" t="n">
+      <c r="B35" s="118" t="s">
+        <v>172</v>
+      </c>
+      <c r="C35" s="118" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="110" t="n">
         <f aca="false">A35+1</f>
         <v>9</v>
       </c>
       <c r="B36" s="118"/>
       <c r="C36" s="118"/>
     </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="111" t="n">
+    <row r="37" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="110" t="n">
         <f aca="false">A36+1</f>
         <v>10</v>
       </c>
       <c r="B37" s="118"/>
-      <c r="C37" s="118"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="111" t="n">
+      <c r="C37" s="118" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="22.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="110" t="n">
         <f aca="false">A37+1</f>
         <v>11</v>
       </c>
-      <c r="B38" s="118"/>
+      <c r="B38" s="118" t="s">
+        <v>175</v>
+      </c>
       <c r="C38" s="118"/>
     </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="111" t="n">
+    <row r="39" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="110" t="n">
         <f aca="false">A38+1</f>
         <v>12</v>
       </c>
       <c r="B39" s="118"/>
-      <c r="C39" s="118"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="111" t="n">
+      <c r="C39" s="118" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="22.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="110" t="n">
         <f aca="false">A39+1</f>
         <v>13</v>
       </c>
-      <c r="B40" s="118"/>
+      <c r="B40" s="118" t="s">
+        <v>177</v>
+      </c>
       <c r="C40" s="118"/>
     </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="111" t="n">
+    <row r="41" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="110" t="n">
         <f aca="false">A40+1</f>
         <v>14</v>
       </c>
       <c r="B41" s="118"/>
-      <c r="C41" s="118"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="111" t="n">
+      <c r="C41" s="118" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="110" t="n">
         <f aca="false">A41+1</f>
         <v>15</v>
       </c>
       <c r="B42" s="118"/>
       <c r="C42" s="118"/>
     </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="111" t="n">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="110" t="n">
         <f aca="false">A42+1</f>
         <v>16</v>
       </c>
       <c r="B43" s="118"/>
       <c r="C43" s="118"/>
     </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="111" t="n">
+    <row r="44" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="110" t="n">
         <f aca="false">A43+1</f>
         <v>17</v>
       </c>
-      <c r="B44" s="118"/>
-      <c r="C44" s="118"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="111" t="n">
+      <c r="B44" s="118" t="s">
+        <v>179</v>
+      </c>
+      <c r="C44" s="118" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="110" t="n">
         <f aca="false">A44+1</f>
         <v>18</v>
       </c>
       <c r="B45" s="118"/>
       <c r="C45" s="118"/>
     </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="111" t="n">
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="110" t="n">
         <f aca="false">A45+1</f>
         <v>19</v>
       </c>
       <c r="B46" s="118"/>
       <c r="C46" s="118"/>
     </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="111" t="n">
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="110" t="n">
         <f aca="false">A46+1</f>
         <v>20</v>
       </c>
       <c r="B47" s="118"/>
       <c r="C47" s="118"/>
     </row>
-    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="111" t="n">
+    <row r="48" customFormat="false" ht="22.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="110" t="n">
         <f aca="false">A47+1</f>
         <v>21</v>
       </c>
-      <c r="B48" s="118"/>
+      <c r="B48" s="118" t="s">
+        <v>181</v>
+      </c>
       <c r="C48" s="118"/>
     </row>
-    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="111" t="n">
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="110" t="n">
         <f aca="false">A48+1</f>
         <v>22</v>
       </c>
       <c r="B49" s="118"/>
       <c r="C49" s="118"/>
     </row>
-    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="111" t="n">
+    <row r="50" customFormat="false" ht="22.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="110" t="n">
         <f aca="false">A49+1</f>
         <v>23</v>
       </c>
-      <c r="B50" s="118"/>
+      <c r="B50" s="118" t="s">
+        <v>182</v>
+      </c>
       <c r="C50" s="118"/>
     </row>
-    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="111" t="n">
+    <row r="51" customFormat="false" ht="22.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="110" t="n">
         <f aca="false">A50+1</f>
         <v>24</v>
       </c>
-      <c r="B51" s="118"/>
+      <c r="B51" s="118" t="s">
+        <v>183</v>
+      </c>
       <c r="C51" s="118"/>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="113" t="n">
+      <c r="A52" s="112" t="n">
         <f aca="false">A51+1</f>
         <v>25</v>
       </c>
@@ -6260,9 +6266,18 @@
     </row>
   </sheetData>
   <sheetProtection sheet="true" password="946e" objects="true" scenarios="true"/>
+  <mergeCells count="7">
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C32:C33"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.329861111111111" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.329861111111111" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -6271,41 +6286,41 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:G40"/>
+  <dimension ref="B2:G35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J11" activeCellId="0" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="120" width="11.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="120" width="11.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="120" width="28.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="120" width="14.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="120" width="28.67"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="8" style="120" width="11.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="120" width="11.44"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="121" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="C2" s="122" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="D2" s="121" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="E2" s="121"/>
       <c r="F2" s="122" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="G2" s="121" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6322,10 +6337,10 @@
       <c r="D4" s="123"/>
       <c r="E4" s="123"/>
       <c r="F4" s="125" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="G4" s="126" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6338,13 +6353,13 @@
     </row>
     <row r="6" customFormat="false" ht="55.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="127" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="C6" s="128" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="D6" s="127" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="E6" s="127"/>
       <c r="F6" s="125"/>
@@ -6354,7 +6369,7 @@
       <c r="B7" s="127"/>
       <c r="C7" s="128"/>
       <c r="D7" s="127" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="E7" s="127"/>
       <c r="F7" s="125"/>
@@ -6364,7 +6379,7 @@
       <c r="B8" s="127"/>
       <c r="C8" s="128"/>
       <c r="D8" s="127" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="E8" s="127"/>
       <c r="F8" s="125"/>
@@ -6374,7 +6389,7 @@
       <c r="B9" s="127"/>
       <c r="C9" s="128"/>
       <c r="D9" s="127" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="E9" s="127"/>
       <c r="F9" s="125"/>
@@ -6407,12 +6422,12 @@
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="127"/>
       <c r="C13" s="130" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="D13" s="127"/>
       <c r="E13" s="127"/>
       <c r="F13" s="130" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="G13" s="126"/>
     </row>
@@ -6427,24 +6442,24 @@
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="127"/>
       <c r="C15" s="124" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="D15" s="127"/>
       <c r="E15" s="127"/>
       <c r="F15" s="124" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="G15" s="126"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="127"/>
       <c r="C16" s="124" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="D16" s="127"/>
       <c r="E16" s="127"/>
       <c r="F16" s="124" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="G16" s="126"/>
     </row>
@@ -6454,7 +6469,7 @@
       <c r="D17" s="127"/>
       <c r="E17" s="127"/>
       <c r="F17" s="124" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
       <c r="G17" s="126"/>
     </row>
@@ -6464,7 +6479,7 @@
       <c r="D18" s="127"/>
       <c r="E18" s="127"/>
       <c r="F18" s="124" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="G18" s="126"/>
     </row>
@@ -6510,12 +6525,12 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="131" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="C24" s="131"/>
       <c r="D24" s="131"/>
       <c r="E24" s="131" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="F24" s="131"/>
       <c r="G24" s="131"/>
@@ -6525,38 +6540,38 @@
       <c r="C25" s="123"/>
       <c r="D25" s="123"/>
       <c r="E25" s="123" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="F25" s="123"/>
       <c r="G25" s="123"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="123" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="C26" s="123"/>
       <c r="D26" s="123"/>
       <c r="E26" s="123" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="F26" s="123"/>
       <c r="G26" s="123"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="123" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="C27" s="123"/>
       <c r="D27" s="123"/>
       <c r="E27" s="123" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="F27" s="123"/>
       <c r="G27" s="123"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="123" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="C28" s="123"/>
       <c r="D28" s="123"/>
@@ -6566,7 +6581,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="123" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="C29" s="123"/>
       <c r="D29" s="123"/>
@@ -6576,7 +6591,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="123" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="C30" s="123"/>
       <c r="D30" s="123"/>
@@ -6586,7 +6601,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="123" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="C31" s="123"/>
       <c r="D31" s="123"/>
@@ -6625,7 +6640,7 @@
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="26XT2n8R7USgDtwwzsmIq0KhYai2/yXBRRv+SXJ+cOwTEPhE73V9zILFMJajaSbMeWiiV9bBsNUzJxTmUw6eEw==" saltValue="376nyB7Q5AyLKN7fPbto5g==" spinCount="100000" sheet="true" objects="true" scenarios="true"/>
+  <sheetProtection sheet="true" objects="true" scenarios="true"/>
   <mergeCells count="34">
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
@@ -6663,8 +6678,8 @@
     <mergeCell ref="E33:G33"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="true"/>
-  <pageMargins left="0" right="0" top="0.354166666666667" bottom="0.354166666666667" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0" right="0" top="0.354166666666667" bottom="0.354166666666667" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/Viabilidade inicial Modelo.xlsx
+++ b/Viabilidade inicial Modelo.xlsx
@@ -23,6 +23,7 @@
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm.Print_Area" vbProcedure="false">CANVAS!$B$2:$G$34</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm.Print_Area" vbProcedure="false">CANVAS!$B$2:$G$34</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm.Print_Area_0" vbProcedure="false">CANVAS!$B$2:$G$34</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm.Print_Area_0_0" vbProcedure="false">CANVAS!$B$2:$G$34</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -2397,8 +2398,7 @@
     <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
     <cellStyle name="Excel Built-in Explanatory Text" xfId="37" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf/>
+  <dxfs count="3">
     <dxf/>
     <dxf/>
     <dxf/>
@@ -2473,7 +2473,7 @@
   </sheetPr>
   <dimension ref="B1:U13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -2589,7 +2589,7 @@
   </sheetPr>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -2796,7 +2796,7 @@
   </sheetPr>
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -2849,7 +2849,7 @@
   </sheetPr>
   <dimension ref="A1:V23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -3139,7 +3139,7 @@
   </sheetPr>
   <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -3883,7 +3883,7 @@
   </sheetPr>
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -4333,7 +4333,7 @@
   </sheetPr>
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -5067,7 +5067,7 @@
   </sheetPr>
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
     </sheetView>
   </sheetViews>
@@ -5794,8 +5794,8 @@
   </sheetPr>
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G26" activeCellId="0" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6266,13 +6266,14 @@
     </row>
   </sheetData>
   <sheetProtection sheet="true" password="946e" objects="true" scenarios="true"/>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C19:C20"/>
     <mergeCell ref="C32:C33"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -6292,7 +6293,7 @@
   </sheetPr>
   <dimension ref="B2:G35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J11" activeCellId="0" sqref="J11"/>
     </sheetView>
   </sheetViews>
